--- a/source/ControlledTerms.xlsx
+++ b/source/ControlledTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birk/Documents/Jobs/SAPA/Development/spa-vocabulary/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA84F00F-7110-3646-A465-B99CEC50E4BA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372B6656-4F3B-8E4D-BDCF-73F5E33F4E51}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="22700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,7 +341,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="1179">
   <si>
     <t>identifier</t>
   </si>
@@ -913,15 +913,9 @@
     <t>D3</t>
   </si>
   <si>
-    <t>Open Reel Videotape</t>
-  </si>
-  <si>
     <t>U-matic</t>
   </si>
   <si>
-    <t>Video Cassette</t>
-  </si>
-  <si>
     <t>8mm Format</t>
   </si>
   <si>
@@ -1204,15 +1198,9 @@
     <t>phonograph record</t>
   </si>
   <si>
-    <t>45 rpm records</t>
-  </si>
-  <si>
     <t>aat:300265800</t>
   </si>
   <si>
-    <t>78 rpm records</t>
-  </si>
-  <si>
     <t>record45rpm</t>
   </si>
   <si>
@@ -3875,6 +3863,21 @@
   </si>
   <si>
     <t>theatredance</t>
+  </si>
+  <si>
+    <t>video cassette</t>
+  </si>
+  <si>
+    <t>open reel videotape</t>
+  </si>
+  <si>
+    <t>8mm format</t>
+  </si>
+  <si>
+    <t>45 rpm record</t>
+  </si>
+  <si>
+    <t>78 rpm record</t>
   </si>
 </sst>
 </file>
@@ -4426,10 +4429,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A357" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
+      <selection pane="bottomLeft" activeCell="J267" sqref="J267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4451,13 +4454,13 @@
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>148</v>
@@ -4469,7 +4472,7 @@
         <v>144</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>150</v>
@@ -4507,16 +4510,16 @@
         <v>92</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
@@ -4531,7 +4534,7 @@
       <c r="B3" s="16"/>
       <c r="D3" s="4"/>
       <c r="E3" s="9" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>73</v>
@@ -4539,12 +4542,12 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="16" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -4556,18 +4559,18 @@
       <c r="B4" s="16"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -4579,13 +4582,13 @@
       <c r="B5" s="16"/>
       <c r="D5" s="4"/>
       <c r="E5" s="6" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -4602,18 +4605,18 @@
       <c r="B6" s="16"/>
       <c r="D6" s="4"/>
       <c r="E6" s="6" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -4636,7 +4639,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -4646,13 +4649,13 @@
     </row>
     <row r="8" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>93</v>
@@ -4681,7 +4684,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -4693,7 +4696,7 @@
       <c r="B10" s="8"/>
       <c r="D10" s="4"/>
       <c r="E10" s="6" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>73</v>
@@ -4704,7 +4707,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="6" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -4716,7 +4719,7 @@
       <c r="B11" s="8"/>
       <c r="D11" s="4"/>
       <c r="E11" s="6" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>73</v>
@@ -4727,7 +4730,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -4750,7 +4753,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -4760,10 +4763,10 @@
     </row>
     <row r="13" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>96</v>
@@ -4790,7 +4793,7 @@
         <v>73</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>151</v>
@@ -4798,7 +4801,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
@@ -4816,7 +4819,7 @@
         <v>73</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>152</v>
@@ -4824,7 +4827,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
@@ -4847,7 +4850,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
@@ -4857,17 +4860,17 @@
     </row>
     <row r="17" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="E17" s="10"/>
       <c r="I17" s="11" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -4880,39 +4883,39 @@
     </row>
     <row r="18" spans="1:17" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B18" s="16" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="16" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>73</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="M18" s="16"/>
       <c r="N18" s="16" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="O18" s="16"/>
       <c r="P18" s="16" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="Q18" s="16"/>
     </row>
@@ -4920,29 +4923,29 @@
       <c r="B19" s="16"/>
       <c r="D19" s="13"/>
       <c r="E19" s="16" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="M19" s="16"/>
       <c r="N19" s="16" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="O19" s="16"/>
       <c r="P19" s="16" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="Q19" s="16"/>
     </row>
@@ -4950,32 +4953,32 @@
       <c r="B20" s="27"/>
       <c r="D20" s="26"/>
       <c r="E20" s="27" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="27" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="K20" s="27"/>
       <c r="L20" s="27" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="M20" s="27"/>
       <c r="N20" s="27" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="O20" s="27"/>
       <c r="P20" s="27" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="Q20" s="27"/>
     </row>
@@ -4983,30 +4986,30 @@
       <c r="B21" s="27"/>
       <c r="D21" s="26"/>
       <c r="E21" s="27" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="27" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
       <c r="L21" s="27" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="M21" s="27"/>
       <c r="N21" s="27" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="O21" s="27"/>
       <c r="P21" s="27" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="Q21" s="27"/>
     </row>
@@ -5014,30 +5017,30 @@
       <c r="B22" s="27"/>
       <c r="D22" s="4"/>
       <c r="E22" s="27" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="27" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="M22" s="27"/>
       <c r="N22" s="27" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="O22" s="27"/>
       <c r="P22" s="27" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="Q22" s="27"/>
     </row>
@@ -5045,13 +5048,13 @@
       <c r="B23" s="27"/>
       <c r="D23" s="26"/>
       <c r="E23" s="35" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="27" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
@@ -5070,7 +5073,7 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="27" t="s">
@@ -5087,42 +5090,42 @@
     </row>
     <row r="25" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="16" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>73</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="M25" s="16"/>
       <c r="N25" s="16" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="O25" s="16"/>
       <c r="P25" s="16" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="Q25" s="16"/>
     </row>
@@ -5130,29 +5133,29 @@
       <c r="B26" s="16"/>
       <c r="D26" s="13"/>
       <c r="E26" s="16" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="M26" s="16"/>
       <c r="N26" s="16" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="O26" s="16"/>
       <c r="P26" s="16" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="Q26" s="16"/>
     </row>
@@ -5160,28 +5163,28 @@
       <c r="B27" s="16"/>
       <c r="D27" s="13"/>
       <c r="E27" s="16" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="K27" s="16"/>
       <c r="L27" s="16" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="M27" s="16"/>
       <c r="N27" s="16" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="O27" s="16"/>
       <c r="P27" s="16" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="Q27" s="16"/>
     </row>
@@ -5189,29 +5192,29 @@
       <c r="B28" s="16"/>
       <c r="D28" s="13"/>
       <c r="E28" s="16" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="M28" s="16"/>
       <c r="N28" s="16" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="O28" s="16"/>
       <c r="P28" s="16" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="Q28" s="16"/>
     </row>
@@ -5219,29 +5222,29 @@
       <c r="B29" s="16"/>
       <c r="D29" s="13"/>
       <c r="E29" s="16" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="M29" s="16"/>
       <c r="N29" s="16" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="O29" s="16"/>
       <c r="P29" s="16" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="Q29" s="16"/>
     </row>
@@ -5250,24 +5253,24 @@
         <v>92</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
@@ -5279,13 +5282,13 @@
       <c r="B31" s="16"/>
       <c r="D31" s="13"/>
       <c r="E31" s="9" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
@@ -5294,7 +5297,7 @@
       </c>
       <c r="M31" s="16"/>
       <c r="N31" s="16" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
@@ -5304,22 +5307,22 @@
       <c r="B32" s="16"/>
       <c r="D32" s="13"/>
       <c r="E32" s="9" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="M32" s="16"/>
       <c r="N32" s="16" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
@@ -5329,16 +5332,16 @@
       <c r="B33" s="16"/>
       <c r="D33" s="13"/>
       <c r="E33" s="9" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K33" s="16"/>
       <c r="L33" s="16" t="s">
@@ -5346,7 +5349,7 @@
       </c>
       <c r="M33" s="16"/>
       <c r="N33" s="16" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="O33" s="16"/>
       <c r="P33" s="16"/>
@@ -5356,24 +5359,24 @@
       <c r="B34" s="16"/>
       <c r="D34" s="13"/>
       <c r="E34" s="9" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="K34" s="16"/>
       <c r="L34" s="16" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="M34" s="16"/>
       <c r="N34" s="16" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
@@ -5383,22 +5386,22 @@
       <c r="B35" s="16"/>
       <c r="D35" s="13"/>
       <c r="E35" s="9" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="M35" s="16"/>
       <c r="N35" s="16" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="O35" s="16"/>
       <c r="P35" s="16"/>
@@ -5408,22 +5411,22 @@
       <c r="B36" s="16"/>
       <c r="D36" s="13"/>
       <c r="E36" s="9" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="M36" s="16"/>
       <c r="N36" s="16" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="O36" s="16"/>
       <c r="P36" s="16"/>
@@ -5433,22 +5436,22 @@
       <c r="B37" s="16"/>
       <c r="D37" s="13"/>
       <c r="E37" s="9" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
       <c r="L37" s="16" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="M37" s="16"/>
       <c r="N37" s="16" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
@@ -5458,22 +5461,22 @@
       <c r="B38" s="16"/>
       <c r="D38" s="13"/>
       <c r="E38" s="9" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="J38" s="16"/>
       <c r="K38" s="16"/>
       <c r="L38" s="36" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="M38" s="16"/>
       <c r="N38" s="16" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="O38" s="16"/>
       <c r="P38" s="16"/>
@@ -5483,22 +5486,22 @@
       <c r="B39" s="16"/>
       <c r="D39" s="13"/>
       <c r="E39" s="9" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
       <c r="L39" s="16" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="M39" s="16"/>
       <c r="N39" s="16" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="O39" s="16"/>
       <c r="P39" s="16"/>
@@ -5508,22 +5511,22 @@
       <c r="B40" s="16"/>
       <c r="D40" s="13"/>
       <c r="E40" s="9" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="J40" s="16"/>
       <c r="K40" s="16"/>
       <c r="L40" s="16" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="M40" s="16"/>
       <c r="N40" s="16" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
@@ -5533,22 +5536,22 @@
       <c r="B41" s="16"/>
       <c r="D41" s="13"/>
       <c r="E41" s="9" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="J41" s="16"/>
       <c r="K41" s="16"/>
       <c r="L41" s="16" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="M41" s="16"/>
       <c r="N41" s="16" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="O41" s="16"/>
       <c r="P41" s="16"/>
@@ -5558,22 +5561,22 @@
       <c r="B42" s="16"/>
       <c r="D42" s="13"/>
       <c r="E42" s="9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="J42" s="16"/>
       <c r="K42" s="16"/>
       <c r="L42" s="16" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M42" s="16"/>
       <c r="N42" s="16" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
@@ -5581,13 +5584,13 @@
     </row>
     <row r="43" spans="1:17" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="D43" s="23" t="s">
         <v>88</v>
@@ -5612,47 +5615,47 @@
       <c r="B44" s="8"/>
       <c r="D44" s="4"/>
       <c r="E44" s="8" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>73</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="16"/>
       <c r="L44" s="8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="O44" s="8"/>
       <c r="P44" s="8" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="45" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="8"/>
       <c r="D45" s="4"/>
       <c r="E45" s="8" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="16"/>
@@ -5669,21 +5672,21 @@
       <c r="B46" s="8"/>
       <c r="D46" s="4"/>
       <c r="E46" s="8" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="16"/>
       <c r="L46" s="6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
@@ -5694,28 +5697,28 @@
       <c r="B47" s="16"/>
       <c r="D47" s="13"/>
       <c r="E47" s="9" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="J47" s="16"/>
       <c r="K47" s="16"/>
       <c r="L47" s="28" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="M47" s="16"/>
       <c r="N47" s="16" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="Q47" s="16"/>
     </row>
@@ -5723,16 +5726,16 @@
       <c r="B48" s="8"/>
       <c r="D48" s="4"/>
       <c r="E48" s="8" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="16"/>
@@ -5741,29 +5744,29 @@
       </c>
       <c r="M48" s="8"/>
       <c r="N48" s="8" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="O48" s="16" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="P48" s="29" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="Q48" s="8" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="49" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="8"/>
       <c r="D49" s="4"/>
       <c r="E49" s="8" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="16"/>
@@ -5772,11 +5775,11 @@
       </c>
       <c r="M49" s="8"/>
       <c r="N49" s="8" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="O49" s="8"/>
       <c r="P49" s="29" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="Q49" s="8"/>
     </row>
@@ -5784,13 +5787,13 @@
       <c r="B50" s="8"/>
       <c r="D50" s="4"/>
       <c r="E50" s="8" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="16"/>
@@ -5799,11 +5802,11 @@
       </c>
       <c r="M50" s="8"/>
       <c r="N50" s="8" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="O50" s="8"/>
       <c r="P50" s="8" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="Q50" s="8"/>
     </row>
@@ -5811,21 +5814,21 @@
       <c r="B51" s="8"/>
       <c r="D51" s="4"/>
       <c r="E51" s="8" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="16"/>
       <c r="L51" s="8" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
@@ -5836,96 +5839,96 @@
       <c r="B52" s="8"/>
       <c r="D52" s="4"/>
       <c r="E52" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="16"/>
       <c r="L52" s="6" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="M52" s="8"/>
       <c r="N52" s="29" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="O52" s="8"/>
       <c r="P52" s="8" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="Q52" s="8"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C53" s="5"/>
       <c r="E53" s="8" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="Q53" s="5" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C54" s="5"/>
       <c r="E54" s="8" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F54" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="L54" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="I54" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="L54" s="8" t="s">
-        <v>579</v>
-      </c>
       <c r="N54" s="8" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="55" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="8"/>
       <c r="D55" s="4"/>
       <c r="E55" s="8" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="J55" s="8"/>
       <c r="K55" s="16"/>
       <c r="L55" s="8" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
@@ -5934,18 +5937,18 @@
       <c r="B56" s="8"/>
       <c r="D56" s="4"/>
       <c r="E56" s="8" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="J56" s="8"/>
       <c r="K56" s="16"/>
       <c r="N56" s="8" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
@@ -5955,18 +5958,18 @@
       <c r="B57" s="8"/>
       <c r="D57" s="4"/>
       <c r="E57" s="8" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="J57" s="8"/>
       <c r="K57" s="16"/>
       <c r="N57" s="8" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
@@ -5976,21 +5979,21 @@
       <c r="B58" s="8"/>
       <c r="D58" s="4"/>
       <c r="E58" s="8" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="J58" s="8"/>
       <c r="K58" s="16"/>
       <c r="L58" s="8" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="O58" s="8"/>
       <c r="P58" s="8"/>
@@ -6000,21 +6003,21 @@
       <c r="B59" s="8"/>
       <c r="D59" s="4"/>
       <c r="E59" s="8" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="J59" s="8"/>
       <c r="K59" s="16"/>
       <c r="L59" s="8" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
@@ -6024,21 +6027,21 @@
       <c r="B60" s="8"/>
       <c r="D60" s="4"/>
       <c r="E60" s="8" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="J60" s="8"/>
       <c r="K60" s="16"/>
       <c r="L60" s="8" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
@@ -6048,21 +6051,21 @@
       <c r="B61" s="8"/>
       <c r="D61" s="4"/>
       <c r="E61" s="8" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="J61" s="8"/>
       <c r="K61" s="16"/>
       <c r="L61" s="8" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
@@ -6072,21 +6075,21 @@
       <c r="B62" s="8"/>
       <c r="D62" s="4"/>
       <c r="E62" s="8" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="16"/>
       <c r="L62" s="8" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
@@ -6096,21 +6099,21 @@
       <c r="B63" s="8"/>
       <c r="D63" s="4"/>
       <c r="E63" s="8" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="J63" s="8"/>
       <c r="K63" s="16"/>
       <c r="L63" s="8" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
@@ -6120,18 +6123,18 @@
       <c r="B64" s="8"/>
       <c r="D64" s="4"/>
       <c r="E64" s="8" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="J64" s="8"/>
       <c r="K64" s="16"/>
       <c r="L64" s="8" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="N64" s="8"/>
       <c r="O64" s="8"/>
@@ -6142,18 +6145,18 @@
       <c r="B65" s="8"/>
       <c r="D65" s="4"/>
       <c r="E65" s="8" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="16"/>
       <c r="L65" s="8" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="N65" s="8"/>
       <c r="O65" s="8"/>
@@ -6164,21 +6167,21 @@
       <c r="B66" s="8"/>
       <c r="D66" s="4"/>
       <c r="E66" s="8" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="16"/>
       <c r="L66" s="8" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
@@ -6188,21 +6191,21 @@
       <c r="B67" s="8"/>
       <c r="D67" s="4"/>
       <c r="E67" s="8" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="J67" s="8"/>
       <c r="K67" s="16"/>
       <c r="L67" s="8" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
@@ -6212,21 +6215,21 @@
       <c r="B68" s="8"/>
       <c r="D68" s="4"/>
       <c r="E68" s="8" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="J68" s="8"/>
       <c r="K68" s="16"/>
       <c r="L68" s="8" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="O68" s="8"/>
       <c r="P68" s="8"/>
@@ -6236,21 +6239,21 @@
       <c r="B69" s="8"/>
       <c r="D69" s="4"/>
       <c r="E69" s="8" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="J69" s="8"/>
       <c r="K69" s="16"/>
       <c r="L69" s="8" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="O69" s="8"/>
       <c r="P69" s="8"/>
@@ -6260,21 +6263,21 @@
       <c r="B70" s="8"/>
       <c r="D70" s="4"/>
       <c r="E70" s="8" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="J70" s="8"/>
       <c r="K70" s="16"/>
       <c r="L70" s="8" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="O70" s="8"/>
       <c r="P70" s="8"/>
@@ -6284,21 +6287,21 @@
       <c r="B71" s="8"/>
       <c r="D71" s="4"/>
       <c r="E71" s="8" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="J71" s="8"/>
       <c r="K71" s="16"/>
       <c r="L71" s="8" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="O71" s="8"/>
       <c r="P71" s="8"/>
@@ -6308,21 +6311,21 @@
       <c r="B72" s="8"/>
       <c r="D72" s="4"/>
       <c r="E72" s="8" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="16"/>
       <c r="L72" s="8" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="O72" s="8"/>
       <c r="P72" s="8"/>
@@ -6332,21 +6335,21 @@
       <c r="B73" s="8"/>
       <c r="D73" s="4"/>
       <c r="E73" s="8" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="16"/>
       <c r="L73" s="8" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
@@ -6356,21 +6359,21 @@
       <c r="B74" s="8"/>
       <c r="D74" s="4"/>
       <c r="E74" s="8" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="J74" s="8"/>
       <c r="K74" s="16"/>
       <c r="L74" s="8" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="N74" s="8" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="O74" s="8"/>
       <c r="P74" s="8"/>
@@ -6380,13 +6383,13 @@
       <c r="B75" s="8"/>
       <c r="D75" s="4"/>
       <c r="E75" s="8" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="J75" s="8"/>
       <c r="K75" s="16"/>
@@ -6394,7 +6397,7 @@
         <v>117</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="O75" s="8"/>
       <c r="P75" s="8"/>
@@ -6404,21 +6407,21 @@
       <c r="B76" s="8"/>
       <c r="D76" s="4"/>
       <c r="E76" s="8" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="J76" s="8"/>
       <c r="K76" s="16"/>
       <c r="L76" s="8" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="O76" s="8"/>
       <c r="P76" s="8"/>
@@ -6428,21 +6431,21 @@
       <c r="B77" s="8"/>
       <c r="D77" s="4"/>
       <c r="E77" s="8" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="J77" s="8"/>
       <c r="K77" s="16"/>
       <c r="L77" s="8" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="O77" s="8"/>
       <c r="P77" s="8"/>
@@ -6452,21 +6455,21 @@
       <c r="B78" s="8"/>
       <c r="D78" s="4"/>
       <c r="E78" s="8" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="J78" s="8"/>
       <c r="K78" s="16"/>
       <c r="L78" s="8" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
@@ -6476,21 +6479,21 @@
       <c r="B79" s="8"/>
       <c r="D79" s="4"/>
       <c r="E79" s="8" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="J79" s="8"/>
       <c r="K79" s="16"/>
       <c r="L79" s="8" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="O79" s="8"/>
       <c r="P79" s="8"/>
@@ -6500,18 +6503,18 @@
       <c r="B80" s="8"/>
       <c r="D80" s="4"/>
       <c r="E80" s="8" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="J80" s="8"/>
       <c r="K80" s="16"/>
       <c r="L80" s="8" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
@@ -6522,21 +6525,21 @@
       <c r="B81" s="8"/>
       <c r="D81" s="4"/>
       <c r="E81" s="8" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="J81" s="8"/>
       <c r="K81" s="16"/>
       <c r="L81" s="8" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="O81" s="8"/>
       <c r="P81" s="8"/>
@@ -6546,21 +6549,21 @@
       <c r="B82" s="8"/>
       <c r="D82" s="4"/>
       <c r="E82" s="8" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="J82" s="8"/>
       <c r="K82" s="16"/>
       <c r="L82" s="8" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="O82" s="8"/>
       <c r="P82" s="8"/>
@@ -6570,21 +6573,21 @@
       <c r="B83" s="8"/>
       <c r="D83" s="4"/>
       <c r="E83" s="8" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="J83" s="8"/>
       <c r="K83" s="16"/>
       <c r="L83" s="8" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="O83" s="8"/>
       <c r="P83" s="8"/>
@@ -6594,21 +6597,21 @@
       <c r="B84" s="8"/>
       <c r="D84" s="4"/>
       <c r="E84" s="8" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="J84" s="8"/>
       <c r="K84" s="16"/>
       <c r="L84" s="8" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="N84" s="8" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="O84" s="8"/>
       <c r="P84" s="8"/>
@@ -6618,21 +6621,21 @@
       <c r="B85" s="8"/>
       <c r="D85" s="4"/>
       <c r="E85" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="J85" s="8"/>
       <c r="K85" s="16"/>
       <c r="L85" s="8" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="O85" s="8"/>
       <c r="P85" s="8"/>
@@ -6642,21 +6645,21 @@
       <c r="B86" s="8"/>
       <c r="D86" s="4"/>
       <c r="E86" s="8" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="J86" s="8"/>
       <c r="K86" s="16"/>
       <c r="L86" s="8" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="N86" s="8" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="O86" s="8"/>
       <c r="P86" s="8"/>
@@ -6674,33 +6677,33 @@
         <v>153</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="88" spans="2:17" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B88" s="8"/>
       <c r="D88" s="4"/>
       <c r="E88" s="8" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F88" s="9" t="s">
         <v>153</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="J88" s="8"/>
       <c r="K88" s="16"/>
       <c r="L88" s="8" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M88" s="8"/>
       <c r="N88" s="8" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="O88" s="8"/>
       <c r="P88" s="8" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="Q88" s="8"/>
     </row>
@@ -6708,18 +6711,18 @@
       <c r="B89" s="8"/>
       <c r="D89" s="4"/>
       <c r="E89" s="8" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="J89" s="8"/>
       <c r="K89" s="16"/>
       <c r="L89" s="8" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M89" s="8"/>
       <c r="N89" s="8"/>
@@ -6731,18 +6734,18 @@
       <c r="B90" s="8"/>
       <c r="D90" s="4"/>
       <c r="E90" s="8" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="J90" s="8"/>
       <c r="K90" s="16"/>
       <c r="L90" s="8" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="M90" s="8"/>
       <c r="N90" s="8"/>
@@ -6754,26 +6757,26 @@
       <c r="B91" s="8"/>
       <c r="D91" s="4"/>
       <c r="E91" s="8" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="J91" s="8"/>
       <c r="K91" s="16"/>
       <c r="L91" s="8" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="M91" s="8"/>
       <c r="N91" s="8" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="O91" s="8"/>
       <c r="P91" s="8" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="Q91" s="8"/>
     </row>
@@ -6781,18 +6784,18 @@
       <c r="B92" s="8"/>
       <c r="D92" s="4"/>
       <c r="E92" s="8" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J92" s="8"/>
       <c r="K92" s="16"/>
       <c r="L92" s="8" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="M92" s="8"/>
       <c r="N92" s="8"/>
@@ -6804,16 +6807,16 @@
       <c r="B93" s="8"/>
       <c r="D93" s="4"/>
       <c r="E93" s="8" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F93" s="8" t="s">
         <v>153</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="J93" s="8"/>
       <c r="K93" s="16"/>
@@ -6822,11 +6825,11 @@
       </c>
       <c r="M93" s="8"/>
       <c r="N93" s="8" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="O93" s="8"/>
       <c r="P93" s="8" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q93" s="8"/>
     </row>
@@ -6834,26 +6837,26 @@
       <c r="B94" s="8"/>
       <c r="D94" s="4"/>
       <c r="E94" s="8" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="J94" s="8"/>
       <c r="K94" s="16"/>
       <c r="L94" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M94" s="8"/>
       <c r="N94" s="8" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="O94" s="8"/>
       <c r="P94" s="8" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="Q94" s="8"/>
     </row>
@@ -6861,18 +6864,18 @@
       <c r="B95" s="8"/>
       <c r="D95" s="4"/>
       <c r="E95" s="8" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="J95" s="8"/>
       <c r="K95" s="16"/>
       <c r="L95" s="8" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="M95" s="8"/>
       <c r="N95" s="8"/>
@@ -6884,28 +6887,28 @@
       <c r="B96" s="8"/>
       <c r="D96" s="4"/>
       <c r="E96" s="8" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F96" s="8" t="s">
         <v>153</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="J96" s="8"/>
       <c r="K96" s="16"/>
       <c r="L96" s="8" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="M96" s="8"/>
       <c r="N96" s="8" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="O96" s="8" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="P96" s="8" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="Q96" s="8"/>
     </row>
@@ -6913,13 +6916,13 @@
       <c r="B97" s="8"/>
       <c r="D97" s="4"/>
       <c r="E97" s="8" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J97" s="8"/>
       <c r="K97" s="16"/>
@@ -6939,10 +6942,10 @@
         <v>103</v>
       </c>
       <c r="F98" s="30" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
@@ -6962,7 +6965,7 @@
         <v>104</v>
       </c>
       <c r="F99" s="30" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
@@ -6983,7 +6986,7 @@
         <v>105</v>
       </c>
       <c r="F100" s="30" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
@@ -7004,7 +7007,7 @@
         <v>106</v>
       </c>
       <c r="F101" s="30" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
@@ -7022,10 +7025,10 @@
       <c r="B102" s="8"/>
       <c r="D102" s="4"/>
       <c r="E102" s="27" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F102" s="30" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
@@ -7043,21 +7046,21 @@
       <c r="B103" s="8"/>
       <c r="D103" s="4"/>
       <c r="E103" s="8" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="J103" s="8"/>
       <c r="K103" s="16"/>
       <c r="L103" s="8" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="N103" s="8"/>
       <c r="O103" s="8"/>
@@ -7068,18 +7071,18 @@
       <c r="B104" s="8"/>
       <c r="D104" s="4"/>
       <c r="E104" s="8" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="J104" s="8"/>
       <c r="K104" s="16"/>
       <c r="L104" s="8" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="M104" s="8"/>
       <c r="N104" s="8"/>
@@ -7091,23 +7094,23 @@
       <c r="B105" s="8"/>
       <c r="D105" s="4"/>
       <c r="E105" s="27" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F105" s="30" t="s">
         <v>153</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="K105" s="8"/>
       <c r="L105" s="27" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="M105" s="8"/>
       <c r="N105" s="8"/>
@@ -7118,37 +7121,37 @@
     <row r="106" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C106" s="5"/>
       <c r="E106" s="8" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F106" s="8" t="s">
         <v>73</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="L106" s="8" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="107" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="10" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="E107" s="25"/>
       <c r="F107" s="31"/>
       <c r="I107" s="10" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
       <c r="L107" s="25" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="M107" s="10"/>
       <c r="N107" s="10"/>
@@ -7160,13 +7163,13 @@
       <c r="B108" s="16"/>
       <c r="D108" s="28"/>
       <c r="E108" s="28" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="F108" s="30" t="s">
         <v>73</v>
       </c>
       <c r="I108" s="16" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="J108" s="16"/>
       <c r="K108" s="16"/>
@@ -7175,7 +7178,7 @@
       </c>
       <c r="M108" s="16"/>
       <c r="N108" s="16" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="O108" s="16"/>
       <c r="P108" s="16"/>
@@ -7185,22 +7188,22 @@
       <c r="B109" s="16"/>
       <c r="D109" s="28"/>
       <c r="E109" s="28" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F109" s="30" t="s">
         <v>73</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="J109" s="16"/>
       <c r="K109" s="16"/>
       <c r="L109" s="28" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="M109" s="16"/>
       <c r="N109" s="16" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="O109" s="16"/>
       <c r="P109" s="16"/>
@@ -7210,13 +7213,13 @@
       <c r="B110" s="8"/>
       <c r="D110" s="27"/>
       <c r="E110" s="27" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="F110" s="30" t="s">
         <v>73</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
@@ -7225,7 +7228,7 @@
       </c>
       <c r="M110" s="8"/>
       <c r="N110" s="8" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
@@ -7235,22 +7238,22 @@
       <c r="B111" s="16"/>
       <c r="D111" s="28"/>
       <c r="E111" s="28" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F111" s="30" t="s">
         <v>73</v>
       </c>
       <c r="I111" s="16" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="J111" s="16"/>
       <c r="K111" s="16"/>
       <c r="L111" s="28" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="M111" s="16"/>
       <c r="N111" s="16" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="O111" s="16"/>
       <c r="P111" s="16"/>
@@ -7260,18 +7263,18 @@
       <c r="B112" s="8"/>
       <c r="D112" s="28"/>
       <c r="E112" s="25" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F112" s="30" t="s">
         <v>73</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="27" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="M112" s="8"/>
       <c r="N112" s="8"/>
@@ -7283,13 +7286,13 @@
       <c r="B113" s="16"/>
       <c r="D113" s="28"/>
       <c r="E113" s="28" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F113" s="30" t="s">
         <v>73</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="J113" s="16"/>
       <c r="K113" s="16"/>
@@ -7308,13 +7311,13 @@
       <c r="B114" s="16"/>
       <c r="D114" s="28"/>
       <c r="E114" s="28" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F114" s="30" t="s">
         <v>73</v>
       </c>
       <c r="I114" s="16" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J114" s="16"/>
       <c r="K114" s="16"/>
@@ -7323,7 +7326,7 @@
       </c>
       <c r="M114" s="16"/>
       <c r="N114" s="16" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="O114" s="16"/>
       <c r="P114" s="16"/>
@@ -7339,7 +7342,7 @@
         <v>73</v>
       </c>
       <c r="I115" s="16" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="J115" s="16"/>
       <c r="K115" s="16"/>
@@ -7348,7 +7351,7 @@
       </c>
       <c r="M115" s="16"/>
       <c r="N115" s="16" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="O115" s="16"/>
       <c r="P115" s="16"/>
@@ -7358,13 +7361,13 @@
       <c r="B116" s="8"/>
       <c r="D116" s="27"/>
       <c r="E116" s="27" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F116" s="30" t="s">
         <v>73</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
@@ -7373,7 +7376,7 @@
       </c>
       <c r="M116" s="8"/>
       <c r="N116" s="8" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="O116" s="8"/>
       <c r="P116" s="8"/>
@@ -7383,13 +7386,13 @@
       <c r="B117" s="8"/>
       <c r="D117" s="27"/>
       <c r="E117" s="27" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F117" s="30" t="s">
         <v>73</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
@@ -7406,13 +7409,13 @@
       <c r="B118" s="16"/>
       <c r="D118" s="28"/>
       <c r="E118" s="28" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="F118" s="30" t="s">
         <v>73</v>
       </c>
       <c r="I118" s="16" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="J118" s="16"/>
       <c r="K118" s="16"/>
@@ -7427,20 +7430,20 @@
     </row>
     <row r="119" spans="1:17" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="E119" s="10"/>
       <c r="I119" s="11" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="J119" s="10"/>
       <c r="K119" s="10"/>
@@ -7455,18 +7458,18 @@
       <c r="B120" s="16"/>
       <c r="D120" s="13"/>
       <c r="E120" s="16" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F120" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="J120" s="16"/>
       <c r="K120" s="16"/>
       <c r="L120" s="16" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="M120" s="16"/>
       <c r="N120" s="16"/>
@@ -7478,18 +7481,18 @@
       <c r="B121" s="16"/>
       <c r="D121" s="13"/>
       <c r="E121" s="16" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="J121" s="16"/>
       <c r="K121" s="16"/>
       <c r="L121" s="16" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="M121" s="16"/>
       <c r="N121" s="16"/>
@@ -7512,7 +7515,7 @@
       <c r="J122" s="16"/>
       <c r="K122" s="16"/>
       <c r="L122" s="16" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="M122" s="16"/>
       <c r="N122" s="16"/>
@@ -7522,21 +7525,21 @@
     </row>
     <row r="123" spans="1:17" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B123" s="10" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="J123" s="10"/>
       <c r="K123" s="10"/>
       <c r="L123" s="25" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="M123" s="10"/>
       <c r="N123" s="10"/>
@@ -7548,57 +7551,57 @@
       <c r="B124" s="8"/>
       <c r="D124" s="4"/>
       <c r="E124" s="8" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F124" s="16" t="s">
         <v>73</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="27" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M124" s="8"/>
       <c r="N124" s="8" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="O124" s="8"/>
       <c r="P124" s="8" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="Q124" s="8" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="125" spans="1:17" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B125" s="8"/>
       <c r="D125" s="4"/>
       <c r="E125" s="8" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="F125" s="16" t="s">
         <v>73</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="27" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M125" s="8"/>
       <c r="N125" s="8" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="O125" s="8" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="P125" s="8" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="Q125" s="8"/>
     </row>
@@ -7606,18 +7609,18 @@
       <c r="B126" s="8"/>
       <c r="D126" s="4"/>
       <c r="E126" s="8" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F126" s="16" t="s">
         <v>73</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="27" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M126" s="8"/>
       <c r="N126" s="8"/>
@@ -7629,21 +7632,21 @@
       <c r="B127" s="8"/>
       <c r="D127" s="4"/>
       <c r="E127" s="16" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F127" s="16" t="s">
         <v>73</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="I127" s="8" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="27" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="M127" s="8"/>
       <c r="N127" s="8"/>
@@ -7655,18 +7658,18 @@
       <c r="B128" s="8"/>
       <c r="D128" s="4"/>
       <c r="E128" s="27" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="F128" s="16" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="I128" s="27" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="27" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="M128" s="8"/>
       <c r="N128" s="8"/>
@@ -7678,13 +7681,13 @@
       <c r="B129" s="8"/>
       <c r="D129" s="4"/>
       <c r="E129" s="27" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="I129" s="27" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
@@ -7701,13 +7704,13 @@
       <c r="B130" s="8"/>
       <c r="D130" s="4"/>
       <c r="E130" s="27" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F130" s="16" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="I130" s="27" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
@@ -7724,18 +7727,18 @@
       <c r="B131" s="8"/>
       <c r="D131" s="4"/>
       <c r="E131" s="27" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="I131" s="27" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="27" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="M131" s="8"/>
       <c r="N131" s="8"/>
@@ -7747,13 +7750,13 @@
       <c r="B132" s="8"/>
       <c r="D132" s="4"/>
       <c r="E132" s="6" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
@@ -7770,16 +7773,16 @@
       <c r="B133" s="8"/>
       <c r="D133" s="4"/>
       <c r="E133" s="6" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="K133" s="8"/>
       <c r="L133" s="6" t="s">
@@ -7797,18 +7800,18 @@
       <c r="B134" s="8"/>
       <c r="D134" s="4"/>
       <c r="E134" s="27" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F134" s="16" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="I134" s="27" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="27" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="M134" s="8"/>
       <c r="N134" s="8"/>
@@ -7820,18 +7823,18 @@
       <c r="B135" s="8"/>
       <c r="D135" s="4"/>
       <c r="E135" s="27" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="I135" s="27" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="27" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="M135" s="8"/>
       <c r="N135" s="8"/>
@@ -7843,18 +7846,18 @@
       <c r="B136" s="8"/>
       <c r="D136" s="4"/>
       <c r="E136" s="6" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="F136" s="16" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="6" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="M136" s="8"/>
       <c r="N136" s="8"/>
@@ -7866,18 +7869,18 @@
       <c r="B137" s="8"/>
       <c r="D137" s="4"/>
       <c r="E137" s="27" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="I137" s="27" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
       <c r="L137" s="27" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="M137" s="8"/>
       <c r="N137" s="8"/>
@@ -7889,18 +7892,18 @@
       <c r="B138" s="8"/>
       <c r="D138" s="4"/>
       <c r="E138" s="27" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="F138" s="16" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="I138" s="27" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="27" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="M138" s="8"/>
       <c r="N138" s="8"/>
@@ -7912,13 +7915,13 @@
       <c r="B139" s="8"/>
       <c r="D139" s="4"/>
       <c r="E139" s="27" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="I139" s="27" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
@@ -7935,13 +7938,13 @@
       <c r="B140" s="8"/>
       <c r="D140" s="4"/>
       <c r="E140" s="27" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F140" s="16" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="I140" s="27" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
@@ -7958,18 +7961,18 @@
       <c r="B141" s="8"/>
       <c r="D141" s="4"/>
       <c r="E141" s="8" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F141" s="16" t="s">
         <v>73</v>
       </c>
       <c r="I141" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
       <c r="L141" s="27" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M141" s="8"/>
       <c r="N141" s="8"/>
@@ -7981,18 +7984,18 @@
       <c r="B142" s="8"/>
       <c r="D142" s="4"/>
       <c r="E142" s="8" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F142" s="16" t="s">
         <v>73</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
       <c r="L142" s="27" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M142" s="8"/>
       <c r="N142" s="8"/>
@@ -8004,18 +8007,18 @@
       <c r="B143" s="8"/>
       <c r="D143" s="4"/>
       <c r="E143" s="8" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F143" s="16" t="s">
         <v>73</v>
       </c>
       <c r="I143" s="8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
       <c r="L143" s="27" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M143" s="8"/>
       <c r="N143" s="8"/>
@@ -8027,18 +8030,18 @@
       <c r="B144" s="8"/>
       <c r="D144" s="4"/>
       <c r="E144" s="8" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F144" s="16" t="s">
         <v>73</v>
       </c>
       <c r="I144" s="8" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J144" s="8"/>
       <c r="K144" s="8"/>
       <c r="L144" s="27" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="M144" s="8"/>
       <c r="N144" s="8"/>
@@ -8050,18 +8053,18 @@
       <c r="B145" s="8"/>
       <c r="D145" s="4"/>
       <c r="E145" s="8" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F145" s="16" t="s">
         <v>73</v>
       </c>
       <c r="I145" s="8" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
       <c r="L145" s="27" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="M145" s="8"/>
       <c r="N145" s="8"/>
@@ -8073,18 +8076,18 @@
       <c r="B146" s="8"/>
       <c r="D146" s="4"/>
       <c r="E146" s="6" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F146" s="16" t="s">
         <v>73</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="J146" s="8"/>
       <c r="K146" s="8"/>
       <c r="L146" s="27" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="M146" s="8"/>
       <c r="N146" s="8"/>
@@ -8096,18 +8099,18 @@
       <c r="B147" s="8"/>
       <c r="D147" s="4"/>
       <c r="E147" s="6" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F147" s="16" t="s">
         <v>73</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
       <c r="L147" s="27" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M147" s="8"/>
       <c r="N147" s="8"/>
@@ -8119,18 +8122,18 @@
       <c r="B148" s="8"/>
       <c r="D148" s="4"/>
       <c r="E148" s="6" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F148" s="16" t="s">
         <v>73</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="J148" s="8"/>
       <c r="K148" s="8"/>
       <c r="L148" s="27" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M148" s="8"/>
       <c r="N148" s="8"/>
@@ -8140,448 +8143,448 @@
     </row>
     <row r="149" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="32" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="I149" s="32" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="150" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B150" s="8"/>
       <c r="D150" s="4"/>
       <c r="E150" s="6" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="151" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B151" s="8"/>
       <c r="D151" s="4"/>
       <c r="E151" s="6" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="152" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B152" s="8"/>
       <c r="D152" s="4"/>
       <c r="E152" s="6" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="153" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="8"/>
       <c r="D153" s="4"/>
       <c r="E153" s="6" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="H153" s="34" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="154" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="8"/>
       <c r="D154" s="4"/>
       <c r="E154" s="6" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="H154" s="34" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="155" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B155" s="8"/>
       <c r="D155" s="4"/>
       <c r="E155" s="6" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="H155" s="34" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="I155" s="34" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="156" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B156" s="8"/>
       <c r="D156" s="4"/>
       <c r="E156" s="6" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="H156" s="34" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="I156" s="34" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="157" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B157" s="8"/>
       <c r="D157" s="4"/>
       <c r="E157" s="6" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="H157" s="34" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="I157" s="34" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="158" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B158" s="8"/>
       <c r="D158" s="4"/>
       <c r="E158" s="6" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="H158" s="34" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="I158" s="34" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="159" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B159" s="8"/>
       <c r="D159" s="4"/>
       <c r="E159" s="6" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="H159" s="34" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="I159" s="34" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="160" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B160" s="8"/>
       <c r="D160" s="4"/>
       <c r="E160" s="6" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="H160" s="34" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="I160" s="34" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="161" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B161" s="8"/>
       <c r="D161" s="4"/>
       <c r="E161" s="6" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="H161" s="34" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="I161" s="34" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="162" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B162" s="8"/>
       <c r="D162" s="4"/>
       <c r="E162" s="6" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="H162" s="34" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="I162" s="6" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="163" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B163" s="8"/>
       <c r="D163" s="4"/>
       <c r="E163" s="6" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="H163" s="34" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="I163" s="34" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="164" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B164" s="8"/>
       <c r="D164" s="4"/>
       <c r="E164" s="6" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="H164" s="34" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="I164" s="34" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="165" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B165" s="8"/>
       <c r="D165" s="4"/>
       <c r="E165" s="6" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="I165" s="7" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="166" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B166" s="8"/>
       <c r="D166" s="4"/>
       <c r="E166" s="6" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I166" s="7" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="167" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B167" s="8"/>
       <c r="D167" s="4"/>
       <c r="E167" s="6" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="H167" s="34" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="I167" s="34" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="168" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B168" s="8"/>
       <c r="D168" s="4"/>
       <c r="E168" s="6" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="H168" s="34" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="I168" s="34" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="169" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B169" s="8"/>
       <c r="D169" s="4"/>
       <c r="E169" s="6" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="I169" s="7" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="170" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B170" s="8"/>
       <c r="D170" s="4"/>
       <c r="E170" s="6" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="I170" s="7" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="171" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B171" s="8"/>
       <c r="D171" s="4"/>
       <c r="E171" s="6" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="H171" s="34" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="I171" s="34" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="172" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B172" s="8"/>
       <c r="D172" s="4"/>
       <c r="E172" s="6" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="H172" s="34" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="I172" s="34" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="173" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B173" s="8"/>
       <c r="D173" s="4"/>
       <c r="E173" s="6" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="I173" s="7" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="174" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B174" s="8"/>
       <c r="D174" s="4"/>
       <c r="E174" s="6" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="H174" s="34" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="I174" s="34" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="175" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B175" s="8"/>
       <c r="D175" s="4"/>
       <c r="E175" s="6" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="I175" s="7" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="176" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B176" s="8"/>
       <c r="D176" s="4"/>
       <c r="E176" s="6" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="I176" s="7" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="177" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B177" s="8"/>
       <c r="D177" s="4"/>
       <c r="E177" s="6" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="I177" s="7" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="178" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B178" s="8"/>
       <c r="D178" s="4"/>
       <c r="E178" s="6" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="I178" s="7" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="179" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B179" s="8"/>
       <c r="D179" s="4"/>
       <c r="E179" s="6" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="I179" s="7" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="180" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B180" s="8"/>
       <c r="D180" s="4"/>
       <c r="E180" s="6" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="H180" s="34" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="I180" s="34" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="181" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B181" s="8"/>
       <c r="D181" s="4"/>
       <c r="E181" s="6" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="I181" s="7" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="182" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B182" s="8"/>
       <c r="D182" s="4"/>
       <c r="E182" s="6" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="I182" s="7" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="183" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -8591,7 +8594,7 @@
         <v>143</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="I183" s="7" t="s">
         <v>143</v>
@@ -8601,439 +8604,439 @@
       <c r="B184" s="8"/>
       <c r="D184" s="4"/>
       <c r="E184" s="6" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="I184" s="7" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="185" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B185" s="8"/>
       <c r="D185" s="4"/>
       <c r="E185" s="6" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="I185" s="7" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="186" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B186" s="8"/>
       <c r="D186" s="4"/>
       <c r="E186" s="6" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="I186" s="7" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="187" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B187" s="8"/>
       <c r="D187" s="4"/>
       <c r="E187" s="6" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="I187" s="7" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="188" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B188" s="8"/>
       <c r="D188" s="4"/>
       <c r="E188" s="6" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="I188" s="7" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="189" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B189" s="8"/>
       <c r="D189" s="4"/>
       <c r="E189" s="6" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="I189" s="7" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="190" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B190" s="8"/>
       <c r="D190" s="4"/>
       <c r="E190" s="6" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="I190" s="7" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="191" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B191" s="8"/>
       <c r="D191" s="4"/>
       <c r="E191" s="6" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="H191" s="34" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="I191" s="34" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="192" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B192" s="8"/>
       <c r="D192" s="4"/>
       <c r="E192" s="6" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="H192" s="34" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="I192" s="34" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="193" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B193" s="8"/>
       <c r="D193" s="4"/>
       <c r="E193" s="6" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="H193" s="34" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I193" s="34" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="194" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B194" s="8"/>
       <c r="D194" s="4"/>
       <c r="E194" s="6" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="H194" s="34" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="I194" s="34" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="195" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B195" s="8"/>
       <c r="D195" s="4"/>
       <c r="E195" s="6" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="H195" s="34" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="I195" s="34" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="196" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B196" s="8"/>
       <c r="D196" s="4"/>
       <c r="E196" s="6" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="H196" s="34" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="I196" s="34" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="197" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B197" s="8"/>
       <c r="D197" s="4"/>
       <c r="E197" s="6" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="H197" s="34" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="I197" s="34" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="198" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B198" s="8"/>
       <c r="D198" s="4"/>
       <c r="E198" s="6" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="I198" s="7" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="199" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B199" s="8"/>
       <c r="D199" s="4"/>
       <c r="E199" s="6" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="I199" s="7" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="200" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B200" s="8"/>
       <c r="D200" s="4"/>
       <c r="E200" s="6" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="H200" s="7" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="I200" s="7" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="201" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B201" s="8"/>
       <c r="D201" s="4"/>
       <c r="E201" s="6" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="H201" s="34" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="I201" s="34" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="202" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B202" s="8"/>
       <c r="D202" s="4"/>
       <c r="E202" s="6" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="I202" s="7" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="203" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B203" s="8"/>
       <c r="D203" s="4"/>
       <c r="E203" s="6" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="I203" s="7" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="204" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B204" s="8"/>
       <c r="D204" s="4"/>
       <c r="E204" s="6" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="I204" s="7" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="205" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B205" s="8"/>
       <c r="D205" s="4"/>
       <c r="E205" s="6" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="H205" s="7" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="I205" s="7" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="206" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B206" s="8"/>
       <c r="D206" s="4"/>
       <c r="E206" s="6" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="I206" s="7" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="207" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B207" s="8"/>
       <c r="D207" s="4"/>
       <c r="E207" s="6" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="I207" s="7" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="208" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B208" s="8"/>
       <c r="D208" s="4"/>
       <c r="E208" s="6" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="I208" s="7" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="209" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B209" s="8"/>
       <c r="D209" s="4"/>
       <c r="E209" s="6" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="I209" s="7" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="210" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B210" s="8"/>
       <c r="D210" s="4"/>
       <c r="E210" s="6" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="H210" s="7" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="I210" s="7" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="211" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B211" s="8"/>
       <c r="D211" s="4"/>
       <c r="E211" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="I211" s="7" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="212" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B212" s="8"/>
       <c r="D212" s="4"/>
       <c r="E212" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="I212" s="7" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="213" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B213" s="8"/>
       <c r="D213" s="4"/>
       <c r="E213" s="6" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="I213" s="7" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="214" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B214" s="8"/>
       <c r="D214" s="4"/>
       <c r="E214" s="6" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="H214" s="7" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="I214" s="7" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="215" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B215" s="8"/>
       <c r="D215" s="4"/>
       <c r="E215" s="6" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="H215" s="7" t="s">
         <v>142</v>
       </c>
       <c r="I215" s="7" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="216" spans="1:17" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A216" s="11" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D216" s="24" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="E216" s="10"/>
       <c r="I216" s="11" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="J216" s="10"/>
       <c r="K216" s="10"/>
       <c r="L216" s="10" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="N216" s="10"/>
       <c r="O216" s="10"/>
@@ -9044,49 +9047,49 @@
       <c r="B217" s="8"/>
       <c r="D217" s="4"/>
       <c r="E217" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F217" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="I217" s="8" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J217" s="8"/>
       <c r="K217" s="8"/>
       <c r="L217" s="8" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="N217" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="O217" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="O217" s="8" t="s">
-        <v>397</v>
-      </c>
       <c r="P217" s="8" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q217" s="8" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="218" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B218" s="8"/>
       <c r="D218" s="4"/>
       <c r="E218" s="16" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F218" s="12" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G218" s="11" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I218" s="10" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J218" s="8"/>
       <c r="K218" s="8"/>
@@ -9102,28 +9105,28 @@
       <c r="B219" s="8"/>
       <c r="D219" s="4"/>
       <c r="E219" s="8" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I219" s="8" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="J219" s="8"/>
       <c r="K219" s="8"/>
       <c r="L219" s="11" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N219" s="8" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="O219" s="8"/>
       <c r="P219" s="8" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="Q219" s="8"/>
     </row>
@@ -9131,24 +9134,24 @@
       <c r="B220" s="8"/>
       <c r="D220" s="4"/>
       <c r="E220" s="16" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I220" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J220" s="8"/>
       <c r="K220" s="8"/>
       <c r="L220" s="6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="N220" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Q220" s="8"/>
     </row>
@@ -9156,21 +9159,21 @@
       <c r="B221" s="8"/>
       <c r="D221" s="4"/>
       <c r="E221" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I221" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J221" s="8"/>
       <c r="K221" s="8"/>
       <c r="L221" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="N221" s="8"/>
       <c r="O221" s="8"/>
@@ -9181,31 +9184,31 @@
       <c r="B222" s="8"/>
       <c r="D222" s="4"/>
       <c r="E222" s="16" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="I222" s="16" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="J222" s="8"/>
       <c r="K222" s="8"/>
       <c r="L222" s="6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M222" s="6" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="N222" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="O222" s="8"/>
       <c r="P222" s="8" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Q222" s="8"/>
     </row>
@@ -9213,28 +9216,28 @@
       <c r="B223" s="8"/>
       <c r="D223" s="4"/>
       <c r="E223" s="16" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I223" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J223" s="8"/>
       <c r="K223" s="8"/>
       <c r="L223" s="6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="N223" s="8" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="O223" s="8"/>
       <c r="P223" s="8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="Q223" s="8"/>
     </row>
@@ -9242,26 +9245,26 @@
       <c r="B224" s="8"/>
       <c r="D224" s="4"/>
       <c r="E224" s="16" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I224" s="16" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="J224" s="8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K224" s="8"/>
       <c r="L224" s="6" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="N224" s="8" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="O224" s="8"/>
       <c r="P224" s="8"/>
@@ -9271,23 +9274,23 @@
       <c r="B225" s="8"/>
       <c r="D225" s="4"/>
       <c r="E225" s="16" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I225" s="8" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="J225" s="10" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K225" s="8"/>
       <c r="L225" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="N225" s="8"/>
       <c r="O225" s="8"/>
@@ -9298,21 +9301,21 @@
       <c r="B226" s="8"/>
       <c r="D226" s="4"/>
       <c r="E226" s="16" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F226" s="10" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I226" s="16" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="J226" s="8"/>
       <c r="K226" s="8"/>
       <c r="L226" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="N226" s="8"/>
       <c r="O226" s="8"/>
@@ -9323,19 +9326,19 @@
       <c r="B227" s="8"/>
       <c r="D227" s="4"/>
       <c r="E227" s="16" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F227" s="10" t="s">
         <v>73</v>
       </c>
       <c r="G227" s="37"/>
       <c r="I227" s="16" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="J227" s="8"/>
       <c r="K227" s="8"/>
       <c r="L227" s="6" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="N227" s="8"/>
       <c r="O227" s="8"/>
@@ -9346,23 +9349,23 @@
       <c r="B228" s="8"/>
       <c r="D228" s="4"/>
       <c r="E228" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F228" s="11" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I228" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J228" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K228" s="8"/>
       <c r="L228" s="6" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N228" s="8"/>
       <c r="O228" s="8"/>
@@ -9373,33 +9376,33 @@
       <c r="B229" s="8"/>
       <c r="D229" s="4"/>
       <c r="E229" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F229" s="11" t="s">
         <v>73</v>
       </c>
       <c r="G229" s="6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="I229" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="J229" s="8"/>
       <c r="K229" s="8"/>
       <c r="L229" s="6" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M229" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="N229" s="8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="O229" s="8" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P229" s="8" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Q229" s="8"/>
     </row>
@@ -9407,66 +9410,66 @@
       <c r="B230" s="8"/>
       <c r="D230" s="4"/>
       <c r="E230" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F230" s="11" t="s">
         <v>73</v>
       </c>
       <c r="G230" s="6" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I230" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J230" s="8"/>
       <c r="K230" s="8"/>
       <c r="L230" s="6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="N230" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O230" s="8"/>
       <c r="P230" s="8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Q230" s="8"/>
     </row>
     <row r="231" spans="2:17" s="32" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B231" s="12" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C231" s="12" t="s">
         <v>1049</v>
       </c>
-      <c r="C231" s="12" t="s">
-        <v>1053</v>
-      </c>
       <c r="D231" s="23" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="I231" s="12" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="232" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B232" s="3"/>
       <c r="D232" s="13"/>
       <c r="E232" s="15" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F232" s="15" t="s">
         <v>73</v>
       </c>
       <c r="G232" s="15" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L232" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M232" s="5"/>
       <c r="N232" s="5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="233" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -9479,258 +9482,258 @@
         <v>73</v>
       </c>
       <c r="G233" s="15" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="I233" s="3" t="s">
         <v>145</v>
       </c>
       <c r="L233" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M233" s="5"/>
       <c r="N233" s="5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="234" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B234" s="3"/>
       <c r="D234" s="13"/>
       <c r="E234" s="15" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F234" s="15" t="s">
         <v>145</v>
       </c>
       <c r="G234" s="15" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L234" s="15" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="N234" s="15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="235" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B235" s="3"/>
       <c r="D235" s="13"/>
       <c r="E235" s="15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F235" s="15" t="s">
         <v>73</v>
       </c>
       <c r="G235" s="15" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L235" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M235" s="5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="N235" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="236" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B236" s="3"/>
       <c r="D236" s="13"/>
       <c r="E236" s="15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F236" s="15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G236" s="15" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L236" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M236" s="5"/>
       <c r="N236" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="237" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B237" s="3"/>
       <c r="D237" s="13"/>
       <c r="E237" s="15" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F237" s="15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G237" s="15" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L237" s="15" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="N237" s="15" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="238" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B238" s="3"/>
       <c r="D238" s="13"/>
       <c r="E238" s="15" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F238" s="15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G238" s="15" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L238" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M238" s="5"/>
       <c r="N238" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="239" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B239" s="3"/>
       <c r="D239" s="13"/>
       <c r="E239" s="15" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F239" s="15" t="s">
         <v>73</v>
       </c>
       <c r="G239" s="15" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L239" s="5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M239" s="5"/>
       <c r="N239" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="240" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B240" s="3"/>
       <c r="D240" s="13"/>
       <c r="E240" s="15" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F240" s="15" t="s">
         <v>73</v>
       </c>
       <c r="G240" s="15" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L240" s="5" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M240" s="5"/>
       <c r="N240" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="241" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B241" s="3"/>
       <c r="D241" s="13"/>
       <c r="E241" s="15" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F241" s="15" t="s">
         <v>73</v>
       </c>
       <c r="G241" s="15" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L241" s="5" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M241" s="5"/>
       <c r="N241" s="5" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="242" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B242" s="3"/>
       <c r="D242" s="13"/>
       <c r="E242" s="15" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F242" s="15" t="s">
         <v>73</v>
       </c>
       <c r="G242" s="15" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L242" s="5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M242" s="5"/>
       <c r="N242" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="243" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B243" s="3"/>
       <c r="D243" s="13"/>
       <c r="E243" s="15" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F243" s="15" t="s">
         <v>73</v>
       </c>
       <c r="G243" s="15" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="I243" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L243" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M243" s="5"/>
       <c r="N243" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="244" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B244" s="19" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C244" s="17" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="D244" s="18" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="I244" s="17" t="s">
         <v>98</v>
@@ -9830,10 +9833,10 @@
     </row>
     <row r="249" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B249" s="10" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="D249" s="23" t="s">
         <v>5</v>
@@ -9859,130 +9862,130 @@
         <v>73</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I250" s="5" t="s">
         <v>145</v>
       </c>
       <c r="L250" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="251" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C251" s="5"/>
       <c r="E251" s="6" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F251" s="6" t="s">
         <v>145</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I251" s="6" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="L251" s="5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="252" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C252" s="5"/>
       <c r="E252" s="6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F252" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="I252" s="6" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L252" s="5" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="253" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C253" s="5"/>
       <c r="E253" s="6" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="I253" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L253" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="254" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C254" s="5"/>
       <c r="E254" s="6" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="I254" s="6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L254" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="255" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C255" s="5"/>
       <c r="E255" s="6" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F255" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="G255" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="G255" s="5" t="s">
-        <v>474</v>
-      </c>
       <c r="I255" s="6" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L255" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M255" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="N255" s="5" t="s">
         <v>475</v>
-      </c>
-      <c r="N255" s="5" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="256" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C256" s="5"/>
       <c r="E256" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="G256" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I256" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L256" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="N256" s="5" t="s">
         <v>480</v>
-      </c>
-      <c r="F256" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="G256" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="I256" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L256" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="N256" s="5" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="257" spans="3:13" x14ac:dyDescent="0.2">
@@ -9994,7 +9997,7 @@
         <v>73</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I257" s="5" t="s">
         <v>146</v>
@@ -10003,235 +10006,235 @@
     <row r="258" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C258" s="5"/>
       <c r="E258" s="6" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F258" s="5" t="s">
         <v>146</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="I258" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L258" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M258" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="259" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C259" s="5"/>
       <c r="E259" s="6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="I259" s="5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L259" s="5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="260" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C260" s="5"/>
       <c r="E260" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F260" s="5" t="s">
         <v>146</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="I260" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L260" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="261" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C261" s="5"/>
       <c r="E261" s="6" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="I261" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L261" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="262" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C262" s="5"/>
       <c r="E262" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F262" s="5" t="s">
         <v>146</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="I262" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L262" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="263" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C263" s="5"/>
       <c r="E263" s="5" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F263" s="5" t="s">
         <v>73</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I263" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="264" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C264" s="5"/>
       <c r="E264" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I264" s="5" t="s">
-        <v>287</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="265" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C265" s="5"/>
       <c r="E265" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F265" s="5" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>289</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="266" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C266" s="5"/>
       <c r="E266" s="5" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I266" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="267" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C267" s="5"/>
       <c r="E267" s="5" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F267" s="5" t="s">
         <v>73</v>
       </c>
       <c r="I267" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="268" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C268" s="5"/>
       <c r="E268" s="5" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="269" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C269" s="5"/>
       <c r="E269" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="270" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C270" s="5"/>
       <c r="E270" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="I270" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="271" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C271" s="5"/>
       <c r="E271" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="I271" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="272" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C272" s="5"/>
       <c r="E272" s="5" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F272" s="5" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="I272" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="273" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C273" s="5"/>
       <c r="E273" s="5" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="F273" s="5" t="s">
         <v>73</v>
@@ -10240,91 +10243,91 @@
         <v>147</v>
       </c>
       <c r="L273" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="274" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C274" s="5"/>
       <c r="E274" s="5" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="I274" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="L274" s="5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="275" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C275" s="5"/>
       <c r="E275" s="5" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I275" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="276" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C276" s="5"/>
       <c r="E276" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="I276" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J276" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="277" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C277" s="5"/>
       <c r="E277" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="I277" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J277" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="278" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C278" s="5"/>
       <c r="E278" s="5" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="I278" s="5" t="s">
-        <v>190</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="279" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C279" s="5"/>
       <c r="E279" s="5" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="I279" s="5" t="s">
         <v>162</v>
@@ -10336,10 +10339,10 @@
     <row r="280" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C280" s="5"/>
       <c r="E280" s="5" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F280" s="5" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="I280" s="5" t="s">
         <v>163</v>
@@ -10351,10 +10354,10 @@
     <row r="281" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C281" s="5"/>
       <c r="E281" s="5" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="I281" s="5" t="s">
         <v>164</v>
@@ -10366,46 +10369,46 @@
     <row r="282" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C282" s="5"/>
       <c r="E282" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I282" s="5" t="s">
-        <v>192</v>
+        <v>1174</v>
       </c>
       <c r="L282" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="283" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C283" s="5"/>
       <c r="E283" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F283" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I283" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L283" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="284" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C284" s="5"/>
       <c r="E284" s="5" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I284" s="5" t="s">
         <v>165</v>
@@ -10417,10 +10420,10 @@
     <row r="285" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C285" s="5"/>
       <c r="E285" s="5" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F285" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I285" s="5" t="s">
         <v>166</v>
@@ -10432,10 +10435,10 @@
     <row r="286" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C286" s="5"/>
       <c r="E286" s="5" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="F286" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I286" s="5" t="s">
         <v>167</v>
@@ -10447,10 +10450,10 @@
     <row r="287" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C287" s="5"/>
       <c r="E287" s="5" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I287" s="5" t="s">
         <v>168</v>
@@ -10462,13 +10465,13 @@
     <row r="288" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C288" s="5"/>
       <c r="E288" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="I288" s="5" t="s">
         <v>169</v>
@@ -10480,10 +10483,10 @@
     <row r="289" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C289" s="5"/>
       <c r="E289" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F289" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="I289" s="5" t="s">
         <v>170</v>
@@ -10495,13 +10498,13 @@
     <row r="290" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C290" s="5"/>
       <c r="E290" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="I290" s="5" t="s">
         <v>171</v>
@@ -10513,10 +10516,10 @@
     <row r="291" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C291" s="5"/>
       <c r="E291" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F291" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I291" s="5" t="s">
         <v>172</v>
@@ -10528,19 +10531,19 @@
     <row r="292" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C292" s="5"/>
       <c r="E292" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="I292" s="5" t="s">
         <v>173</v>
       </c>
       <c r="J292" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L292" s="5" t="s">
         <v>173</v>
@@ -10549,16 +10552,16 @@
     <row r="293" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C293" s="5"/>
       <c r="E293" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I293" s="5" t="s">
         <v>174</v>
       </c>
       <c r="J293" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L293" s="5" t="s">
         <v>174</v>
@@ -10567,16 +10570,16 @@
     <row r="294" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C294" s="5"/>
       <c r="E294" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I294" s="5" t="s">
         <v>175</v>
       </c>
       <c r="J294" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L294" s="5" t="s">
         <v>175</v>
@@ -10585,28 +10588,28 @@
     <row r="295" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C295" s="5"/>
       <c r="E295" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="I295" s="5" t="s">
-        <v>193</v>
+        <v>1176</v>
       </c>
       <c r="L295" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="296" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C296" s="5"/>
       <c r="E296" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I296" s="5" t="s">
         <v>176</v>
@@ -10618,19 +10621,19 @@
     <row r="297" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C297" s="5"/>
       <c r="E297" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="I297" s="5" t="s">
         <v>177</v>
       </c>
       <c r="J297" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="L297" s="5" t="s">
         <v>177</v>
@@ -10639,10 +10642,10 @@
     <row r="298" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C298" s="5"/>
       <c r="E298" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I298" s="5" t="s">
         <v>178</v>
@@ -10654,10 +10657,10 @@
     <row r="299" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C299" s="5"/>
       <c r="E299" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="I299" s="5" t="s">
         <v>179</v>
@@ -10666,28 +10669,28 @@
     <row r="300" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C300" s="5"/>
       <c r="E300" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F300" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I300" s="5" t="s">
         <v>180</v>
       </c>
       <c r="J300" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="301" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C301" s="5"/>
       <c r="E301" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I301" s="5" t="s">
         <v>181</v>
@@ -10696,10 +10699,10 @@
     <row r="302" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C302" s="5"/>
       <c r="E302" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F302" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I302" s="5" t="s">
         <v>182</v>
@@ -10708,10 +10711,10 @@
     <row r="303" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C303" s="5"/>
       <c r="E303" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F303" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I303" s="5" t="s">
         <v>183</v>
@@ -10720,13 +10723,13 @@
     <row r="304" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C304" s="5"/>
       <c r="E304" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F304" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="I304" s="5" t="s">
         <v>184</v>
@@ -10735,28 +10738,28 @@
     <row r="305" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C305" s="5"/>
       <c r="E305" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F305" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="I305" s="5" t="s">
         <v>185</v>
       </c>
       <c r="J305" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="306" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C306" s="5"/>
       <c r="E306" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I306" s="5" t="s">
         <v>186</v>
@@ -10765,31 +10768,31 @@
     <row r="307" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C307" s="5"/>
       <c r="E307" s="5" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="F307" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G307" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I307" s="5" t="s">
         <v>187</v>
       </c>
       <c r="J307" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="308" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C308" s="5"/>
       <c r="E308" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="G308" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="I308" s="5" t="s">
         <v>188</v>
@@ -10798,10 +10801,10 @@
     <row r="309" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C309" s="5"/>
       <c r="E309" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="I309" s="5" t="s">
         <v>189</v>
@@ -10810,209 +10813,209 @@
     <row r="310" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C310" s="5"/>
       <c r="E310" s="5" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="I310" s="5" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="J310" s="5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="L310" s="5" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="M310" s="5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="311" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C311" s="5"/>
       <c r="E311" s="5" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F311" s="5" t="s">
         <v>73</v>
       </c>
       <c r="I311" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="312" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C312" s="5"/>
       <c r="E312" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F312" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="I312" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="F312" s="5" t="s">
-        <v>817</v>
-      </c>
-      <c r="I312" s="5" t="s">
-        <v>244</v>
-      </c>
       <c r="J312" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="313" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C313" s="5"/>
       <c r="E313" s="5" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I313" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="314" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C314" s="5"/>
       <c r="E314" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I314" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J314" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="315" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C315" s="5"/>
       <c r="E315" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F315" s="5" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I315" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J315" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="316" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C316" s="5"/>
       <c r="E316" s="5" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F316" s="5" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I316" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="317" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C317" s="5"/>
       <c r="E317" s="5" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I317" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="318" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C318" s="5"/>
       <c r="E318" s="5" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F318" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I318" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="I318" s="5" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="319" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C319" s="5"/>
       <c r="E319" s="5" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I319" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="320" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C320" s="5"/>
       <c r="E320" s="5" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I320" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K320" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="321" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C321" s="5"/>
       <c r="E321" s="5" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I321" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="322" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C322" s="5"/>
       <c r="E322" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F322" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="I322" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="J322" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="F322" s="5" t="s">
-        <v>817</v>
-      </c>
-      <c r="I322" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="J322" s="5" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="323" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C323" s="5"/>
       <c r="E323" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F323" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I323" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="324" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B324" s="19"/>
       <c r="C324" s="17" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="D324" s="18" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="E324" s="19"/>
       <c r="I324" s="17" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="J324" s="17" t="s">
         <v>3</v>
@@ -11029,21 +11032,21 @@
       <c r="B325" s="8"/>
       <c r="D325" s="4"/>
       <c r="E325" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F325" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G325" s="6" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="I325" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J325" s="8"/>
       <c r="K325" s="8"/>
       <c r="L325" s="8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M325" s="8"/>
       <c r="N325" s="8"/>
@@ -11055,21 +11058,21 @@
       <c r="B326" s="8"/>
       <c r="D326" s="4"/>
       <c r="E326" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F326" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G326" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="I326" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J326" s="8"/>
       <c r="K326" s="8"/>
       <c r="L326" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M326" s="8"/>
       <c r="N326" s="8"/>
@@ -11080,10 +11083,10 @@
     <row r="327" spans="2:17" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B327" s="22"/>
       <c r="C327" s="22" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="D327" s="20" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="I327" s="22" t="s">
         <v>6</v>
@@ -11092,7 +11095,7 @@
     <row r="328" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C328" s="5"/>
       <c r="E328" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F328" s="5" t="s">
         <v>73</v>
@@ -11107,7 +11110,7 @@
         <v>87</v>
       </c>
       <c r="N328" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P328" s="5" t="s">
         <v>87</v>
@@ -11117,7 +11120,7 @@
       <c r="C329" s="5"/>
       <c r="D329" s="1"/>
       <c r="E329" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F329" s="5" t="s">
         <v>73</v>
@@ -11142,7 +11145,7 @@
       <c r="C330" s="5"/>
       <c r="D330" s="1"/>
       <c r="E330" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F330" s="5" t="s">
         <v>73</v>
@@ -11167,7 +11170,7 @@
       <c r="C331" s="5"/>
       <c r="D331" s="1"/>
       <c r="E331" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F331" s="5" t="s">
         <v>73</v>
@@ -11194,7 +11197,7 @@
         <v>100</v>
       </c>
       <c r="D332" s="20" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="I332" s="22" t="s">
         <v>99</v>
@@ -11203,7 +11206,7 @@
     <row r="333" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C333" s="5"/>
       <c r="E333" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>73</v>
@@ -11212,14 +11215,14 @@
         <v>73</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="334" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C334" s="5"/>
       <c r="D334" s="1"/>
       <c r="E334" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F334" s="5" t="s">
         <v>73</v>
@@ -11228,7 +11231,7 @@
         <v>73</v>
       </c>
       <c r="I334" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="335" spans="2:17" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -11237,7 +11240,7 @@
         <v>102</v>
       </c>
       <c r="D335" s="20" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="I335" s="22" t="s">
         <v>101</v>
@@ -11246,7 +11249,7 @@
     <row r="336" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C336" s="5"/>
       <c r="E336" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>73</v>
@@ -11255,16 +11258,16 @@
         <v>73</v>
       </c>
       <c r="I336" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J336" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="337" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C337" s="5"/>
       <c r="E337" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F337" s="5" t="s">
         <v>73</v>
@@ -11273,24 +11276,24 @@
         <v>73</v>
       </c>
       <c r="I337" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J337" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="338" spans="2:17" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B338" s="19" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C338" s="22" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D338" s="20" t="s">
+        <v>839</v>
+      </c>
+      <c r="H338" s="21" t="s">
         <v>1059</v>
-      </c>
-      <c r="C338" s="22" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D338" s="20" t="s">
-        <v>843</v>
-      </c>
-      <c r="H338" s="21" t="s">
-        <v>1063</v>
       </c>
       <c r="I338" s="22" t="s">
         <v>97</v>
@@ -11299,15 +11302,15 @@
     <row r="345" spans="2:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B345" s="24"/>
       <c r="D345" s="23" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="I345" s="11" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="J345" s="24"/>
       <c r="K345" s="24"/>
       <c r="L345" s="10" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M345" s="24"/>
       <c r="N345" s="24"/>
@@ -11317,21 +11320,21 @@
     </row>
     <row r="346" spans="2:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B346" s="16" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E346" s="9" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F346" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I346" s="9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J346" s="16"/>
       <c r="K346" s="16"/>
       <c r="L346" s="16" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M346" s="16"/>
       <c r="N346" s="16"/>
@@ -11346,7 +11349,7 @@
         <v>135</v>
       </c>
       <c r="F347" s="9" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="I347" s="9" t="s">
         <v>135</v>
@@ -11354,7 +11357,7 @@
       <c r="J347" s="16"/>
       <c r="K347" s="16"/>
       <c r="L347" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M347" s="16"/>
       <c r="N347" s="16"/>
@@ -11366,10 +11369,10 @@
       <c r="B348" s="16"/>
       <c r="D348" s="13"/>
       <c r="E348" s="16" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="F348" s="9" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="I348" s="9" t="s">
         <v>136</v>
@@ -11377,7 +11380,7 @@
       <c r="J348" s="16"/>
       <c r="K348" s="16"/>
       <c r="L348" s="16" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M348" s="16"/>
       <c r="N348" s="16"/>
@@ -11387,22 +11390,22 @@
     </row>
     <row r="349" spans="2:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B349" s="16" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D349" s="13"/>
       <c r="E349" s="9" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F349" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I349" s="9" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J349" s="16"/>
       <c r="K349" s="16"/>
       <c r="L349" s="16" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M349" s="16"/>
       <c r="N349" s="16"/>
@@ -11417,7 +11420,7 @@
         <v>137</v>
       </c>
       <c r="F350" s="9" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="I350" s="9" t="s">
         <v>137</v>
@@ -11425,7 +11428,7 @@
       <c r="J350" s="16"/>
       <c r="K350" s="16"/>
       <c r="L350" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M350" s="16"/>
       <c r="N350" s="16"/>
@@ -11437,10 +11440,10 @@
       <c r="B351" s="16"/>
       <c r="D351" s="13"/>
       <c r="E351" s="16" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F351" s="9" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="I351" s="9" t="s">
         <v>138</v>
@@ -11448,7 +11451,7 @@
       <c r="J351" s="16"/>
       <c r="K351" s="16"/>
       <c r="L351" s="16" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M351" s="16"/>
       <c r="N351" s="16"/>
@@ -11463,7 +11466,7 @@
         <v>139</v>
       </c>
       <c r="F352" s="9" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="I352" s="9" t="s">
         <v>139</v>
@@ -11471,7 +11474,7 @@
       <c r="J352" s="16"/>
       <c r="K352" s="16"/>
       <c r="L352" s="16" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M352" s="16"/>
       <c r="N352" s="16"/>
@@ -11486,7 +11489,7 @@
         <v>140</v>
       </c>
       <c r="F353" s="9" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="I353" s="9" t="s">
         <v>140</v>
@@ -11504,22 +11507,22 @@
     </row>
     <row r="354" spans="2:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B354" s="16" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D354" s="13"/>
       <c r="E354" s="9" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="F354" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I354" s="9" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J354" s="16"/>
       <c r="K354" s="16"/>
       <c r="L354" s="16" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M354" s="16"/>
       <c r="N354" s="16"/>
@@ -11534,7 +11537,7 @@
         <v>141</v>
       </c>
       <c r="F355" s="9" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="I355" s="9" t="s">
         <v>141</v>
@@ -11542,7 +11545,7 @@
       <c r="J355" s="16"/>
       <c r="K355" s="16"/>
       <c r="L355" s="16" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M355" s="16"/>
       <c r="N355" s="16"/>
@@ -11570,7 +11573,7 @@
     <row r="357" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B357" s="10"/>
       <c r="D357" s="23" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="I357" s="11" t="s">
         <v>90</v>
@@ -11604,7 +11607,7 @@
     <row r="359" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B359" s="10"/>
       <c r="D359" s="23" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="I359" s="11" t="s">
         <v>11</v>
@@ -11643,7 +11646,7 @@
       <c r="B361" s="8"/>
       <c r="D361" s="4"/>
       <c r="E361" s="6" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="F361" s="6" t="s">
         <v>73</v>
@@ -11663,7 +11666,7 @@
     <row r="362" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B362" s="10"/>
       <c r="D362" s="23" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="I362" s="11" t="s">
         <v>4</v>
@@ -11680,7 +11683,7 @@
     <row r="363" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B363" s="10"/>
       <c r="D363" s="23" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="I363" s="11" t="s">
         <v>14</v>
@@ -11699,10 +11702,10 @@
     </row>
     <row r="365" spans="2:17" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B365" s="12" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="D365" s="23" t="s">
         <v>0</v>
@@ -11716,10 +11719,10 @@
     </row>
     <row r="367" spans="2:17" s="17" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B367" s="19" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C367" s="19" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="D367" s="18" t="s">
         <v>94</v>
@@ -11731,7 +11734,7 @@
       <c r="J367" s="19"/>
       <c r="K367" s="19"/>
       <c r="L367" s="19" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M367" s="19"/>
       <c r="N367" s="19"/>
@@ -11743,13 +11746,13 @@
       <c r="B368" s="8"/>
       <c r="D368" s="4"/>
       <c r="E368" s="6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F368" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G368" s="6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I368" s="8" t="s">
         <v>26</v>
@@ -11764,7 +11767,7 @@
       </c>
       <c r="O368" s="8"/>
       <c r="P368" s="8" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="Q368" s="8"/>
     </row>
@@ -11772,13 +11775,13 @@
       <c r="B369" s="8"/>
       <c r="D369" s="4"/>
       <c r="E369" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F369" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G369" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I369" s="8" t="s">
         <v>19</v>
@@ -11794,7 +11797,7 @@
       </c>
       <c r="O369" s="8"/>
       <c r="P369" s="8" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="Q369" s="8"/>
     </row>
@@ -11808,7 +11811,7 @@
         <v>73</v>
       </c>
       <c r="G370" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I370" s="8" t="s">
         <v>29</v>
@@ -11824,7 +11827,7 @@
       </c>
       <c r="O370" s="8"/>
       <c r="P370" s="8" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="Q370" s="8"/>
     </row>
@@ -11838,7 +11841,7 @@
         <v>73</v>
       </c>
       <c r="G371" s="6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I371" s="8" t="s">
         <v>24</v>
@@ -11854,7 +11857,7 @@
       </c>
       <c r="O371" s="8"/>
       <c r="P371" s="8" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="Q371" s="8"/>
     </row>
@@ -11868,7 +11871,7 @@
         <v>73</v>
       </c>
       <c r="G372" s="6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I372" s="8" t="s">
         <v>22</v>
@@ -11884,7 +11887,7 @@
       </c>
       <c r="O372" s="8"/>
       <c r="P372" s="8" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="Q372" s="8"/>
     </row>
@@ -11898,7 +11901,7 @@
         <v>73</v>
       </c>
       <c r="G373" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I373" s="8" t="s">
         <v>41</v>
@@ -11913,7 +11916,7 @@
       </c>
       <c r="O373" s="8"/>
       <c r="P373" s="8" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="Q373" s="8"/>
     </row>
@@ -11927,7 +11930,7 @@
         <v>73</v>
       </c>
       <c r="G374" s="6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I374" s="8" t="s">
         <v>43</v>
@@ -11942,7 +11945,7 @@
       </c>
       <c r="O374" s="8"/>
       <c r="P374" s="8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="Q374" s="8"/>
     </row>
@@ -11956,7 +11959,7 @@
         <v>73</v>
       </c>
       <c r="G375" s="6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I375" s="8" t="s">
         <v>35</v>
@@ -11971,7 +11974,7 @@
       </c>
       <c r="O375" s="8"/>
       <c r="P375" s="8" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="Q375" s="8"/>
     </row>
@@ -11985,7 +11988,7 @@
         <v>73</v>
       </c>
       <c r="G376" s="6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I376" s="8" t="s">
         <v>38</v>
@@ -12000,7 +12003,7 @@
       </c>
       <c r="O376" s="8"/>
       <c r="P376" s="8" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Q376" s="8"/>
     </row>
@@ -12014,7 +12017,7 @@
         <v>73</v>
       </c>
       <c r="G377" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I377" s="8" t="s">
         <v>46</v>
@@ -12029,7 +12032,7 @@
       </c>
       <c r="O377" s="8"/>
       <c r="P377" s="8" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="Q377" s="8"/>
     </row>
@@ -12037,13 +12040,13 @@
       <c r="B378" s="8"/>
       <c r="D378" s="4"/>
       <c r="E378" s="16" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F378" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G378" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I378" s="8" t="s">
         <v>70</v>
@@ -12060,7 +12063,7 @@
       </c>
       <c r="O378" s="8"/>
       <c r="P378" s="8" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="Q378" s="8"/>
     </row>
@@ -12074,7 +12077,7 @@
         <v>73</v>
       </c>
       <c r="G379" s="6" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I379" s="8" t="s">
         <v>72</v>
@@ -12089,7 +12092,7 @@
       </c>
       <c r="O379" s="8"/>
       <c r="P379" s="8" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="Q379" s="8"/>
     </row>
@@ -12103,7 +12106,7 @@
         <v>73</v>
       </c>
       <c r="G380" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I380" s="8" t="s">
         <v>52</v>
@@ -12118,7 +12121,7 @@
       </c>
       <c r="O380" s="8"/>
       <c r="P380" s="8" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="Q380" s="8"/>
     </row>
@@ -12126,13 +12129,13 @@
       <c r="B381" s="8"/>
       <c r="D381" s="4"/>
       <c r="E381" s="16" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F381" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G381" s="6" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I381" s="8" t="s">
         <v>31</v>
@@ -12147,7 +12150,7 @@
       </c>
       <c r="O381" s="8"/>
       <c r="P381" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="Q381" s="8"/>
     </row>
@@ -12161,7 +12164,7 @@
         <v>73</v>
       </c>
       <c r="G382" s="6" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I382" s="8" t="s">
         <v>17</v>
@@ -12176,7 +12179,7 @@
       </c>
       <c r="O382" s="8"/>
       <c r="P382" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="Q382" s="8"/>
     </row>

--- a/source/ControlledTerms.xlsx
+++ b/source/ControlledTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birk/Documents/Jobs/SAPA/Development/spa-vocabulary/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CE7923-5A15-4C45-A9F3-5E34FC165503}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9301AA-9DE1-B84B-9376-EAA51863A432}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5860" yWindow="2980" windowWidth="44300" windowHeight="26580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="1237">
   <si>
     <t>identifier</t>
   </si>
@@ -4045,6 +4045,12 @@
   </si>
   <si>
     <t>e-mail</t>
+  </si>
+  <si>
+    <t>contact point</t>
+  </si>
+  <si>
+    <t>Kontakt</t>
   </si>
 </sst>
 </file>
@@ -4592,7 +4598,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4931,10 +4937,14 @@
       <c r="D13" s="23" t="s">
         <v>1225</v>
       </c>
-      <c r="I13" s="10"/>
+      <c r="I13" s="10" t="s">
+        <v>1235</v>
+      </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="L13" s="10" t="s">
+        <v>1236</v>
+      </c>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>

--- a/source/ControlledTerms.xlsx
+++ b/source/ControlledTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birk/Documents/Jobs/SAPA/Development/spa-vocabulary/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F10C4F-2CD8-2E4D-97F2-87730119A5A6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B82288-197D-F44B-8CE7-B682585CDA83}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="22700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="1236">
   <si>
     <t>identifier</t>
   </si>
@@ -4550,10 +4550,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q405"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5333,6 +5333,18 @@
       <c r="D30" s="23" t="s">
         <v>681</v>
       </c>
+      <c r="I30" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="31" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="16"/>

--- a/source/ControlledTerms.xlsx
+++ b/source/ControlledTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birk/Documents/Jobs/SAPA/Development/spa-vocabulary/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B82288-197D-F44B-8CE7-B682585CDA83}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183ACA19-C221-204E-8F16-926E00492D32}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="22700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="1240">
   <si>
     <t>identifier</t>
   </si>
@@ -2790,9 +2790,6 @@
     <t>aat:300027221</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>form of organisation and general purpose</t>
   </si>
   <si>
@@ -3318,9 +3315,6 @@
     <t>grouptype</t>
   </si>
   <si>
-    <t>Gruppentyp</t>
-  </si>
-  <si>
     <t>performancetype</t>
   </si>
   <si>
@@ -4006,6 +4000,24 @@
   </si>
   <si>
     <t>frbroo:F31_Performance</t>
+  </si>
+  <si>
+    <t>activitytype</t>
+  </si>
+  <si>
+    <t>activity type</t>
+  </si>
+  <si>
+    <t>titletype</t>
+  </si>
+  <si>
+    <t>title type</t>
+  </si>
+  <si>
+    <t>Titelart</t>
+  </si>
+  <si>
+    <t>Gruppenart</t>
   </si>
 </sst>
 </file>
@@ -4550,10 +4562,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="P31" sqref="P31"/>
+      <selection pane="bottomLeft" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4575,13 +4587,13 @@
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>148</v>
@@ -4631,16 +4643,16 @@
         <v>92</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>985</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>986</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>987</v>
-      </c>
       <c r="I2" s="11" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -4655,7 +4667,7 @@
       <c r="B3" s="16"/>
       <c r="D3" s="4"/>
       <c r="E3" s="9" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>73</v>
@@ -4663,12 +4675,12 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="16" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -4680,18 +4692,18 @@
       <c r="B4" s="16"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -4703,13 +4715,13 @@
       <c r="B5" s="16"/>
       <c r="D5" s="4"/>
       <c r="E5" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -4726,18 +4738,18 @@
       <c r="B6" s="16"/>
       <c r="D6" s="4"/>
       <c r="E6" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -4760,7 +4772,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -4770,10 +4782,10 @@
     </row>
     <row r="8" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>823</v>
@@ -4805,7 +4817,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -4828,7 +4840,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="6" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -4851,7 +4863,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -4874,7 +4886,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -4884,21 +4896,21 @@
     </row>
     <row r="13" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
@@ -4910,18 +4922,18 @@
       <c r="B14" s="8"/>
       <c r="D14" s="4"/>
       <c r="E14" s="6" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
@@ -4933,18 +4945,18 @@
       <c r="B15" s="8"/>
       <c r="D15" s="4"/>
       <c r="E15" s="6" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
@@ -4956,18 +4968,18 @@
       <c r="B16" s="8"/>
       <c r="D16" s="4"/>
       <c r="E16" s="6" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
@@ -4979,18 +4991,18 @@
       <c r="B17" s="8"/>
       <c r="D17" s="4"/>
       <c r="E17" s="6" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
@@ -5000,10 +5012,10 @@
     </row>
     <row r="18" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
+        <v>983</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>984</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>985</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>96</v>
@@ -5030,7 +5042,7 @@
         <v>73</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>151</v>
@@ -5056,7 +5068,7 @@
         <v>73</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>152</v>
@@ -5097,17 +5109,17 @@
     </row>
     <row r="22" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="10"/>
       <c r="I22" s="11" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -5305,7 +5317,7 @@
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="27" t="s">
@@ -5322,22 +5334,22 @@
     </row>
     <row r="30" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>681</v>
+        <v>1236</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>681</v>
+        <v>1237</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>683</v>
+        <v>1238</v>
       </c>
       <c r="N30" s="11" t="s">
         <v>685</v>
@@ -5359,7 +5371,7 @@
         <v>682</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I31" s="16" t="s">
         <v>681</v>
@@ -5503,24 +5515,24 @@
         <v>92</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10" t="s">
-        <v>1006</v>
+        <v>1239</v>
       </c>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
@@ -5626,7 +5638,7 @@
       </c>
       <c r="M40" s="16"/>
       <c r="N40" s="16" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
@@ -5701,7 +5713,7 @@
       </c>
       <c r="M43" s="16"/>
       <c r="N43" s="16" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>
@@ -5834,13 +5846,13 @@
     </row>
     <row r="49" spans="1:17" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D49" s="23" t="s">
         <v>88</v>
@@ -6161,24 +6173,24 @@
       <c r="B61" s="8"/>
       <c r="D61" s="4"/>
       <c r="E61" s="8" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>561</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="J61" s="8"/>
       <c r="K61" s="16"/>
       <c r="L61" s="8" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
@@ -6187,18 +6199,18 @@
       <c r="B62" s="8"/>
       <c r="D62" s="4"/>
       <c r="E62" s="8" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>566</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="16"/>
       <c r="N62" s="8" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
@@ -6208,18 +6220,18 @@
       <c r="B63" s="8"/>
       <c r="D63" s="4"/>
       <c r="E63" s="8" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>566</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="J63" s="8"/>
       <c r="K63" s="16"/>
       <c r="N63" s="8" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
@@ -6229,21 +6241,21 @@
       <c r="B64" s="8"/>
       <c r="D64" s="4"/>
       <c r="E64" s="8" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>566</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="J64" s="8"/>
       <c r="K64" s="16"/>
       <c r="L64" s="8" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
@@ -6253,21 +6265,21 @@
       <c r="B65" s="8"/>
       <c r="D65" s="4"/>
       <c r="E65" s="8" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>514</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="16"/>
       <c r="L65" s="8" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
@@ -6277,21 +6289,21 @@
       <c r="B66" s="8"/>
       <c r="D66" s="4"/>
       <c r="E66" s="8" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>514</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="16"/>
       <c r="L66" s="8" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
@@ -6301,18 +6313,18 @@
       <c r="B67" s="8"/>
       <c r="D67" s="4"/>
       <c r="E67" s="8" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>514</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="J67" s="8"/>
       <c r="K67" s="16"/>
       <c r="L67" s="8" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="N67" s="8"/>
       <c r="O67" s="8"/>
@@ -6323,21 +6335,21 @@
       <c r="B68" s="8"/>
       <c r="D68" s="4"/>
       <c r="E68" s="8" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>514</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="J68" s="8"/>
       <c r="K68" s="16"/>
       <c r="L68" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="O68" s="8"/>
       <c r="P68" s="8"/>
@@ -6347,21 +6359,21 @@
       <c r="B69" s="8"/>
       <c r="D69" s="4"/>
       <c r="E69" s="8" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>514</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="J69" s="8"/>
       <c r="K69" s="16"/>
       <c r="L69" s="8" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="O69" s="8"/>
       <c r="P69" s="8"/>
@@ -6371,18 +6383,18 @@
       <c r="B70" s="8"/>
       <c r="D70" s="4"/>
       <c r="E70" s="8" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F70" s="8" t="s">
         <v>514</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="J70" s="8"/>
       <c r="K70" s="16"/>
       <c r="L70" s="8" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
@@ -6393,18 +6405,18 @@
       <c r="B71" s="8"/>
       <c r="D71" s="4"/>
       <c r="E71" s="8" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>514</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="J71" s="8"/>
       <c r="K71" s="16"/>
       <c r="L71" s="8" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
@@ -6415,18 +6427,18 @@
       <c r="B72" s="8"/>
       <c r="D72" s="4"/>
       <c r="E72" s="8" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>561</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="16"/>
       <c r="L72" s="8" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
@@ -6437,21 +6449,21 @@
       <c r="B73" s="8"/>
       <c r="D73" s="4"/>
       <c r="E73" s="8" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>514</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="16"/>
       <c r="L73" s="8" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
@@ -6461,18 +6473,18 @@
       <c r="B74" s="8"/>
       <c r="D74" s="4"/>
       <c r="E74" s="8" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J74" s="8"/>
       <c r="K74" s="16"/>
       <c r="L74" s="8" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
@@ -6483,18 +6495,18 @@
       <c r="B75" s="8"/>
       <c r="D75" s="4"/>
       <c r="E75" s="8" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="J75" s="8"/>
       <c r="K75" s="16"/>
       <c r="L75" s="8" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="N75" s="8"/>
       <c r="O75" s="8"/>
@@ -6505,18 +6517,18 @@
       <c r="B76" s="8"/>
       <c r="D76" s="4"/>
       <c r="E76" s="8" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="J76" s="8"/>
       <c r="K76" s="16"/>
       <c r="L76" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
@@ -6527,21 +6539,21 @@
       <c r="B77" s="8"/>
       <c r="D77" s="4"/>
       <c r="E77" s="8" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>514</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="J77" s="8"/>
       <c r="K77" s="16"/>
       <c r="L77" s="8" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="O77" s="8"/>
       <c r="P77" s="8"/>
@@ -6565,7 +6577,7 @@
         <v>557</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
@@ -6575,18 +6587,18 @@
       <c r="B79" s="8"/>
       <c r="D79" s="4"/>
       <c r="E79" s="8" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>544</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="J79" s="8"/>
       <c r="K79" s="16"/>
       <c r="L79" s="8" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
@@ -6597,21 +6609,21 @@
       <c r="B80" s="8"/>
       <c r="D80" s="4"/>
       <c r="E80" s="8" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>514</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="J80" s="8"/>
       <c r="K80" s="16"/>
       <c r="L80" s="8" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="O80" s="8"/>
       <c r="P80" s="8"/>
@@ -6621,21 +6633,21 @@
       <c r="B81" s="8"/>
       <c r="D81" s="4"/>
       <c r="E81" s="8" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>561</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="J81" s="8"/>
       <c r="K81" s="16"/>
       <c r="L81" s="8" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="O81" s="8"/>
       <c r="P81" s="8"/>
@@ -6645,18 +6657,18 @@
       <c r="B82" s="8"/>
       <c r="D82" s="4"/>
       <c r="E82" s="8" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="F82" s="8" t="s">
         <v>514</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="J82" s="8"/>
       <c r="K82" s="16"/>
       <c r="L82" s="8" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
@@ -6667,18 +6679,18 @@
       <c r="B83" s="8"/>
       <c r="D83" s="4"/>
       <c r="E83" s="8" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="J83" s="8"/>
       <c r="K83" s="16"/>
       <c r="L83" s="8" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
@@ -6689,21 +6701,21 @@
       <c r="B84" s="8"/>
       <c r="D84" s="4"/>
       <c r="E84" s="8" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>561</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="J84" s="8"/>
       <c r="K84" s="16"/>
       <c r="L84" s="8" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="N84" s="8" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="O84" s="8"/>
       <c r="P84" s="8"/>
@@ -6713,13 +6725,13 @@
       <c r="B85" s="8"/>
       <c r="D85" s="4"/>
       <c r="E85" s="8" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>561</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="J85" s="8"/>
       <c r="K85" s="16"/>
@@ -6727,7 +6739,7 @@
         <v>626</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="O85" s="8"/>
       <c r="P85" s="8"/>
@@ -6737,21 +6749,21 @@
       <c r="B86" s="8"/>
       <c r="D86" s="4"/>
       <c r="E86" s="8" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>514</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="J86" s="8"/>
       <c r="K86" s="16"/>
       <c r="L86" s="8" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="N86" s="8" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="O86" s="8"/>
       <c r="P86" s="8"/>
@@ -6761,21 +6773,21 @@
       <c r="B87" s="8"/>
       <c r="D87" s="4"/>
       <c r="E87" s="8" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>514</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="J87" s="8"/>
       <c r="K87" s="16"/>
       <c r="L87" s="8" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="O87" s="8"/>
       <c r="P87" s="8"/>
@@ -6785,18 +6797,18 @@
       <c r="B88" s="8"/>
       <c r="D88" s="4"/>
       <c r="E88" s="8" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>514</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="J88" s="8"/>
       <c r="K88" s="16"/>
       <c r="L88" s="8" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="N88" s="8"/>
       <c r="O88" s="8"/>
@@ -6807,21 +6819,21 @@
       <c r="B89" s="8"/>
       <c r="D89" s="4"/>
       <c r="E89" s="8" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="F89" s="8" t="s">
         <v>514</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="J89" s="8"/>
       <c r="K89" s="16"/>
       <c r="L89" s="8" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="O89" s="8"/>
       <c r="P89" s="8"/>
@@ -6831,18 +6843,18 @@
       <c r="B90" s="8"/>
       <c r="D90" s="4"/>
       <c r="E90" s="8" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>514</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="J90" s="8"/>
       <c r="K90" s="16"/>
       <c r="L90" s="8" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
@@ -6867,7 +6879,7 @@
         <v>117</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
@@ -6877,18 +6889,18 @@
       <c r="B92" s="8"/>
       <c r="D92" s="4"/>
       <c r="E92" s="8" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>514</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="J92" s="8"/>
       <c r="K92" s="16"/>
       <c r="L92" s="8" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="N92" s="8"/>
       <c r="O92" s="8"/>
@@ -6899,21 +6911,21 @@
       <c r="B93" s="8"/>
       <c r="D93" s="4"/>
       <c r="E93" s="8" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F93" s="8" t="s">
         <v>561</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="J93" s="8"/>
       <c r="K93" s="16"/>
       <c r="L93" s="8" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="O93" s="8"/>
       <c r="P93" s="8"/>
@@ -6923,21 +6935,21 @@
       <c r="B94" s="8"/>
       <c r="D94" s="4"/>
       <c r="E94" s="8" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="F94" s="8" t="s">
         <v>561</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="J94" s="8"/>
       <c r="K94" s="16"/>
       <c r="L94" s="8" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="N94" s="8" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="O94" s="8"/>
       <c r="P94" s="8"/>
@@ -6947,21 +6959,21 @@
       <c r="B95" s="8"/>
       <c r="D95" s="4"/>
       <c r="E95" s="8" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="F95" s="8" t="s">
         <v>514</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="J95" s="8"/>
       <c r="K95" s="16"/>
       <c r="L95" s="8" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
@@ -6971,21 +6983,21 @@
       <c r="B96" s="8"/>
       <c r="D96" s="4"/>
       <c r="E96" s="8" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="F96" s="8" t="s">
         <v>514</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="J96" s="8"/>
       <c r="K96" s="16"/>
       <c r="L96" s="8" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="N96" s="8" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="O96" s="8"/>
       <c r="P96" s="8"/>
@@ -6995,18 +7007,18 @@
       <c r="B97" s="8"/>
       <c r="D97" s="4"/>
       <c r="E97" s="8" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>514</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="J97" s="8"/>
       <c r="K97" s="16"/>
       <c r="L97" s="8" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="N97" s="8"/>
       <c r="O97" s="8"/>
@@ -7017,18 +7029,18 @@
       <c r="B98" s="8"/>
       <c r="D98" s="4"/>
       <c r="E98" s="8" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I98" s="8" t="s">
         <v>1187</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>1139</v>
-      </c>
-      <c r="I98" s="8" t="s">
-        <v>1189</v>
       </c>
       <c r="J98" s="8"/>
       <c r="K98" s="16"/>
       <c r="L98" s="8" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="N98" s="8"/>
       <c r="O98" s="8"/>
@@ -7039,18 +7051,18 @@
       <c r="B99" s="8"/>
       <c r="D99" s="4"/>
       <c r="E99" s="8" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="J99" s="8"/>
       <c r="K99" s="16"/>
       <c r="L99" s="8" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="N99" s="8"/>
       <c r="O99" s="8"/>
@@ -7061,21 +7073,21 @@
       <c r="B100" s="8"/>
       <c r="D100" s="4"/>
       <c r="E100" s="8" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="F100" s="8" t="s">
         <v>514</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="J100" s="8"/>
       <c r="K100" s="16"/>
       <c r="L100" s="8" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="N100" s="8" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="O100" s="8"/>
       <c r="P100" s="8"/>
@@ -7085,21 +7097,21 @@
       <c r="B101" s="8"/>
       <c r="D101" s="4"/>
       <c r="E101" s="8" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>514</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="J101" s="8"/>
       <c r="K101" s="16"/>
       <c r="L101" s="8" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="N101" s="8" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="O101" s="8"/>
       <c r="P101" s="8"/>
@@ -7109,18 +7121,18 @@
       <c r="B102" s="8"/>
       <c r="D102" s="4"/>
       <c r="E102" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I102" s="8" t="s">
         <v>1152</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>1141</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>1154</v>
       </c>
       <c r="J102" s="8"/>
       <c r="K102" s="16"/>
       <c r="L102" s="8" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="N102" s="8"/>
       <c r="O102" s="8"/>
@@ -7131,18 +7143,18 @@
       <c r="B103" s="8"/>
       <c r="D103" s="4"/>
       <c r="E103" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I103" s="8" t="s">
         <v>1153</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>1141</v>
-      </c>
-      <c r="I103" s="8" t="s">
-        <v>1155</v>
       </c>
       <c r="J103" s="8"/>
       <c r="K103" s="16"/>
       <c r="L103" s="8" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="N103" s="8"/>
       <c r="O103" s="8"/>
@@ -7153,21 +7165,21 @@
       <c r="B104" s="8"/>
       <c r="D104" s="4"/>
       <c r="E104" s="8" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="F104" s="8" t="s">
         <v>561</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="J104" s="8"/>
       <c r="K104" s="16"/>
       <c r="L104" s="8" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="N104" s="8" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
@@ -7188,10 +7200,10 @@
       <c r="J105" s="8"/>
       <c r="K105" s="16"/>
       <c r="L105" s="8" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="N105" s="8" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
@@ -7201,18 +7213,18 @@
       <c r="B106" s="8"/>
       <c r="D106" s="4"/>
       <c r="E106" s="8" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="F106" s="8" t="s">
         <v>568</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="J106" s="8"/>
       <c r="K106" s="16"/>
       <c r="L106" s="8" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="N106" s="8"/>
       <c r="O106" s="8"/>
@@ -7223,18 +7235,18 @@
       <c r="B107" s="8"/>
       <c r="D107" s="4"/>
       <c r="E107" s="8" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="F107" s="8" t="s">
         <v>568</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="J107" s="8"/>
       <c r="K107" s="16"/>
       <c r="L107" s="8" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="N107" s="8"/>
       <c r="O107" s="8"/>
@@ -7245,18 +7257,18 @@
       <c r="B108" s="8"/>
       <c r="D108" s="4"/>
       <c r="E108" s="8" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="F108" s="8" t="s">
         <v>514</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="J108" s="8"/>
       <c r="K108" s="16"/>
       <c r="L108" s="8" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="N108" s="8"/>
       <c r="O108" s="8"/>
@@ -7267,18 +7279,18 @@
       <c r="B109" s="8"/>
       <c r="D109" s="4"/>
       <c r="E109" s="8" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>561</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="J109" s="8"/>
       <c r="K109" s="16"/>
       <c r="L109" s="8" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="N109" s="8"/>
       <c r="O109" s="8"/>
@@ -7303,7 +7315,7 @@
         <v>562</v>
       </c>
       <c r="N110" s="8" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
@@ -7779,23 +7791,23 @@
     </row>
     <row r="131" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B131" s="10" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E131" s="25"/>
       <c r="F131" s="31"/>
       <c r="I131" s="10" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="J131" s="10"/>
       <c r="K131" s="10"/>
       <c r="L131" s="25" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="M131" s="10"/>
       <c r="N131" s="10"/>
@@ -7813,7 +7825,7 @@
         <v>73</v>
       </c>
       <c r="I132" s="16" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="J132" s="16"/>
       <c r="K132" s="16"/>
@@ -7822,7 +7834,7 @@
       </c>
       <c r="M132" s="16"/>
       <c r="N132" s="16" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="O132" s="16"/>
       <c r="P132" s="16"/>
@@ -7838,7 +7850,7 @@
         <v>73</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="J133" s="16"/>
       <c r="K133" s="16"/>
@@ -7847,7 +7859,7 @@
       </c>
       <c r="M133" s="16"/>
       <c r="N133" s="16" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="O133" s="16"/>
       <c r="P133" s="16"/>
@@ -7863,7 +7875,7 @@
         <v>73</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
@@ -7872,7 +7884,7 @@
       </c>
       <c r="M134" s="8"/>
       <c r="N134" s="8" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="O134" s="8"/>
       <c r="P134" s="8"/>
@@ -7888,16 +7900,16 @@
         <v>73</v>
       </c>
       <c r="I135" s="16" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="J135" s="16"/>
       <c r="K135" s="16"/>
       <c r="L135" s="28" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="M135" s="16"/>
       <c r="N135" s="16" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="O135" s="16"/>
       <c r="P135" s="16"/>
@@ -7913,7 +7925,7 @@
         <v>73</v>
       </c>
       <c r="I136" s="8" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
@@ -7936,7 +7948,7 @@
         <v>73</v>
       </c>
       <c r="I137" s="8" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="J137" s="16"/>
       <c r="K137" s="16"/>
@@ -7986,7 +7998,7 @@
         <v>73</v>
       </c>
       <c r="I139" s="16" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="J139" s="16"/>
       <c r="K139" s="16"/>
@@ -7995,7 +8007,7 @@
       </c>
       <c r="M139" s="16"/>
       <c r="N139" s="16" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="O139" s="16"/>
       <c r="P139" s="16"/>
@@ -8011,7 +8023,7 @@
         <v>73</v>
       </c>
       <c r="I140" s="8" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
@@ -8020,7 +8032,7 @@
       </c>
       <c r="M140" s="8"/>
       <c r="N140" s="8" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="O140" s="8"/>
       <c r="P140" s="8"/>
@@ -8036,7 +8048,7 @@
         <v>73</v>
       </c>
       <c r="I141" s="8" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
@@ -8059,7 +8071,7 @@
         <v>73</v>
       </c>
       <c r="I142" s="16" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="J142" s="16"/>
       <c r="K142" s="16"/>
@@ -8074,20 +8086,20 @@
     </row>
     <row r="143" spans="1:17" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D143" s="23" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E143" s="10"/>
       <c r="I143" s="11" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="J143" s="10"/>
       <c r="K143" s="10"/>
@@ -8169,16 +8181,16 @@
     </row>
     <row r="147" spans="2:17" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B147" s="10" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D147" s="24" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="I147" s="10" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J147" s="10"/>
       <c r="K147" s="10"/>
@@ -8787,25 +8799,25 @@
     </row>
     <row r="173" spans="1:17" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="D173" s="24" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E173" s="10"/>
       <c r="I173" s="11" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="J173" s="10"/>
       <c r="K173" s="10"/>
       <c r="L173" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="N173" s="10"/>
       <c r="O173" s="10"/>
@@ -9206,10 +9218,10 @@
     </row>
     <row r="188" spans="2:17" s="32" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B188" s="12" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D188" s="23" t="s">
         <v>451</v>
@@ -9496,10 +9508,10 @@
     </row>
     <row r="201" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B201" s="10" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D201" s="23" t="s">
         <v>824</v>
@@ -9602,10 +9614,10 @@
     </row>
     <row r="206" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B206" s="10" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D206" s="23" t="s">
         <v>5</v>
@@ -9892,7 +9904,7 @@
         <v>282</v>
       </c>
       <c r="I221" s="5" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="222" spans="3:14" x14ac:dyDescent="0.2">
@@ -9907,7 +9919,7 @@
         <v>287</v>
       </c>
       <c r="I222" s="5" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="223" spans="3:14" x14ac:dyDescent="0.2">
@@ -9961,7 +9973,7 @@
         <v>788</v>
       </c>
       <c r="I226" s="5" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="227" spans="3:12" x14ac:dyDescent="0.2">
@@ -9973,7 +9985,7 @@
         <v>788</v>
       </c>
       <c r="I227" s="5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="228" spans="3:12" x14ac:dyDescent="0.2">
@@ -9985,7 +9997,7 @@
         <v>788</v>
       </c>
       <c r="I228" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="229" spans="3:12" x14ac:dyDescent="0.2">
@@ -10087,7 +10099,7 @@
         <v>790</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="236" spans="3:12" x14ac:dyDescent="0.2">
@@ -10114,7 +10126,7 @@
         <v>793</v>
       </c>
       <c r="I237" s="5" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="L237" s="5" t="s">
         <v>163</v>
@@ -10147,7 +10159,7 @@
         <v>272</v>
       </c>
       <c r="I239" s="5" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="L239" s="5" t="s">
         <v>223</v>
@@ -10366,7 +10378,7 @@
         <v>476</v>
       </c>
       <c r="I252" s="5" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="L252" s="5" t="s">
         <v>191</v>
@@ -10777,7 +10789,7 @@
     <row r="281" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B281" s="19"/>
       <c r="C281" s="17" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D281" s="18" t="s">
         <v>816</v>
@@ -10852,7 +10864,7 @@
     <row r="284" spans="2:17" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B284" s="22"/>
       <c r="C284" s="22" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D284" s="20" t="s">
         <v>825</v>
@@ -11053,16 +11065,16 @@
     </row>
     <row r="295" spans="2:17" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B295" s="19" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C295" s="22" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D295" s="20" t="s">
         <v>828</v>
       </c>
       <c r="H295" s="21" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I295" s="22" t="s">
         <v>97</v>
@@ -11089,10 +11101,10 @@
     </row>
     <row r="303" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B303" s="16" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C303" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E303" s="9" t="s">
         <v>813</v>
@@ -11114,18 +11126,18 @@
     </row>
     <row r="304" spans="2:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E304" s="9" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="F304" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I304" s="9" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="J304" s="16"/>
       <c r="K304" s="16"/>
       <c r="L304" s="16" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="M304" s="16"/>
       <c r="N304" s="16"/>
@@ -11280,7 +11292,7 @@
     </row>
     <row r="312" spans="2:17" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B312" s="16" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D312" s="13"/>
       <c r="E312" s="16" t="s">
@@ -11452,10 +11464,10 @@
     </row>
     <row r="322" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B322" s="12" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D322" s="23" t="s">
         <v>0</v>
@@ -11466,279 +11478,279 @@
     </row>
     <row r="323" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="32" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B323" s="12" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C323" s="32" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D323" s="23" t="s">
-        <v>830</v>
+        <v>1234</v>
       </c>
       <c r="I323" s="32" t="s">
-        <v>830</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="324" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B324" s="8"/>
       <c r="D324" s="4"/>
       <c r="E324" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H324" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I324" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B325" s="8"/>
       <c r="D325" s="4"/>
       <c r="E325" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H325" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I325" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B326" s="8"/>
       <c r="D326" s="4"/>
       <c r="E326" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H326" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I326" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B327" s="8"/>
       <c r="D327" s="4"/>
       <c r="E327" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H327" s="34" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I327" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B328" s="8"/>
       <c r="D328" s="4"/>
       <c r="E328" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H328" s="34" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I328" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B329" s="8"/>
       <c r="D329" s="4"/>
       <c r="E329" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H329" s="34" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I329" s="34" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B330" s="8"/>
       <c r="D330" s="4"/>
       <c r="E330" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H330" s="34" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I330" s="34" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="331" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B331" s="8"/>
       <c r="D331" s="4"/>
       <c r="E331" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H331" s="34" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I331" s="34" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="332" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B332" s="8"/>
       <c r="D332" s="4"/>
       <c r="E332" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H332" s="34" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I332" s="34" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="333" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B333" s="8"/>
       <c r="D333" s="4"/>
       <c r="E333" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H333" s="34" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I333" s="34" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="334" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B334" s="8"/>
       <c r="D334" s="4"/>
       <c r="E334" s="6" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H334" s="34" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I334" s="34" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="335" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B335" s="8"/>
       <c r="D335" s="4"/>
       <c r="E335" s="6" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H335" s="34" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I335" s="34" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="336" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B336" s="8"/>
       <c r="D336" s="4"/>
       <c r="E336" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H336" s="34" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I336" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="337" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B337" s="8"/>
       <c r="D337" s="4"/>
       <c r="E337" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H337" s="34" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I337" s="34" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="338" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B338" s="8"/>
       <c r="D338" s="4"/>
       <c r="E338" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H338" s="34" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I338" s="34" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="339" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B339" s="8"/>
       <c r="D339" s="4"/>
       <c r="E339" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H339" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I339" s="7" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="340" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B340" s="8"/>
       <c r="D340" s="4"/>
       <c r="E340" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H340" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I340" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="341" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B341" s="8"/>
       <c r="D341" s="4"/>
       <c r="E341" s="6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H341" s="34" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I341" s="34" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="342" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B342" s="8"/>
       <c r="D342" s="4"/>
       <c r="E342" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H342" s="34" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I342" s="34" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="343" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B343" s="8"/>
       <c r="D343" s="4"/>
       <c r="E343" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H343" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I343" s="7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="344" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -11748,7 +11760,7 @@
         <v>736</v>
       </c>
       <c r="H344" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I344" s="7" t="s">
         <v>736</v>
@@ -11758,156 +11770,156 @@
       <c r="B345" s="8"/>
       <c r="D345" s="4"/>
       <c r="E345" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H345" s="34" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I345" s="34" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="346" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B346" s="8"/>
       <c r="D346" s="4"/>
       <c r="E346" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H346" s="34" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="I346" s="34" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="347" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B347" s="8"/>
       <c r="D347" s="4"/>
       <c r="E347" s="6" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H347" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I347" s="7" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="348" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B348" s="8"/>
       <c r="D348" s="4"/>
       <c r="E348" s="6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H348" s="34" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="I348" s="34" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="349" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B349" s="8"/>
       <c r="D349" s="4"/>
       <c r="E349" s="6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H349" s="7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I349" s="7" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="350" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B350" s="8"/>
       <c r="D350" s="4"/>
       <c r="E350" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H350" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I350" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="351" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B351" s="8"/>
       <c r="D351" s="4"/>
       <c r="E351" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H351" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I351" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="352" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B352" s="8"/>
       <c r="D352" s="4"/>
       <c r="E352" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H352" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I352" s="7" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="353" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B353" s="8"/>
       <c r="D353" s="4"/>
       <c r="E353" s="6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H353" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I353" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="354" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B354" s="8"/>
       <c r="D354" s="4"/>
       <c r="E354" s="6" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H354" s="34" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I354" s="34" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="355" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B355" s="8"/>
       <c r="D355" s="4"/>
       <c r="E355" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H355" s="7" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I355" s="7" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="356" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B356" s="8"/>
       <c r="D356" s="4"/>
       <c r="E356" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H356" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I356" s="7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="357" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -11917,7 +11929,7 @@
         <v>143</v>
       </c>
       <c r="H357" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I357" s="7" t="s">
         <v>143</v>
@@ -11927,424 +11939,427 @@
       <c r="B358" s="8"/>
       <c r="D358" s="4"/>
       <c r="E358" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H358" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I358" s="7" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="359" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B359" s="8"/>
       <c r="D359" s="4"/>
       <c r="E359" s="6" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H359" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I359" s="7" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="360" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B360" s="8"/>
       <c r="D360" s="4"/>
       <c r="E360" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H360" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I360" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="361" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B361" s="8"/>
       <c r="D361" s="4"/>
       <c r="E361" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H361" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I361" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="362" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B362" s="8"/>
       <c r="D362" s="4"/>
       <c r="E362" s="6" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H362" s="7" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I362" s="7" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="363" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B363" s="8"/>
       <c r="D363" s="4"/>
       <c r="E363" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H363" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I363" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="364" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B364" s="8"/>
       <c r="D364" s="4"/>
       <c r="E364" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H364" s="7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I364" s="7" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="365" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B365" s="8"/>
       <c r="D365" s="4"/>
       <c r="E365" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H365" s="34" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I365" s="34" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="366" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B366" s="8"/>
       <c r="D366" s="4"/>
       <c r="E366" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H366" s="34" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I366" s="34" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="367" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B367" s="8"/>
       <c r="D367" s="4"/>
       <c r="E367" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H367" s="34" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I367" s="34" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="368" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B368" s="8"/>
       <c r="D368" s="4"/>
       <c r="E368" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H368" s="34" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I368" s="34" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="369" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B369" s="8"/>
       <c r="D369" s="4"/>
       <c r="E369" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H369" s="34" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I369" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="370" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B370" s="8"/>
       <c r="D370" s="4"/>
       <c r="E370" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H370" s="34" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I370" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="371" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B371" s="8"/>
       <c r="D371" s="4"/>
       <c r="E371" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H371" s="34" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="I371" s="34" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="372" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B372" s="8"/>
       <c r="D372" s="4"/>
       <c r="E372" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H372" s="7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I372" s="7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="373" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B373" s="8"/>
       <c r="D373" s="4"/>
       <c r="E373" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H373" s="7" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I373" s="7" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="374" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B374" s="8"/>
       <c r="D374" s="4"/>
       <c r="E374" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H374" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I374" s="7" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="375" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B375" s="8"/>
       <c r="D375" s="4"/>
       <c r="E375" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H375" s="34" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I375" s="34" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="376" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B376" s="8"/>
       <c r="D376" s="4"/>
       <c r="E376" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H376" s="7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I376" s="7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="377" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B377" s="8"/>
       <c r="D377" s="4"/>
       <c r="E377" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H377" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I377" s="7" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="378" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B378" s="8"/>
       <c r="D378" s="4"/>
       <c r="E378" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H378" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I378" s="7" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="379" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B379" s="8"/>
       <c r="D379" s="4"/>
       <c r="E379" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H379" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I379" s="7" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="380" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B380" s="8"/>
       <c r="D380" s="4"/>
       <c r="E380" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H380" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I380" s="7" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="381" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B381" s="8"/>
       <c r="D381" s="4"/>
       <c r="E381" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H381" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I381" s="7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="382" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B382" s="8"/>
       <c r="D382" s="4"/>
       <c r="E382" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H382" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I382" s="7" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="383" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B383" s="8"/>
       <c r="D383" s="4"/>
       <c r="E383" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H383" s="7" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I383" s="7" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="384" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B384" s="8"/>
       <c r="D384" s="4"/>
       <c r="E384" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H384" s="7" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="I384" s="7" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="385" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="385" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B385" s="8"/>
       <c r="D385" s="4"/>
       <c r="E385" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H385" s="7" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I385" s="7" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="386" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="386" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B386" s="8"/>
       <c r="D386" s="4"/>
       <c r="E386" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H386" s="7" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I386" s="7" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="387" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="387" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B387" s="8"/>
       <c r="D387" s="4"/>
       <c r="E387" s="6" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H387" s="7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I387" s="7" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="388" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="388" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B388" s="8"/>
       <c r="D388" s="4"/>
       <c r="E388" s="6" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H388" s="7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I388" s="7" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="389" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="389" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B389" s="8"/>
       <c r="D389" s="4"/>
       <c r="E389" s="6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H389" s="7" t="s">
         <v>142</v>
       </c>
       <c r="I389" s="7" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="390" spans="2:17" s="17" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="390" spans="1:17" s="17" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A390" s="17" t="s">
+        <v>1037</v>
+      </c>
       <c r="B390" s="19" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C390" s="19" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D390" s="18" t="s">
         <v>94</v>
@@ -12364,7 +12379,7 @@
       <c r="P390" s="19"/>
       <c r="Q390" s="19"/>
     </row>
-    <row r="391" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B391" s="8"/>
       <c r="D391" s="4"/>
       <c r="E391" s="6" t="s">
@@ -12393,7 +12408,7 @@
       </c>
       <c r="Q391" s="8"/>
     </row>
-    <row r="392" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B392" s="8"/>
       <c r="D392" s="4"/>
       <c r="E392" s="6" t="s">
@@ -12423,7 +12438,7 @@
       </c>
       <c r="Q392" s="8"/>
     </row>
-    <row r="393" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B393" s="8"/>
       <c r="D393" s="4"/>
       <c r="E393" s="6" t="s">
@@ -12453,7 +12468,7 @@
       </c>
       <c r="Q393" s="8"/>
     </row>
-    <row r="394" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B394" s="8"/>
       <c r="D394" s="4"/>
       <c r="E394" s="6" t="s">
@@ -12483,7 +12498,7 @@
       </c>
       <c r="Q394" s="8"/>
     </row>
-    <row r="395" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B395" s="8"/>
       <c r="D395" s="4"/>
       <c r="E395" s="16" t="s">
@@ -12513,7 +12528,7 @@
       </c>
       <c r="Q395" s="8"/>
     </row>
-    <row r="396" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B396" s="8"/>
       <c r="D396" s="4"/>
       <c r="E396" s="16" t="s">
@@ -12542,7 +12557,7 @@
       </c>
       <c r="Q396" s="8"/>
     </row>
-    <row r="397" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B397" s="8"/>
       <c r="D397" s="4"/>
       <c r="E397" s="16" t="s">
@@ -12571,7 +12586,7 @@
       </c>
       <c r="Q397" s="8"/>
     </row>
-    <row r="398" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B398" s="8"/>
       <c r="D398" s="4"/>
       <c r="E398" s="16" t="s">
@@ -12600,7 +12615,7 @@
       </c>
       <c r="Q398" s="8"/>
     </row>
-    <row r="399" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B399" s="8"/>
       <c r="D399" s="4"/>
       <c r="E399" s="16" t="s">
@@ -12629,7 +12644,7 @@
       </c>
       <c r="Q399" s="8"/>
     </row>
-    <row r="400" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B400" s="8"/>
       <c r="D400" s="4"/>
       <c r="E400" s="16" t="s">

--- a/source/ControlledTerms.xlsx
+++ b/source/ControlledTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tanzarchiv-my.sharepoint.com/personal/birk_weiberg_sapa_swiss/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B5A58AC-104E-4886-9CD1-438E377E682A}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F57ADE64-F280-4B6F-94F6-592690CF7501}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5400" yWindow="7480" windowWidth="33000" windowHeight="15660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="1326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="1324">
   <si>
     <t>context</t>
   </si>
@@ -1836,9 +1836,6 @@
     <t>correspondence</t>
   </si>
   <si>
-    <t xml:space="preserve">document </t>
-  </si>
-  <si>
     <t>aat:300026877</t>
   </si>
   <si>
@@ -2022,7 +2019,7 @@
     <t>Kunstplakat</t>
   </si>
   <si>
-    <t>concert-poster</t>
+    <t>concertposter</t>
   </si>
   <si>
     <t>concert poster</t>
@@ -2116,9 +2113,6 @@
   </si>
   <si>
     <t>projet de costume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">object </t>
   </si>
   <si>
     <t>object</t>
@@ -4663,22 +4657,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Normal 2" xfId="17" xr:uid="{B72E1086-3A3B-8942-9D32-647341BC36C4}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -4961,8 +4955,8 @@
   <dimension ref="A1:Q424"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K170" sqref="K170"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F171" sqref="F171"/>
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -8576,10 +8570,10 @@
         <v>511</v>
       </c>
       <c r="F152" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="G152" s="26" t="s">
         <v>512</v>
-      </c>
-      <c r="G152" s="26" t="s">
-        <v>513</v>
       </c>
       <c r="H152" s="26"/>
       <c r="I152" s="26" t="s">
@@ -8588,11 +8582,11 @@
       <c r="J152" s="27"/>
       <c r="K152" s="27"/>
       <c r="L152" s="29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M152" s="27"/>
       <c r="N152" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O152" s="27"/>
       <c r="P152" s="27"/>
@@ -8601,26 +8595,26 @@
     <row r="153" spans="2:17">
       <c r="C153" s="4"/>
       <c r="E153" s="26" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F153" s="26" t="s">
         <v>497</v>
       </c>
       <c r="G153" s="26" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H153" s="26"/>
       <c r="I153" s="26" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J153" s="27"/>
       <c r="K153" s="27"/>
       <c r="L153" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M153" s="27"/>
       <c r="N153" s="27" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O153" s="27"/>
       <c r="P153" s="27"/>
@@ -8629,26 +8623,26 @@
     <row r="154" spans="2:17">
       <c r="C154" s="4"/>
       <c r="E154" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="F154" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="G154" s="26" t="s">
         <v>519</v>
-      </c>
-      <c r="F154" s="26" t="s">
-        <v>512</v>
-      </c>
-      <c r="G154" s="26" t="s">
-        <v>520</v>
       </c>
       <c r="H154" s="26"/>
       <c r="I154" s="26" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J154" s="27"/>
       <c r="K154" s="27"/>
       <c r="L154" s="27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M154" s="27"/>
       <c r="N154" s="27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O154" s="27"/>
       <c r="P154" s="27"/>
@@ -8657,26 +8651,26 @@
     <row r="155" spans="2:17">
       <c r="C155" s="4"/>
       <c r="E155" s="26" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F155" s="26" t="s">
         <v>497</v>
       </c>
       <c r="G155" s="26" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H155" s="26"/>
       <c r="I155" s="26" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J155" s="27"/>
       <c r="K155" s="27"/>
       <c r="L155" s="27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M155" s="27"/>
       <c r="N155" s="27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O155" s="27"/>
       <c r="P155" s="27"/>
@@ -8685,26 +8679,26 @@
     <row r="156" spans="2:17">
       <c r="C156" s="4"/>
       <c r="E156" s="26" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F156" s="26" t="s">
         <v>497</v>
       </c>
       <c r="G156" s="26" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H156" s="26"/>
       <c r="I156" s="26" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J156" s="27"/>
       <c r="K156" s="27"/>
       <c r="L156" s="29" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M156" s="27"/>
       <c r="N156" s="27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O156" s="27"/>
       <c r="P156" s="27"/>
@@ -8713,74 +8707,74 @@
     <row r="157" spans="2:17">
       <c r="C157" s="4"/>
       <c r="E157" s="26" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F157" s="26" t="s">
         <v>497</v>
       </c>
       <c r="G157" s="26" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H157" s="26"/>
       <c r="I157" s="26" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J157" s="27"/>
       <c r="K157" s="27"/>
       <c r="L157" s="29"/>
       <c r="M157" s="27"/>
       <c r="N157" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O157" s="27"/>
       <c r="P157" s="27"/>
       <c r="Q157" s="27"/>
     </row>
-    <row r="158" spans="2:17">
+    <row r="158" spans="2:17" ht="15.75">
       <c r="C158" s="4"/>
       <c r="E158" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F158" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G158" s="31" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H158" s="31"/>
       <c r="I158" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J158" s="30"/>
       <c r="K158" s="30"/>
       <c r="L158" s="30" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M158" s="30"/>
       <c r="N158" s="30" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O158" s="30"/>
       <c r="P158" s="30"/>
       <c r="Q158" s="30"/>
     </row>
-    <row r="159" spans="2:17">
+    <row r="159" spans="2:17" ht="15.75">
       <c r="C159" s="4"/>
       <c r="E159" s="30" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F159" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G159" s="31"/>
       <c r="H159" s="31"/>
       <c r="I159" s="30" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J159" s="30"/>
       <c r="K159" s="30"/>
       <c r="L159" s="30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M159" s="30"/>
       <c r="N159" s="32"/>
@@ -8788,23 +8782,23 @@
       <c r="P159" s="30"/>
       <c r="Q159" s="30"/>
     </row>
-    <row r="160" spans="2:17">
+    <row r="160" spans="2:17" ht="15.75">
       <c r="C160" s="4"/>
       <c r="E160" s="30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F160" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G160" s="31"/>
       <c r="H160" s="31"/>
       <c r="I160" s="30" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J160" s="30"/>
       <c r="K160" s="30"/>
       <c r="L160" s="30" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M160" s="30"/>
       <c r="N160" s="32"/>
@@ -8812,23 +8806,23 @@
       <c r="P160" s="30"/>
       <c r="Q160" s="30"/>
     </row>
-    <row r="161" spans="3:17">
+    <row r="161" spans="3:17" ht="15.75">
       <c r="C161" s="4"/>
       <c r="E161" s="30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F161" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G161" s="31"/>
       <c r="H161" s="31"/>
       <c r="I161" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J161" s="30"/>
       <c r="K161" s="30"/>
       <c r="L161" s="30" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M161" s="30"/>
       <c r="N161" s="32"/>
@@ -8836,23 +8830,23 @@
       <c r="P161" s="30"/>
       <c r="Q161" s="30"/>
     </row>
-    <row r="162" spans="3:17">
+    <row r="162" spans="3:17" ht="15.75">
       <c r="C162" s="4"/>
       <c r="E162" s="30" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F162" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G162" s="31"/>
       <c r="H162" s="31"/>
       <c r="I162" s="30" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J162" s="30"/>
       <c r="K162" s="30"/>
       <c r="L162" s="30" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M162" s="30"/>
       <c r="N162" s="32"/>
@@ -8860,23 +8854,23 @@
       <c r="P162" s="30"/>
       <c r="Q162" s="30"/>
     </row>
-    <row r="163" spans="3:17">
+    <row r="163" spans="3:17" ht="15.75">
       <c r="C163" s="4"/>
       <c r="E163" s="31" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F163" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G163" s="31"/>
       <c r="H163" s="31"/>
       <c r="I163" s="31" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J163" s="30"/>
       <c r="K163" s="30"/>
       <c r="L163" s="31" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M163" s="30"/>
       <c r="N163" s="32"/>
@@ -8884,51 +8878,51 @@
       <c r="P163" s="30"/>
       <c r="Q163" s="30"/>
     </row>
-    <row r="164" spans="3:17">
+    <row r="164" spans="3:17" ht="15.75">
       <c r="C164" s="4"/>
       <c r="E164" s="31" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F164" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G164" s="31"/>
       <c r="H164" s="31"/>
       <c r="I164" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="J164" s="30" t="s">
         <v>555</v>
-      </c>
-      <c r="J164" s="30" t="s">
-        <v>556</v>
       </c>
       <c r="K164" s="30"/>
       <c r="L164" s="31" t="s">
+        <v>556</v>
+      </c>
+      <c r="M164" s="30" t="s">
         <v>557</v>
-      </c>
-      <c r="M164" s="30" t="s">
-        <v>558</v>
       </c>
       <c r="N164" s="32"/>
       <c r="O164" s="30"/>
       <c r="P164" s="30"/>
       <c r="Q164" s="30"/>
     </row>
-    <row r="165" spans="3:17">
+    <row r="165" spans="3:17" ht="15.75">
       <c r="C165" s="4"/>
       <c r="E165" s="30" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F165" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G165" s="31"/>
       <c r="H165" s="31"/>
       <c r="I165" s="30" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J165" s="30"/>
       <c r="K165" s="30"/>
       <c r="L165" s="30" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M165" s="30"/>
       <c r="N165" s="32"/>
@@ -8936,23 +8930,23 @@
       <c r="P165" s="30"/>
       <c r="Q165" s="30"/>
     </row>
-    <row r="166" spans="3:17">
+    <row r="166" spans="3:17" ht="15.75">
       <c r="C166" s="4"/>
       <c r="E166" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F166" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G166" s="31"/>
       <c r="H166" s="31"/>
       <c r="I166" s="30" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J166" s="30"/>
       <c r="K166" s="30"/>
       <c r="L166" s="30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M166" s="30"/>
       <c r="N166" s="32"/>
@@ -8960,23 +8954,23 @@
       <c r="P166" s="30"/>
       <c r="Q166" s="30"/>
     </row>
-    <row r="167" spans="3:17">
+    <row r="167" spans="3:17" ht="15.75">
       <c r="C167" s="4"/>
       <c r="E167" s="31" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F167" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G167" s="31"/>
       <c r="H167" s="31"/>
       <c r="I167" s="31" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J167" s="30"/>
       <c r="K167" s="30"/>
       <c r="L167" s="31" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M167" s="30"/>
       <c r="N167" s="32"/>
@@ -8984,23 +8978,23 @@
       <c r="P167" s="30"/>
       <c r="Q167" s="30"/>
     </row>
-    <row r="168" spans="3:17">
+    <row r="168" spans="3:17" ht="15.75">
       <c r="C168" s="4"/>
       <c r="E168" s="30" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F168" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G168" s="31"/>
       <c r="H168" s="31"/>
       <c r="I168" s="30" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J168" s="30"/>
       <c r="K168" s="30"/>
       <c r="L168" s="30" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M168" s="30"/>
       <c r="N168" s="32"/>
@@ -9008,23 +9002,23 @@
       <c r="P168" s="30"/>
       <c r="Q168" s="30"/>
     </row>
-    <row r="169" spans="3:17">
+    <row r="169" spans="3:17" ht="15.75">
       <c r="C169" s="4"/>
       <c r="E169" s="30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F169" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G169" s="31"/>
       <c r="H169" s="31"/>
       <c r="I169" s="30" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J169" s="30"/>
       <c r="K169" s="30"/>
       <c r="L169" s="30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M169" s="30"/>
       <c r="N169" s="32"/>
@@ -9032,23 +9026,23 @@
       <c r="P169" s="30"/>
       <c r="Q169" s="30"/>
     </row>
-    <row r="170" spans="3:17">
+    <row r="170" spans="3:17" ht="15.75">
       <c r="C170" s="4"/>
       <c r="E170" s="30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F170" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G170" s="31"/>
       <c r="H170" s="31"/>
       <c r="I170" s="30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J170" s="30"/>
       <c r="K170" s="30"/>
       <c r="L170" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M170" s="30"/>
       <c r="N170" s="32"/>
@@ -9056,23 +9050,23 @@
       <c r="P170" s="30"/>
       <c r="Q170" s="30"/>
     </row>
-    <row r="171" spans="3:17">
+    <row r="171" spans="3:17" ht="15.75">
       <c r="C171" s="4"/>
       <c r="E171" s="30" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F171" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G171" s="31"/>
       <c r="H171" s="31"/>
       <c r="I171" s="30" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J171" s="30"/>
       <c r="K171" s="30"/>
       <c r="L171" s="30" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M171" s="30"/>
       <c r="N171" s="32"/>
@@ -9083,26 +9077,26 @@
     <row r="172" spans="3:17">
       <c r="C172" s="4"/>
       <c r="E172" s="33" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F172" s="33" t="s">
         <v>23</v>
       </c>
       <c r="G172" s="33" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H172" s="33"/>
       <c r="I172" s="33" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J172" s="34"/>
       <c r="K172" s="34"/>
       <c r="L172" s="34" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M172" s="34"/>
       <c r="N172" s="34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O172" s="34"/>
       <c r="P172" s="34"/>
@@ -9111,24 +9105,24 @@
     <row r="173" spans="3:17">
       <c r="C173" s="4"/>
       <c r="E173" s="35" t="s">
+        <v>583</v>
+      </c>
+      <c r="F173" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="G173" s="33" t="s">
         <v>584</v>
-      </c>
-      <c r="F173" s="33" t="s">
-        <v>580</v>
-      </c>
-      <c r="G173" s="33" t="s">
-        <v>585</v>
       </c>
       <c r="H173" s="33"/>
       <c r="I173" s="35" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J173" s="34"/>
       <c r="K173" s="34"/>
       <c r="L173" s="36"/>
       <c r="M173" s="34"/>
       <c r="N173" s="34" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O173" s="34"/>
       <c r="P173" s="34"/>
@@ -9137,24 +9131,24 @@
     <row r="174" spans="3:17">
       <c r="C174" s="4"/>
       <c r="E174" s="33" t="s">
+        <v>586</v>
+      </c>
+      <c r="F174" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="G174" s="33" t="s">
         <v>587</v>
-      </c>
-      <c r="F174" s="33" t="s">
-        <v>580</v>
-      </c>
-      <c r="G174" s="33" t="s">
-        <v>588</v>
       </c>
       <c r="H174" s="33"/>
       <c r="I174" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J174" s="34"/>
       <c r="K174" s="34"/>
       <c r="L174" s="36"/>
       <c r="M174" s="34"/>
       <c r="N174" s="34" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O174" s="34"/>
       <c r="P174" s="34"/>
@@ -9163,7 +9157,7 @@
     <row r="175" spans="3:17">
       <c r="C175" s="4"/>
       <c r="E175" s="37" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F175" s="37" t="s">
         <v>23</v>
@@ -9171,78 +9165,78 @@
       <c r="G175" s="37"/>
       <c r="H175" s="37"/>
       <c r="I175" s="38" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J175" s="38"/>
       <c r="K175" s="38"/>
       <c r="L175" s="38" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M175" s="38"/>
       <c r="N175" s="38" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O175" s="38"/>
       <c r="P175" s="38"/>
       <c r="Q175" s="38"/>
     </row>
-    <row r="176" spans="3:17">
+    <row r="176" spans="3:17" ht="15.75">
       <c r="C176" s="4"/>
       <c r="E176" s="38" t="s">
+        <v>592</v>
+      </c>
+      <c r="F176" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="G176" s="37" t="s">
         <v>593</v>
-      </c>
-      <c r="F176" s="37" t="s">
-        <v>590</v>
-      </c>
-      <c r="G176" s="37" t="s">
-        <v>594</v>
       </c>
       <c r="H176" s="37"/>
       <c r="I176" s="38" t="s">
+        <v>594</v>
+      </c>
+      <c r="J176" s="38" t="s">
         <v>595</v>
-      </c>
-      <c r="J176" s="38" t="s">
-        <v>596</v>
       </c>
       <c r="K176" s="38"/>
       <c r="L176" s="38" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M176" s="38"/>
       <c r="N176" s="38" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O176" s="38"/>
       <c r="P176" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q176" s="38" t="s">
         <v>599</v>
       </c>
-      <c r="Q176" s="38" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="177" spans="1:17">
+    </row>
+    <row r="177" spans="1:17" ht="15.75">
       <c r="C177" s="4"/>
       <c r="E177" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="F177" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="G177" s="37" t="s">
         <v>601</v>
-      </c>
-      <c r="F177" s="37" t="s">
-        <v>590</v>
-      </c>
-      <c r="G177" s="37" t="s">
-        <v>602</v>
       </c>
       <c r="H177" s="37"/>
       <c r="I177" s="38" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J177" s="38"/>
       <c r="K177" s="38"/>
       <c r="L177" s="38" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M177" s="38"/>
       <c r="N177" s="38" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O177" s="38"/>
       <c r="P177" s="38"/>
@@ -9251,24 +9245,24 @@
     <row r="178" spans="1:17">
       <c r="C178" s="4"/>
       <c r="E178" s="39" t="s">
+        <v>605</v>
+      </c>
+      <c r="F178" s="39" t="s">
+        <v>605</v>
+      </c>
+      <c r="G178" s="39" t="s">
         <v>606</v>
-      </c>
-      <c r="F178" s="39" t="s">
-        <v>607</v>
-      </c>
-      <c r="G178" s="39" t="s">
-        <v>608</v>
       </c>
       <c r="H178" s="39"/>
       <c r="I178" s="39" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J178" s="40"/>
       <c r="K178" s="40"/>
       <c r="L178" s="41"/>
       <c r="M178" s="40"/>
       <c r="N178" s="40" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="O178" s="40"/>
       <c r="P178" s="40"/>
@@ -9277,24 +9271,24 @@
     <row r="179" spans="1:17">
       <c r="C179" s="4"/>
       <c r="E179" s="39" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F179" s="39" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G179" s="39"/>
       <c r="H179" s="39"/>
       <c r="I179" s="39" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J179" s="40"/>
       <c r="K179" s="40"/>
       <c r="L179" s="41" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="M179" s="40"/>
       <c r="N179" s="40" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="O179" s="40"/>
       <c r="P179" s="40"/>
@@ -9303,87 +9297,87 @@
     <row r="180" spans="1:17">
       <c r="C180" s="4"/>
       <c r="E180" s="39" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F180" s="39" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G180" s="39" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H180" s="39"/>
       <c r="I180" s="39" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J180" s="40"/>
       <c r="K180" s="40"/>
       <c r="L180" s="41"/>
       <c r="M180" s="40"/>
       <c r="N180" s="40" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="O180" s="40"/>
       <c r="P180" s="40"/>
       <c r="Q180" s="40"/>
     </row>
-    <row r="181" spans="1:17" ht="32.1">
+    <row r="181" spans="1:17" ht="31.5">
       <c r="C181" s="4"/>
       <c r="E181" s="40" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F181" s="39" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G181" s="39"/>
       <c r="H181" s="39"/>
       <c r="I181" s="40" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J181" s="40"/>
       <c r="K181" s="40"/>
       <c r="L181" s="40" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="M181" s="40"/>
       <c r="N181" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="O181" s="40" t="s">
+        <v>618</v>
+      </c>
+      <c r="P181" s="40" t="s">
         <v>619</v>
-      </c>
-      <c r="O181" s="40" t="s">
-        <v>620</v>
-      </c>
-      <c r="P181" s="40" t="s">
-        <v>621</v>
       </c>
       <c r="Q181" s="40"/>
     </row>
     <row r="182" spans="1:17">
       <c r="C182" s="4"/>
       <c r="E182" s="39" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F182" s="39" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G182" s="39"/>
       <c r="H182" s="39"/>
       <c r="I182" s="39" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="J182" s="40"/>
       <c r="K182" s="40"/>
       <c r="L182" s="41"/>
       <c r="M182" s="40"/>
       <c r="N182" s="40" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O182" s="40"/>
       <c r="P182" s="40"/>
       <c r="Q182" s="40"/>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:17" ht="15.75">
       <c r="C183" s="4"/>
       <c r="E183" s="42" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F183" s="42" t="s">
         <v>23</v>
@@ -9391,16 +9385,16 @@
       <c r="G183" s="43"/>
       <c r="H183" s="43"/>
       <c r="I183" s="42" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="J183" s="42"/>
       <c r="K183" s="42"/>
       <c r="L183" s="42" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="M183" s="42"/>
       <c r="N183" s="42" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="O183" s="42"/>
       <c r="P183" s="42"/>
@@ -9409,24 +9403,24 @@
     <row r="184" spans="1:17">
       <c r="C184" s="4"/>
       <c r="E184" s="44" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F184" s="45" t="s">
         <v>23</v>
       </c>
       <c r="G184" s="45" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H184" s="45"/>
       <c r="I184" s="44" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="J184" s="46"/>
       <c r="K184" s="46"/>
       <c r="L184" s="47"/>
       <c r="M184" s="46"/>
       <c r="N184" s="46" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="O184" s="46"/>
       <c r="P184" s="46"/>
@@ -9435,26 +9429,26 @@
     <row r="185" spans="1:17">
       <c r="C185" s="4"/>
       <c r="E185" s="48" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F185" s="48" t="s">
         <v>23</v>
       </c>
       <c r="G185" s="48" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H185" s="48"/>
       <c r="I185" s="48" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="J185" s="49"/>
       <c r="K185" s="49"/>
       <c r="L185" s="50" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="M185" s="49"/>
       <c r="N185" s="49" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="O185" s="49"/>
       <c r="P185" s="49"/>
@@ -9463,24 +9457,24 @@
     <row r="186" spans="1:17">
       <c r="C186" s="4"/>
       <c r="E186" s="51" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F186" s="51" t="s">
         <v>23</v>
       </c>
       <c r="G186" s="51" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H186" s="51"/>
       <c r="I186" s="51" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J186" s="52"/>
       <c r="K186" s="52"/>
       <c r="L186" s="53"/>
       <c r="M186" s="52"/>
       <c r="N186" s="52" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="O186" s="52"/>
       <c r="P186" s="52"/>
@@ -9489,24 +9483,24 @@
     <row r="187" spans="1:17">
       <c r="C187" s="4"/>
       <c r="E187" s="51" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F187" s="51" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G187" s="51" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H187" s="51"/>
       <c r="I187" s="51" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J187" s="52"/>
       <c r="K187" s="52"/>
       <c r="L187" s="53"/>
       <c r="M187" s="52"/>
       <c r="N187" s="52" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="O187" s="52"/>
       <c r="P187" s="52"/>
@@ -9515,24 +9509,24 @@
     <row r="188" spans="1:17">
       <c r="C188" s="4"/>
       <c r="E188" s="51" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F188" s="51" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G188" s="51" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H188" s="51"/>
       <c r="I188" s="51" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J188" s="52"/>
       <c r="K188" s="52"/>
       <c r="L188" s="53"/>
       <c r="M188" s="52"/>
       <c r="N188" s="52" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="O188" s="52"/>
       <c r="P188" s="52"/>
@@ -9541,24 +9535,24 @@
     <row r="189" spans="1:17">
       <c r="C189" s="4"/>
       <c r="E189" s="51" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F189" s="51" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G189" s="51" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H189" s="51"/>
       <c r="I189" s="51" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J189" s="52"/>
       <c r="K189" s="52"/>
       <c r="L189" s="53"/>
       <c r="M189" s="52"/>
       <c r="N189" s="52" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="O189" s="52"/>
       <c r="P189" s="52"/>
@@ -9569,22 +9563,22 @@
         <v>482</v>
       </c>
       <c r="B190" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="D190" s="13" t="s">
         <v>650</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="D190" s="13" t="s">
-        <v>652</v>
       </c>
       <c r="E190" s="5"/>
       <c r="I190" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J190" s="5"/>
       <c r="K190" s="5"/>
       <c r="L190" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="N190" s="5"/>
       <c r="O190" s="5"/>
@@ -9594,53 +9588,53 @@
     <row r="191" spans="1:17">
       <c r="C191" s="4"/>
       <c r="E191" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
       <c r="L191" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="N191" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="O191" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="N191" s="2" t="s">
+      <c r="P191" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="O191" s="2" t="s">
+      <c r="Q191" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="P191" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="Q191" s="2" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="192" spans="1:17">
       <c r="C192" s="4"/>
       <c r="E192" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="I192" s="5" t="s">
         <v>662</v>
-      </c>
-      <c r="F192" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="G192" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="I192" s="5" t="s">
-        <v>664</v>
       </c>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
       <c r="L192" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -9650,73 +9644,73 @@
     <row r="193" spans="2:17" ht="32.1">
       <c r="C193" s="4"/>
       <c r="E193" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
       <c r="L193" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="N193" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="O193" s="2"/>
       <c r="P193" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="Q193" s="2"/>
     </row>
     <row r="194" spans="2:17">
       <c r="C194" s="4"/>
       <c r="E194" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="I194" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="G194" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="I194" s="2" t="s">
-        <v>673</v>
       </c>
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
       <c r="L194" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="N194" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Q194" s="2"/>
     </row>
     <row r="195" spans="2:17">
       <c r="C195" s="4"/>
       <c r="E195" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
       <c r="L195" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
@@ -9726,85 +9720,85 @@
     <row r="196" spans="2:17">
       <c r="C196" s="4"/>
       <c r="E196" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
       <c r="L196" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="M196" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="N196" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="M196" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="N196" s="2" t="s">
-        <v>683</v>
       </c>
       <c r="O196" s="2"/>
       <c r="P196" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q196" s="2"/>
     </row>
     <row r="197" spans="2:17">
       <c r="C197" s="4"/>
       <c r="E197" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="I197" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="G197" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="I197" s="2" t="s">
-        <v>687</v>
       </c>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
       <c r="L197" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="N197" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="O197" s="2"/>
       <c r="P197" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Q197" s="2"/>
     </row>
     <row r="198" spans="2:17">
       <c r="C198" s="4"/>
       <c r="E198" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="I198" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="F198" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="G198" s="4" t="s">
+      <c r="J198" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="I198" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="J198" s="2" t="s">
-        <v>694</v>
       </c>
       <c r="K198" s="2"/>
       <c r="L198" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="N198" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="O198" s="2"/>
       <c r="P198" s="2"/>
@@ -9813,23 +9807,23 @@
     <row r="199" spans="2:17">
       <c r="C199" s="4"/>
       <c r="E199" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="I199" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="F199" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="G199" s="4" t="s">
+      <c r="J199" s="5" t="s">
         <v>698</v>
-      </c>
-      <c r="I199" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="J199" s="5" t="s">
-        <v>700</v>
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -9839,21 +9833,21 @@
     <row r="200" spans="2:17">
       <c r="C200" s="4"/>
       <c r="E200" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="I200" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="F200" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="G200" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="I200" s="2" t="s">
-        <v>704</v>
       </c>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
       <c r="L200" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
@@ -9863,19 +9857,19 @@
     <row r="201" spans="2:17">
       <c r="C201" s="4"/>
       <c r="E201" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F201" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G201" s="24"/>
       <c r="I201" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
       <c r="L201" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
@@ -9885,23 +9879,23 @@
     <row r="202" spans="2:17" ht="32.1">
       <c r="C202" s="4"/>
       <c r="E202" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="J202" s="2" t="s">
         <v>707</v>
-      </c>
-      <c r="F202" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="G202" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="I202" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="J202" s="2" t="s">
-        <v>709</v>
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -9911,61 +9905,61 @@
     <row r="203" spans="2:17">
       <c r="C203" s="4"/>
       <c r="E203" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
       <c r="L203" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="M203" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="N203" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="M203" s="4" t="s">
+      <c r="O203" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="N203" s="2" t="s">
+      <c r="P203" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="O203" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="P203" s="2" t="s">
-        <v>717</v>
       </c>
       <c r="Q203" s="2"/>
     </row>
     <row r="204" spans="2:17">
       <c r="C204" s="4"/>
       <c r="E204" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F204" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
       <c r="L204" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="N204" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="O204" s="2"/>
       <c r="P204" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="Q204" s="2"/>
     </row>
@@ -9974,282 +9968,282 @@
         <v>483</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D205" s="12" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="I205" s="5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="206" spans="2:17">
       <c r="C206" s="4"/>
       <c r="E206" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F206" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G206" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="L206" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="N206" s="4" t="s">
         <v>726</v>
-      </c>
-      <c r="I206" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="L206" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="N206" s="4" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="207" spans="2:17">
       <c r="C207" s="4"/>
       <c r="E207" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F207" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G207" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="L207" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="N207" s="4" t="s">
         <v>730</v>
-      </c>
-      <c r="I207" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="L207" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="N207" s="4" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="208" spans="2:17">
       <c r="C208" s="4"/>
       <c r="E208" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="L208" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="F208" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="G208" s="4" t="s">
+      <c r="N208" s="4" t="s">
         <v>734</v>
-      </c>
-      <c r="I208" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="L208" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="N208" s="4" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="209" spans="2:17">
       <c r="C209" s="4"/>
       <c r="E209" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F209" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G209" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="L209" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="M209" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="I209" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="L209" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="M209" s="4" t="s">
-        <v>740</v>
-      </c>
       <c r="N209" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="210" spans="2:17">
       <c r="C210" s="4"/>
       <c r="E210" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="L210" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="F210" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="G210" s="4" t="s">
+      <c r="N210" s="4" t="s">
         <v>742</v>
-      </c>
-      <c r="I210" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="L210" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="N210" s="4" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="211" spans="2:17">
       <c r="C211" s="4"/>
       <c r="E211" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="L211" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="F211" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="G211" s="4" t="s">
+      <c r="N211" s="4" t="s">
         <v>746</v>
-      </c>
-      <c r="I211" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="L211" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="N211" s="4" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="212" spans="2:17">
       <c r="C212" s="4"/>
       <c r="E212" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="L212" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="F212" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="G212" s="4" t="s">
+      <c r="N212" s="4" t="s">
         <v>750</v>
-      </c>
-      <c r="I212" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="L212" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="N212" s="4" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="213" spans="2:17">
       <c r="C213" s="4"/>
       <c r="E213" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G213" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="L213" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="N213" s="4" t="s">
         <v>754</v>
-      </c>
-      <c r="I213" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="L213" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="N213" s="4" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="214" spans="2:17">
       <c r="C214" s="4"/>
       <c r="E214" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G214" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="I214" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="L214" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="N214" s="4" t="s">
         <v>758</v>
-      </c>
-      <c r="I214" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="L214" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="N214" s="4" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="215" spans="2:17">
       <c r="C215" s="4"/>
       <c r="E215" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F215" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G215" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="L215" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="N215" s="4" t="s">
         <v>762</v>
-      </c>
-      <c r="I215" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="L215" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="N215" s="4" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="216" spans="2:17">
       <c r="C216" s="4"/>
       <c r="E216" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F216" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G216" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="I216" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="L216" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="N216" s="4" t="s">
         <v>766</v>
-      </c>
-      <c r="I216" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="L216" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="N216" s="4" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="217" spans="2:17">
       <c r="C217" s="4"/>
       <c r="E217" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F217" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G217" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="I217" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="L217" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="N217" s="4" t="s">
         <v>770</v>
-      </c>
-      <c r="I217" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="L217" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="N217" s="4" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="218" spans="2:17" s="6" customFormat="1">
       <c r="B218" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="D218" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="C218" s="6" t="s">
+      <c r="I218" s="6" t="s">
         <v>774</v>
-      </c>
-      <c r="D218" s="12" t="s">
-        <v>775</v>
-      </c>
-      <c r="I218" s="6" t="s">
-        <v>776</v>
       </c>
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
@@ -10263,13 +10257,13 @@
     <row r="219" spans="2:17">
       <c r="C219" s="4"/>
       <c r="E219" s="4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F219" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I219" s="4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
@@ -10283,13 +10277,13 @@
     <row r="220" spans="2:17">
       <c r="C220" s="4"/>
       <c r="E220" s="4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F220" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I220" s="4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
@@ -10303,13 +10297,13 @@
     <row r="221" spans="2:17">
       <c r="C221" s="4"/>
       <c r="E221" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F221" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I221" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
@@ -10323,13 +10317,13 @@
     <row r="222" spans="2:17">
       <c r="C222" s="4"/>
       <c r="E222" s="4" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F222" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I222" s="4" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
@@ -10342,16 +10336,16 @@
     </row>
     <row r="223" spans="2:17" s="6" customFormat="1">
       <c r="B223" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="J223" s="5"/>
       <c r="K223" s="5"/>
@@ -10365,1169 +10359,1169 @@
     <row r="224" spans="2:17">
       <c r="C224" s="4"/>
       <c r="E224" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F224" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="I224" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="L224" s="4" t="s">
         <v>729</v>
-      </c>
-      <c r="L224" s="4" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="225" spans="3:14">
       <c r="C225" s="4"/>
       <c r="E225" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="G225" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="I225" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="L225" s="4" t="s">
         <v>784</v>
-      </c>
-      <c r="F225" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="G225" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="I225" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="L225" s="4" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="226" spans="3:14">
       <c r="C226" s="4"/>
       <c r="E226" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F226" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G226" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="I226" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="L226" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="I226" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="L226" s="4" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="227" spans="3:14">
       <c r="C227" s="4"/>
       <c r="E227" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="I227" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="L227" s="4" t="s">
         <v>789</v>
-      </c>
-      <c r="F227" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="G227" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="I227" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="L227" s="4" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="228" spans="3:14">
       <c r="C228" s="4"/>
       <c r="E228" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="I228" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="L228" s="4" t="s">
         <v>792</v>
-      </c>
-      <c r="F228" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="G228" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="I228" s="4" t="s">
-        <v>793</v>
-      </c>
-      <c r="L228" s="4" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="229" spans="3:14">
       <c r="C229" s="4"/>
       <c r="E229" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="I229" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="L229" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="F229" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="G229" s="4" t="s">
+      <c r="M229" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="I229" s="4" t="s">
-        <v>795</v>
-      </c>
-      <c r="L229" s="4" t="s">
+      <c r="N229" s="4" t="s">
         <v>797</v>
-      </c>
-      <c r="M229" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="N229" s="4" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="230" spans="3:14">
       <c r="C230" s="4"/>
       <c r="E230" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="I230" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="F230" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="G230" s="4" t="s">
+      <c r="L230" s="4" t="s">
         <v>801</v>
       </c>
-      <c r="I230" s="4" t="s">
+      <c r="N230" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="L230" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="N230" s="4" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="231" spans="3:14">
       <c r="C231" s="4"/>
       <c r="E231" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="I231" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="232" spans="3:14">
       <c r="C232" s="4"/>
       <c r="E232" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="I232" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="F232" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="G232" s="4" t="s">
+      <c r="L232" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="M232" s="4" t="s">
         <v>808</v>
-      </c>
-      <c r="I232" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="L232" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="M232" s="4" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="233" spans="3:14">
       <c r="C233" s="4"/>
       <c r="E233" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="I233" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="F233" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="G233" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="I233" s="4" t="s">
-        <v>813</v>
-      </c>
       <c r="L233" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="234" spans="3:14">
       <c r="C234" s="4"/>
       <c r="E234" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I234" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L234" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="235" spans="3:14">
       <c r="C235" s="4"/>
       <c r="E235" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="F235" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="G235" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="I235" s="4" t="s">
         <v>816</v>
       </c>
-      <c r="F235" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="G235" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="I235" s="4" t="s">
-        <v>818</v>
-      </c>
       <c r="L235" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="236" spans="3:14">
       <c r="C236" s="4"/>
       <c r="E236" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I236" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="L236" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="237" spans="3:14">
       <c r="C237" s="4"/>
       <c r="E237" s="4" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F237" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I237" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="238" spans="3:14">
       <c r="C238" s="4"/>
       <c r="E238" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="G238" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="I238" s="4" t="s">
         <v>824</v>
-      </c>
-      <c r="F238" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="G238" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="I238" s="4" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="239" spans="3:14">
       <c r="C239" s="4"/>
       <c r="E239" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="F239" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="G239" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="I239" s="4" t="s">
         <v>827</v>
-      </c>
-      <c r="F239" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="G239" s="4" t="s">
-        <v>828</v>
-      </c>
-      <c r="I239" s="4" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="240" spans="3:14">
       <c r="C240" s="4"/>
       <c r="E240" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="G240" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="I240" s="4" t="s">
         <v>830</v>
-      </c>
-      <c r="F240" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="G240" s="4" t="s">
-        <v>831</v>
-      </c>
-      <c r="I240" s="4" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="241" spans="3:12">
       <c r="C241" s="4"/>
       <c r="E241" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F241" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I241" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="242" spans="3:12">
       <c r="C242" s="4"/>
       <c r="E242" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="G242" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="I242" s="4" t="s">
         <v>835</v>
-      </c>
-      <c r="F242" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="G242" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="I242" s="4" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="243" spans="3:12">
       <c r="C243" s="4"/>
       <c r="E243" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I243" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="244" spans="3:12">
       <c r="C244" s="4"/>
       <c r="E244" s="4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I244" s="4" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="245" spans="3:12">
       <c r="C245" s="4"/>
       <c r="E245" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I245" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="246" spans="3:12">
       <c r="C246" s="4"/>
       <c r="E246" s="4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="I246" s="4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="247" spans="3:12">
       <c r="C247" s="4"/>
       <c r="E247" s="4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F247" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I247" s="4" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="L247" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="248" spans="3:12">
       <c r="C248" s="4"/>
       <c r="E248" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="F248" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="G248" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="I248" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="F248" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="G248" s="4" t="s">
+      <c r="L248" s="4" t="s">
         <v>850</v>
-      </c>
-      <c r="I248" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="L248" s="4" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="249" spans="3:12">
       <c r="C249" s="4"/>
       <c r="E249" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="G249" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="I249" s="4" t="s">
         <v>853</v>
-      </c>
-      <c r="F249" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="G249" s="4" t="s">
-        <v>854</v>
-      </c>
-      <c r="I249" s="4" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="250" spans="3:12">
       <c r="C250" s="4"/>
       <c r="E250" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="F250" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="I250" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="J250" s="4" t="s">
         <v>856</v>
-      </c>
-      <c r="F250" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="I250" s="4" t="s">
-        <v>857</v>
-      </c>
-      <c r="J250" s="4" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="251" spans="3:12">
       <c r="C251" s="4"/>
       <c r="E251" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="F251" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="I251" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="J251" s="4" t="s">
         <v>859</v>
-      </c>
-      <c r="F251" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="I251" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="J251" s="4" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="252" spans="3:12">
       <c r="C252" s="4"/>
       <c r="E252" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="I252" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="253" spans="3:12">
       <c r="C253" s="4"/>
       <c r="E253" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I253" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="L253" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="254" spans="3:12">
       <c r="C254" s="4"/>
       <c r="E254" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="I254" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="L254" s="4" t="s">
         <v>866</v>
-      </c>
-      <c r="F254" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="I254" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="L254" s="4" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="255" spans="3:12">
       <c r="C255" s="4"/>
       <c r="E255" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I255" s="4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="L255" s="4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="256" spans="3:12">
       <c r="C256" s="4"/>
       <c r="E256" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="G256" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="I256" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="F256" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="G256" s="4" t="s">
+      <c r="L256" s="4" t="s">
         <v>872</v>
-      </c>
-      <c r="I256" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="L256" s="4" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="257" spans="3:12">
       <c r="C257" s="4"/>
       <c r="E257" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="F257" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="G257" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="I257" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="F257" s="4" t="s">
-        <v>871</v>
-      </c>
-      <c r="G257" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="I257" s="4" t="s">
-        <v>877</v>
-      </c>
       <c r="L257" s="4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="258" spans="3:12">
       <c r="C258" s="4"/>
       <c r="E258" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I258" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="L258" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="259" spans="3:12">
       <c r="C259" s="4"/>
       <c r="E259" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I259" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="L259" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="260" spans="3:12">
       <c r="C260" s="4"/>
       <c r="E260" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I260" s="4" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="L260" s="4" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="261" spans="3:12">
       <c r="C261" s="4"/>
       <c r="E261" s="4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I261" s="4" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="L261" s="4" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="262" spans="3:12">
       <c r="C262" s="4"/>
       <c r="E262" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="F262" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="G262" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="I262" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="F262" s="4" t="s">
-        <v>871</v>
-      </c>
-      <c r="G262" s="4" t="s">
-        <v>887</v>
-      </c>
-      <c r="I262" s="4" t="s">
-        <v>888</v>
-      </c>
       <c r="L262" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="263" spans="3:12">
       <c r="C263" s="4"/>
       <c r="E263" s="4" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="I263" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="L263" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="264" spans="3:12">
       <c r="C264" s="4"/>
       <c r="E264" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="F264" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="G264" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="I264" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="F264" s="4" t="s">
-        <v>871</v>
-      </c>
-      <c r="G264" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="I264" s="4" t="s">
-        <v>893</v>
-      </c>
       <c r="L264" s="4" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="265" spans="3:12">
       <c r="C265" s="4"/>
       <c r="E265" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="I265" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="L265" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="266" spans="3:12">
       <c r="C266" s="4"/>
       <c r="E266" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="F266" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="G266" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="I266" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="F266" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="G266" s="4" t="s">
+      <c r="J266" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="I266" s="4" t="s">
-        <v>898</v>
-      </c>
-      <c r="J266" s="4" t="s">
-        <v>899</v>
-      </c>
       <c r="L266" s="4" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="267" spans="3:12">
       <c r="C267" s="4"/>
       <c r="E267" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="F267" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I267" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="J267" s="4" t="s">
         <v>900</v>
       </c>
-      <c r="F267" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="I267" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="J267" s="4" t="s">
-        <v>902</v>
-      </c>
       <c r="L267" s="4" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="268" spans="3:12">
       <c r="C268" s="4"/>
       <c r="E268" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="I268" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="J268" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="F268" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="I268" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="J268" s="4" t="s">
-        <v>905</v>
-      </c>
       <c r="L268" s="4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="269" spans="3:12">
       <c r="C269" s="4"/>
       <c r="E269" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="F269" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="G269" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="I269" s="4" t="s">
         <v>906</v>
       </c>
-      <c r="F269" s="4" t="s">
-        <v>871</v>
-      </c>
-      <c r="G269" s="4" t="s">
+      <c r="L269" s="4" t="s">
         <v>907</v>
-      </c>
-      <c r="I269" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="L269" s="4" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="270" spans="3:12">
       <c r="C270" s="4"/>
       <c r="E270" s="4" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I270" s="4" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="L270" s="4" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="271" spans="3:12">
       <c r="C271" s="4"/>
       <c r="E271" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="F271" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="G271" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="I271" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="F271" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="G271" s="4" t="s">
+      <c r="J271" s="4" t="s">
         <v>913</v>
       </c>
-      <c r="I271" s="4" t="s">
-        <v>914</v>
-      </c>
-      <c r="J271" s="4" t="s">
-        <v>915</v>
-      </c>
       <c r="L271" s="4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="272" spans="3:12">
       <c r="C272" s="4"/>
       <c r="E272" s="4" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I272" s="4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="L272" s="4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="273" spans="3:13">
       <c r="C273" s="4"/>
       <c r="E273" s="4" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="I273" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="274" spans="3:13">
       <c r="C274" s="4"/>
       <c r="E274" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="F274" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="G274" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="I274" s="4" t="s">
         <v>920</v>
       </c>
-      <c r="F274" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="G274" s="4" t="s">
+      <c r="J274" s="4" t="s">
         <v>921</v>
-      </c>
-      <c r="I274" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="J274" s="4" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="275" spans="3:13">
       <c r="C275" s="4"/>
       <c r="E275" s="4" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="I275" s="4" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="276" spans="3:13">
       <c r="C276" s="4"/>
       <c r="E276" s="4" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="I276" s="4" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="277" spans="3:13">
       <c r="C277" s="4"/>
       <c r="E277" s="4" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="I277" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="278" spans="3:13">
       <c r="C278" s="4"/>
       <c r="E278" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="F278" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="G278" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="I278" s="4" t="s">
         <v>930</v>
-      </c>
-      <c r="F278" s="4" t="s">
-        <v>871</v>
-      </c>
-      <c r="G278" s="4" t="s">
-        <v>931</v>
-      </c>
-      <c r="I278" s="4" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="279" spans="3:13">
       <c r="C279" s="4"/>
       <c r="E279" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="F279" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="G279" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="I279" s="4" t="s">
         <v>933</v>
       </c>
-      <c r="F279" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="G279" s="4" t="s">
+      <c r="J279" s="4" t="s">
         <v>934</v>
-      </c>
-      <c r="I279" s="4" t="s">
-        <v>935</v>
-      </c>
-      <c r="J279" s="4" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="280" spans="3:13">
       <c r="C280" s="4"/>
       <c r="E280" s="4" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="I280" s="4" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="281" spans="3:13">
       <c r="C281" s="4"/>
       <c r="E281" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="F281" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="G281" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="I281" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="F281" s="7" t="s">
-        <v>930</v>
-      </c>
-      <c r="G281" s="7" t="s">
+      <c r="J281" s="4" t="s">
         <v>940</v>
-      </c>
-      <c r="I281" s="4" t="s">
-        <v>941</v>
-      </c>
-      <c r="J281" s="4" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="282" spans="3:13">
       <c r="C282" s="4"/>
       <c r="E282" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="F282" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="G282" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="I282" s="4" t="s">
         <v>943</v>
-      </c>
-      <c r="F282" s="4" t="s">
-        <v>871</v>
-      </c>
-      <c r="G282" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="I282" s="4" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="283" spans="3:13">
       <c r="C283" s="4"/>
       <c r="E283" s="4" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="I283" s="4" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="284" spans="3:13">
       <c r="C284" s="4"/>
       <c r="E284" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="F284" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="I284" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="J284" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="F284" s="4" t="s">
-        <v>871</v>
-      </c>
-      <c r="I284" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="J284" s="4" t="s">
-        <v>950</v>
-      </c>
       <c r="L284" s="4" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="M284" s="4" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="285" spans="3:13">
       <c r="C285" s="4"/>
       <c r="E285" s="4" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F285" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I285" s="4" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="286" spans="3:13">
       <c r="C286" s="4"/>
       <c r="E286" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="F286" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="I286" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="J286" s="4" t="s">
         <v>953</v>
-      </c>
-      <c r="F286" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="I286" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="J286" s="4" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="287" spans="3:13">
       <c r="C287" s="4"/>
       <c r="E287" s="4" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F287" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I287" s="4" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="288" spans="3:13">
       <c r="C288" s="4"/>
       <c r="E288" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="F288" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="I288" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="J288" s="4" t="s">
         <v>958</v>
-      </c>
-      <c r="F288" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="I288" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="J288" s="4" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="289" spans="2:17">
       <c r="C289" s="4"/>
       <c r="E289" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="F289" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="G289" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="I289" s="4" t="s">
         <v>961</v>
       </c>
-      <c r="F289" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="G289" s="4" t="s">
+      <c r="J289" s="4" t="s">
         <v>962</v>
-      </c>
-      <c r="I289" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="J289" s="4" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="290" spans="2:17">
       <c r="C290" s="4"/>
       <c r="E290" s="4" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="I290" s="4" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="291" spans="2:17">
       <c r="C291" s="4"/>
       <c r="E291" s="4" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F291" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="I291" s="4" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="292" spans="2:17">
       <c r="C292" s="4"/>
       <c r="E292" s="4" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="I292" s="4" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="293" spans="2:17">
       <c r="C293" s="4"/>
       <c r="E293" s="4" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="I293" s="4" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="294" spans="2:17">
       <c r="C294" s="4"/>
       <c r="E294" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="F294" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="I294" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="K294" s="4" t="s">
         <v>973</v>
-      </c>
-      <c r="F294" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="I294" s="7" t="s">
-        <v>974</v>
-      </c>
-      <c r="K294" s="4" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="295" spans="2:17">
       <c r="C295" s="4"/>
       <c r="E295" s="4" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="I295" s="4" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="296" spans="2:17">
       <c r="C296" s="4"/>
       <c r="E296" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="F296" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="I296" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="J296" s="4" t="s">
         <v>978</v>
-      </c>
-      <c r="F296" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="I296" s="4" t="s">
-        <v>979</v>
-      </c>
-      <c r="J296" s="4" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="297" spans="2:17">
       <c r="C297" s="4"/>
       <c r="E297" s="4" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I297" s="4" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="298" spans="2:17" s="8" customFormat="1">
       <c r="B298" s="10"/>
       <c r="C298" s="8" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E298" s="10"/>
       <c r="I298" s="8" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="J298" s="8" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="K298" s="10"/>
       <c r="L298" s="10"/>
@@ -11540,21 +11534,21 @@
     <row r="299" spans="2:17">
       <c r="C299" s="4"/>
       <c r="E299" s="4" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F299" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G299" s="4" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="I299" s="4" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="J299" s="2"/>
       <c r="K299" s="2"/>
       <c r="L299" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="M299" s="2"/>
       <c r="N299" s="2"/>
@@ -11565,21 +11559,21 @@
     <row r="300" spans="2:17">
       <c r="C300" s="4"/>
       <c r="E300" s="4" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F300" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G300" s="4" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="I300" s="4" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="J300" s="2"/>
       <c r="K300" s="2"/>
       <c r="L300" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="M300" s="2"/>
       <c r="N300" s="2"/>
@@ -11590,130 +11584,130 @@
     <row r="301" spans="2:17" s="8" customFormat="1" ht="32.1">
       <c r="B301" s="10"/>
       <c r="C301" s="10" t="s">
+        <v>991</v>
+      </c>
+      <c r="D301" s="11" t="s">
+        <v>992</v>
+      </c>
+      <c r="I301" s="10" t="s">
         <v>993</v>
-      </c>
-      <c r="D301" s="11" t="s">
-        <v>994</v>
-      </c>
-      <c r="I301" s="10" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="302" spans="2:17">
       <c r="C302" s="4"/>
       <c r="E302" s="4" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F302" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G302" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="I302" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="L302" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="N302" s="20" t="s">
         <v>997</v>
       </c>
-      <c r="I302" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="L302" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="N302" s="20" t="s">
-        <v>999</v>
-      </c>
       <c r="P302" s="4" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="303" spans="2:17">
       <c r="C303" s="4"/>
       <c r="D303" s="1"/>
       <c r="E303" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F303" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G303" s="4" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I303" s="4" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="L303" s="4" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="N303" s="4" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="P303" s="4" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="304" spans="2:17">
       <c r="C304" s="4"/>
       <c r="D304" s="1"/>
       <c r="E304" s="4" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F304" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G304" s="4" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I304" s="4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="L304" s="4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="N304" s="4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="P304" s="4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="305" spans="2:17">
       <c r="C305" s="4"/>
       <c r="D305" s="1"/>
       <c r="E305" s="4" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F305" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G305" s="4" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="I305" s="4" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="L305" s="4" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="N305" s="4" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="P305" s="4" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="306" spans="2:17" s="8" customFormat="1" ht="32.1">
       <c r="B306" s="10"/>
       <c r="C306" s="10" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D306" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I306" s="10" t="s">
         <v>1009</v>
-      </c>
-      <c r="D306" s="11" t="s">
-        <v>1010</v>
-      </c>
-      <c r="I306" s="10" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="307" spans="2:17">
       <c r="C307" s="4"/>
       <c r="E307" s="2" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>23</v>
@@ -11722,14 +11716,14 @@
         <v>23</v>
       </c>
       <c r="I307" s="2" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="308" spans="2:17">
       <c r="C308" s="4"/>
       <c r="D308" s="1"/>
       <c r="E308" s="4" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F308" s="4" t="s">
         <v>23</v>
@@ -11738,25 +11732,25 @@
         <v>23</v>
       </c>
       <c r="I308" s="4" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="309" spans="2:17" s="8" customFormat="1" ht="32.1">
       <c r="B309" s="10"/>
       <c r="C309" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D309" s="11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I309" s="10" t="s">
         <v>1014</v>
-      </c>
-      <c r="D309" s="11" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I309" s="10" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="310" spans="2:17">
       <c r="C310" s="4"/>
       <c r="E310" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>23</v>
@@ -11765,16 +11759,16 @@
         <v>23</v>
       </c>
       <c r="I310" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="J310" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="311" spans="2:17">
       <c r="C311" s="4"/>
       <c r="E311" s="4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F311" s="4" t="s">
         <v>23</v>
@@ -11783,46 +11777,46 @@
         <v>23</v>
       </c>
       <c r="I311" s="4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="J311" s="4" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="312" spans="2:17" s="8" customFormat="1" ht="32.1">
       <c r="B312" s="10" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C312" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D312" s="11" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H312" s="8" t="s">
         <v>1021</v>
       </c>
-      <c r="D312" s="11" t="s">
+      <c r="I312" s="10" t="s">
         <v>1022</v>
-      </c>
-      <c r="H312" s="8" t="s">
-        <v>1023</v>
-      </c>
-      <c r="I312" s="10" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="319" spans="2:17" s="12" customFormat="1">
       <c r="B319" s="13" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C319" s="12" t="s">
         <v>493</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I319" s="6" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="J319" s="13"/>
       <c r="K319" s="13"/>
       <c r="L319" s="5" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="M319" s="13"/>
       <c r="N319" s="13"/>
@@ -11832,18 +11826,18 @@
     </row>
     <row r="320" spans="2:17">
       <c r="E320" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F320" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I320" s="4" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="J320" s="2"/>
       <c r="K320" s="2"/>
       <c r="L320" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M320" s="2"/>
     </row>
@@ -11852,18 +11846,18 @@
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F321" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I321" s="4" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="J321" s="2"/>
       <c r="K321" s="2"/>
       <c r="L321" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="M321" s="2"/>
       <c r="N321" s="2"/>
@@ -11874,18 +11868,18 @@
     <row r="322" spans="2:17">
       <c r="C322" s="4"/>
       <c r="E322" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F322" s="4" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="I322" s="4" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="J322" s="2"/>
       <c r="K322" s="2"/>
       <c r="L322" s="2" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="M322" s="2"/>
       <c r="N322" s="2"/>
@@ -11896,18 +11890,18 @@
     <row r="323" spans="2:17">
       <c r="C323" s="4"/>
       <c r="E323" s="2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F323" s="4" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="I323" s="4" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="J323" s="2"/>
       <c r="K323" s="2"/>
       <c r="L323" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="M323" s="2"/>
       <c r="N323" s="2"/>
@@ -11926,18 +11920,18 @@
     <row r="325" spans="2:17">
       <c r="C325" s="4"/>
       <c r="E325" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F325" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="I325" s="4" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="J325" s="2"/>
       <c r="K325" s="2"/>
       <c r="L325" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="M325" s="2"/>
       <c r="N325" s="2"/>
@@ -11948,18 +11942,18 @@
     <row r="326" spans="2:17">
       <c r="C326" s="4"/>
       <c r="E326" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F326" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="I326" s="4" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J326" s="2"/>
       <c r="K326" s="2"/>
       <c r="L326" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="M326" s="2"/>
       <c r="N326" s="2"/>
@@ -11970,18 +11964,18 @@
     <row r="327" spans="2:17">
       <c r="C327" s="4"/>
       <c r="E327" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F327" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="I327" s="4" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="J327" s="2"/>
       <c r="K327" s="2"/>
       <c r="L327" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="M327" s="2"/>
       <c r="N327" s="2"/>
@@ -11992,18 +11986,18 @@
     <row r="328" spans="2:17">
       <c r="C328" s="4"/>
       <c r="E328" s="4" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="F328" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="I328" s="4" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="J328" s="2"/>
       <c r="K328" s="2"/>
       <c r="L328" s="2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="M328" s="2"/>
       <c r="N328" s="2"/>
@@ -12013,7 +12007,7 @@
     </row>
     <row r="329" spans="2:17" ht="32.1">
       <c r="B329" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C329" s="4"/>
       <c r="E329" s="2" t="s">
@@ -12028,7 +12022,7 @@
       <c r="J329" s="2"/>
       <c r="K329" s="2"/>
       <c r="L329" s="2" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="M329" s="2"/>
       <c r="N329" s="2"/>
@@ -12038,35 +12032,35 @@
     </row>
     <row r="330" spans="2:17" s="6" customFormat="1">
       <c r="B330" s="5" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C330" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D330" s="12" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="I330" s="6" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="331" spans="2:17">
       <c r="C331" s="4"/>
       <c r="E331" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="F331" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I331" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="K331" s="2"/>
       <c r="L331" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="N331" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="O331" s="2"/>
       <c r="P331" s="2"/>
@@ -12075,20 +12069,20 @@
     <row r="332" spans="2:17">
       <c r="C332" s="4"/>
       <c r="E332" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F332" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="K332" s="2"/>
       <c r="L332" s="2" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="N332" s="2" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="O332" s="2"/>
       <c r="P332" s="2"/>
@@ -12097,21 +12091,21 @@
     <row r="333" spans="2:17">
       <c r="C333" s="4"/>
       <c r="E333" s="2" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F333" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="K333" s="2"/>
       <c r="L333" s="2" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="M333" s="2"/>
       <c r="N333" s="2" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="O333" s="2"/>
       <c r="P333" s="2"/>
@@ -12120,10 +12114,10 @@
     <row r="334" spans="2:17" s="6" customFormat="1">
       <c r="B334" s="5"/>
       <c r="D334" s="12" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="I334" s="6" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="J334" s="5"/>
       <c r="K334" s="5"/>
@@ -12137,10 +12131,10 @@
     <row r="335" spans="2:17" s="6" customFormat="1">
       <c r="B335" s="5"/>
       <c r="D335" s="12" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="I335" s="6" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="J335" s="5"/>
       <c r="K335" s="5"/>
@@ -12154,10 +12148,10 @@
     <row r="336" spans="2:17" s="6" customFormat="1">
       <c r="B336" s="5"/>
       <c r="D336" s="13" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="I336" s="14" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="J336" s="5"/>
       <c r="K336" s="5"/>
@@ -12171,10 +12165,10 @@
     <row r="337" spans="1:17" s="6" customFormat="1">
       <c r="B337" s="5"/>
       <c r="D337" s="12" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="I337" s="6" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="J337" s="5"/>
       <c r="K337" s="5"/>
@@ -12188,13 +12182,13 @@
     <row r="338" spans="1:17">
       <c r="C338" s="4"/>
       <c r="E338" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="F338" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="J338" s="2"/>
       <c r="K338" s="2"/>
@@ -12208,13 +12202,13 @@
     <row r="339" spans="1:17">
       <c r="C339" s="4"/>
       <c r="E339" s="4" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F339" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I339" s="4" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="J339" s="2"/>
       <c r="K339" s="2"/>
@@ -12228,10 +12222,10 @@
     <row r="340" spans="1:17" s="6" customFormat="1">
       <c r="B340" s="5"/>
       <c r="D340" s="12" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="I340" s="6" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="J340" s="5"/>
       <c r="K340" s="5"/>
@@ -12245,10 +12239,10 @@
     <row r="341" spans="1:17" s="6" customFormat="1">
       <c r="B341" s="5"/>
       <c r="D341" s="12" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="I341" s="6" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="J341" s="5"/>
       <c r="K341" s="5"/>
@@ -12261,415 +12255,415 @@
     </row>
     <row r="342" spans="1:17" s="6" customFormat="1">
       <c r="A342" s="6" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C342" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D342" s="12" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="I342" s="6" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="343" spans="1:17">
       <c r="C343" s="4"/>
       <c r="E343" s="4" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="H343" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="I343" s="4" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="344" spans="1:17">
       <c r="C344" s="4"/>
       <c r="E344" s="4" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="H344" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="I344" s="4" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="345" spans="1:17">
       <c r="C345" s="4"/>
       <c r="E345" s="4" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H345" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="I345" s="4" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="346" spans="1:17">
       <c r="C346" s="4"/>
       <c r="E346" s="4" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="H346" s="21" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="I346" s="4" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="347" spans="1:17">
       <c r="C347" s="4"/>
       <c r="E347" s="4" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H347" s="21" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="I347" s="4" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="348" spans="1:17">
       <c r="C348" s="4"/>
       <c r="E348" s="4" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="H348" s="21" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="I348" s="21" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="349" spans="1:17">
       <c r="C349" s="4"/>
       <c r="E349" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H349" s="21" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I349" s="21" t="s">
         <v>1094</v>
-      </c>
-      <c r="H349" s="21" t="s">
-        <v>1095</v>
-      </c>
-      <c r="I349" s="21" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="350" spans="1:17">
       <c r="C350" s="4"/>
       <c r="E350" s="4" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="H350" s="21" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="I350" s="21" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="351" spans="1:17">
       <c r="C351" s="4"/>
       <c r="E351" s="4" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="H351" s="21" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I351" s="21" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="352" spans="1:17">
       <c r="C352" s="4"/>
       <c r="E352" s="4" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="H352" s="21" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="I352" s="21" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="353" spans="3:9">
       <c r="C353" s="4"/>
       <c r="E353" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H353" s="21" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I353" s="21" t="s">
         <v>1103</v>
-      </c>
-      <c r="H353" s="21" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I353" s="21" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="354" spans="3:9">
       <c r="C354" s="4"/>
       <c r="E354" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H354" s="21" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I354" s="21" t="s">
         <v>1106</v>
-      </c>
-      <c r="H354" s="21" t="s">
-        <v>1107</v>
-      </c>
-      <c r="I354" s="21" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="355" spans="3:9">
       <c r="C355" s="4"/>
       <c r="E355" s="4" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="H355" s="21" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="I355" s="4" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="356" spans="3:9">
       <c r="C356" s="4"/>
       <c r="E356" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H356" s="21" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I356" s="21" t="s">
         <v>1111</v>
-      </c>
-      <c r="H356" s="21" t="s">
-        <v>1112</v>
-      </c>
-      <c r="I356" s="21" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="357" spans="3:9">
       <c r="C357" s="4"/>
       <c r="E357" s="4" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="H357" s="21" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="I357" s="21" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="358" spans="3:9">
       <c r="C358" s="4"/>
       <c r="E358" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H358" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I358" t="s">
         <v>1116</v>
-      </c>
-      <c r="H358" t="s">
-        <v>1117</v>
-      </c>
-      <c r="I358" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="359" spans="3:9">
       <c r="C359" s="4"/>
       <c r="E359" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H359" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I359" t="s">
         <v>1119</v>
-      </c>
-      <c r="H359" t="s">
-        <v>1120</v>
-      </c>
-      <c r="I359" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="360" spans="3:9">
       <c r="C360" s="4"/>
       <c r="E360" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H360" s="21" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I360" s="21" t="s">
         <v>1122</v>
-      </c>
-      <c r="H360" s="21" t="s">
-        <v>1123</v>
-      </c>
-      <c r="I360" s="21" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="361" spans="3:9">
       <c r="C361" s="4"/>
       <c r="E361" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H361" s="21" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I361" s="21" t="s">
         <v>1125</v>
-      </c>
-      <c r="H361" s="21" t="s">
-        <v>1126</v>
-      </c>
-      <c r="I361" s="21" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="362" spans="3:9">
       <c r="C362" s="4"/>
       <c r="E362" s="4" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H362" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="I362" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="363" spans="3:9">
       <c r="C363" s="4"/>
       <c r="E363" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H363" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I363" t="s">
         <v>1130</v>
-      </c>
-      <c r="H363" t="s">
-        <v>1131</v>
-      </c>
-      <c r="I363" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="364" spans="3:9">
       <c r="C364" s="4"/>
       <c r="E364" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H364" s="21" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="I364" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="365" spans="3:9">
       <c r="C365" s="4"/>
       <c r="E365" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H365" s="21" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I365" s="21" t="s">
         <v>1134</v>
-      </c>
-      <c r="H365" s="21" t="s">
-        <v>1135</v>
-      </c>
-      <c r="I365" s="21" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="366" spans="3:9">
       <c r="C366" s="4"/>
       <c r="E366" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H366" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I366" t="s">
         <v>1137</v>
-      </c>
-      <c r="H366" t="s">
-        <v>1138</v>
-      </c>
-      <c r="I366" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="367" spans="3:9">
       <c r="C367" s="4"/>
       <c r="E367" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H367" s="21" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I367" s="21" t="s">
         <v>1140</v>
-      </c>
-      <c r="H367" s="21" t="s">
-        <v>1141</v>
-      </c>
-      <c r="I367" s="21" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="368" spans="3:9">
       <c r="C368" s="4"/>
       <c r="E368" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H368" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="I368" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="369" spans="3:9">
       <c r="C369" s="4"/>
       <c r="E369" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H369" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I369" t="s">
         <v>1144</v>
-      </c>
-      <c r="H369" t="s">
-        <v>1145</v>
-      </c>
-      <c r="I369" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="370" spans="3:9">
       <c r="C370" s="4"/>
       <c r="E370" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H370" t="s">
+        <v>1146</v>
+      </c>
+      <c r="I370" t="s">
         <v>1147</v>
-      </c>
-      <c r="H370" t="s">
-        <v>1148</v>
-      </c>
-      <c r="I370" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="371" spans="3:9">
       <c r="C371" s="4"/>
       <c r="E371" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H371" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I371" t="s">
         <v>1150</v>
-      </c>
-      <c r="H371" t="s">
-        <v>1151</v>
-      </c>
-      <c r="I371" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="372" spans="3:9">
       <c r="C372" s="4"/>
       <c r="E372" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H372" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I372" t="s">
         <v>1153</v>
-      </c>
-      <c r="H372" t="s">
-        <v>1154</v>
-      </c>
-      <c r="I372" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="373" spans="3:9">
       <c r="C373" s="4"/>
       <c r="E373" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H373" s="21" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I373" s="21" t="s">
         <v>1156</v>
-      </c>
-      <c r="H373" s="21" t="s">
-        <v>1157</v>
-      </c>
-      <c r="I373" s="21" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="374" spans="3:9">
       <c r="C374" s="4"/>
       <c r="E374" s="4" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="H374" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="I374" s="25" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="375" spans="3:9">
       <c r="C375" s="4"/>
       <c r="E375" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H375" t="s">
+        <v>1160</v>
+      </c>
+      <c r="I375" s="25" t="s">
         <v>1161</v>
-      </c>
-      <c r="H375" t="s">
-        <v>1162</v>
-      </c>
-      <c r="I375" s="25" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="376" spans="3:9">
@@ -12678,7 +12672,7 @@
         <v>431</v>
       </c>
       <c r="H376" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="I376" t="s">
         <v>431</v>
@@ -12687,13 +12681,13 @@
     <row r="377" spans="3:9">
       <c r="C377" s="4"/>
       <c r="E377" s="4" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="H377" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="I377" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="378" spans="3:9">
@@ -12702,7 +12696,7 @@
         <v>216</v>
       </c>
       <c r="H378" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="I378" t="s">
         <v>216</v>
@@ -12711,361 +12705,361 @@
     <row r="379" spans="3:9">
       <c r="C379" s="4"/>
       <c r="E379" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H379" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I379" t="s">
         <v>1168</v>
-      </c>
-      <c r="H379" t="s">
-        <v>1169</v>
-      </c>
-      <c r="I379" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="380" spans="3:9">
       <c r="C380" s="4"/>
       <c r="E380" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H380" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I380" t="s">
         <v>1171</v>
-      </c>
-      <c r="H380" t="s">
-        <v>1172</v>
-      </c>
-      <c r="I380" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="381" spans="3:9">
       <c r="C381" s="4"/>
       <c r="E381" s="4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="H381" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="I381" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="382" spans="3:9">
       <c r="C382" s="4"/>
       <c r="E382" s="4" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="H382" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="I382" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="383" spans="3:9">
       <c r="C383" s="4"/>
       <c r="E383" s="4" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="H383" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="I383" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="384" spans="3:9">
       <c r="C384" s="4"/>
       <c r="E384" s="4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="H384" s="21" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="I384" s="21" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="385" spans="3:9">
       <c r="C385" s="4"/>
       <c r="E385" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H385" s="21" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I385" s="21" t="s">
         <v>1182</v>
-      </c>
-      <c r="H385" s="21" t="s">
-        <v>1183</v>
-      </c>
-      <c r="I385" s="21" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="386" spans="3:9">
       <c r="C386" s="4"/>
       <c r="E386" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H386" s="21" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="I386" s="21" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="387" spans="3:9">
       <c r="C387" s="4"/>
       <c r="E387" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H387" s="21" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I387" s="21" t="s">
         <v>1186</v>
-      </c>
-      <c r="H387" s="21" t="s">
-        <v>1187</v>
-      </c>
-      <c r="I387" s="21" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="388" spans="3:9">
       <c r="C388" s="4"/>
       <c r="E388" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H388" s="21" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I388" s="21" t="s">
         <v>1189</v>
-      </c>
-      <c r="H388" s="21" t="s">
-        <v>1190</v>
-      </c>
-      <c r="I388" s="21" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="389" spans="3:9">
       <c r="C389" s="4"/>
       <c r="E389" s="4" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="H389" s="21" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="I389" s="21" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="390" spans="3:9">
       <c r="C390" s="4"/>
       <c r="E390" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H390" s="21" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I390" s="21" t="s">
         <v>1194</v>
-      </c>
-      <c r="H390" s="21" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I390" s="21" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="391" spans="3:9">
       <c r="C391" s="4"/>
       <c r="E391" s="4" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="H391" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I391" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="392" spans="3:9">
       <c r="C392" s="4"/>
       <c r="E392" s="4" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="H392" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="I392" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="393" spans="3:9">
       <c r="C393" s="4"/>
       <c r="E393" s="4" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="H393" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="I393" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="394" spans="3:9">
       <c r="C394" s="4"/>
       <c r="E394" s="4" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="H394" s="21" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="I394" s="21" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="395" spans="3:9">
       <c r="C395" s="4"/>
       <c r="E395" s="4" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="H395" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="I395" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="396" spans="3:9">
       <c r="C396" s="4"/>
       <c r="E396" s="4" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="H396" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="I396" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="397" spans="3:9">
       <c r="C397" s="4"/>
       <c r="E397" s="4" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="H397" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="I397" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="398" spans="3:9">
       <c r="C398" s="4"/>
       <c r="E398" s="4" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="H398" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="I398" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="399" spans="3:9">
       <c r="C399" s="4"/>
       <c r="E399" s="4" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="H399" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="I399" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="400" spans="3:9">
       <c r="C400" s="4"/>
       <c r="E400" s="4" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="H400" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="I400" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="401" spans="1:17">
       <c r="C401" s="4"/>
       <c r="E401" s="4" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="H401" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="I401" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="402" spans="1:17">
       <c r="C402" s="4"/>
       <c r="E402" s="4" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="H402" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="I402" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="403" spans="1:17">
       <c r="C403" s="4"/>
       <c r="E403" s="4" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="H403" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="I403" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="404" spans="1:17">
       <c r="C404" s="4"/>
       <c r="E404" s="4" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="H404" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I404" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="405" spans="1:17">
       <c r="C405" s="4"/>
       <c r="E405" s="4" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="H405" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="I405" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="406" spans="1:17">
       <c r="C406" s="4"/>
       <c r="E406" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H406" t="s">
+        <v>1223</v>
+      </c>
+      <c r="I406" t="s">
         <v>1224</v>
-      </c>
-      <c r="H406" t="s">
-        <v>1225</v>
-      </c>
-      <c r="I406" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="407" spans="1:17">
       <c r="C407" s="4"/>
       <c r="E407" s="4" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="H407" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="I407" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="408" spans="1:17">
       <c r="C408" s="4"/>
       <c r="E408" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H408" t="s">
+        <v>1228</v>
+      </c>
+      <c r="I408" t="s">
         <v>1229</v>
-      </c>
-      <c r="H408" t="s">
-        <v>1230</v>
-      </c>
-      <c r="I408" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="409" spans="1:17" s="8" customFormat="1" ht="32.1">
@@ -13073,22 +13067,22 @@
         <v>104</v>
       </c>
       <c r="B409" s="10" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C409" s="10" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="D409" s="9" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E409" s="10"/>
       <c r="I409" s="10" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="J409" s="10"/>
       <c r="K409" s="10"/>
       <c r="L409" s="10" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="M409" s="10"/>
       <c r="N409" s="10"/>
@@ -13099,426 +13093,426 @@
     <row r="410" spans="1:17">
       <c r="C410" s="4"/>
       <c r="E410" s="4" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="F410" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G410" s="4" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="I410" s="2" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="J410" s="2"/>
       <c r="K410" s="2"/>
       <c r="L410" s="2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="N410" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="O410" s="2"/>
       <c r="P410" s="2" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="Q410" s="2"/>
     </row>
     <row r="411" spans="1:17">
       <c r="C411" s="4"/>
       <c r="E411" s="4" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="F411" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G411" s="4" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I411" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J411" s="2"/>
       <c r="K411" s="2"/>
       <c r="L411" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="M411" s="2"/>
       <c r="N411" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="O411" s="2"/>
       <c r="P411" s="2" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="Q411" s="2"/>
     </row>
     <row r="412" spans="1:17">
       <c r="C412" s="4"/>
       <c r="E412" s="4" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="F412" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G412" s="4" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I412" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="J412" s="2"/>
       <c r="K412" s="2"/>
       <c r="L412" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="M412" s="2"/>
       <c r="N412" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="O412" s="2"/>
       <c r="P412" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="Q412" s="2"/>
     </row>
     <row r="413" spans="1:17">
       <c r="C413" s="4"/>
       <c r="E413" s="4" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="F413" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G413" s="4" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I413" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="J413" s="2"/>
       <c r="K413" s="2"/>
       <c r="L413" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="M413" s="2"/>
       <c r="N413" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="O413" s="2"/>
       <c r="P413" s="2" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q413" s="2"/>
     </row>
     <row r="414" spans="1:17">
       <c r="C414" s="4"/>
       <c r="E414" s="2" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F414" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G414" s="4" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I414" s="2" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="J414" s="2"/>
       <c r="K414" s="2"/>
       <c r="L414" s="2" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="M414" s="2"/>
       <c r="N414" s="2" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="O414" s="2"/>
       <c r="P414" s="2" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="Q414" s="2"/>
     </row>
     <row r="415" spans="1:17">
       <c r="C415" s="4"/>
       <c r="E415" s="2" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="F415" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G415" s="4" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I415" s="2" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="J415" s="2"/>
       <c r="K415" s="2"/>
       <c r="L415" s="2" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="N415" s="2" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="O415" s="2"/>
       <c r="P415" s="2" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="Q415" s="2"/>
     </row>
     <row r="416" spans="1:17">
       <c r="C416" s="4"/>
       <c r="E416" s="2" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="F416" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G416" s="4" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I416" s="2" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="J416" s="2"/>
       <c r="K416" s="2"/>
       <c r="L416" s="2" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="N416" s="2" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="O416" s="2"/>
       <c r="P416" s="2" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="Q416" s="2"/>
     </row>
     <row r="417" spans="3:17">
       <c r="C417" s="4"/>
       <c r="E417" s="2" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F417" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G417" s="4" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="I417" s="2" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="J417" s="2"/>
       <c r="K417" s="2"/>
       <c r="L417" s="2" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="N417" s="2" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="O417" s="2"/>
       <c r="P417" s="2" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="Q417" s="2"/>
     </row>
     <row r="418" spans="3:17">
       <c r="C418" s="4"/>
       <c r="E418" s="2" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F418" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G418" s="4" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I418" s="2" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="J418" s="2"/>
       <c r="K418" s="2"/>
       <c r="L418" s="2" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="N418" s="2" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="O418" s="2"/>
       <c r="P418" s="2" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="Q418" s="2"/>
     </row>
     <row r="419" spans="3:17">
       <c r="C419" s="4"/>
       <c r="E419" s="2" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="F419" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G419" s="4" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="I419" s="2" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="J419" s="2"/>
       <c r="K419" s="2"/>
       <c r="L419" s="2" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="N419" s="2" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="O419" s="2"/>
       <c r="P419" s="2" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="Q419" s="2"/>
     </row>
     <row r="420" spans="3:17">
       <c r="C420" s="4"/>
       <c r="E420" s="2" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="F420" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G420" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I420" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J420" s="2" t="s">
         <v>1296</v>
-      </c>
-      <c r="I420" s="2" t="s">
-        <v>1297</v>
-      </c>
-      <c r="J420" s="2" t="s">
-        <v>1298</v>
       </c>
       <c r="K420" s="2"/>
       <c r="L420" s="2" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="N420" s="2" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="O420" s="2"/>
       <c r="P420" s="2" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="Q420" s="2"/>
     </row>
     <row r="421" spans="3:17">
       <c r="C421" s="4"/>
       <c r="E421" s="2" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="F421" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G421" s="4" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="I421" s="2" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="J421" s="2"/>
       <c r="K421" s="2"/>
       <c r="L421" s="2" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="N421" s="2" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="O421" s="2"/>
       <c r="P421" s="2" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="Q421" s="2"/>
     </row>
     <row r="422" spans="3:17">
       <c r="C422" s="4"/>
       <c r="E422" s="2" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F422" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G422" s="4" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="I422" s="2" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="J422" s="2"/>
       <c r="K422" s="2"/>
       <c r="L422" s="2" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="N422" s="2" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="O422" s="2"/>
       <c r="P422" s="2" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="Q422" s="2"/>
     </row>
     <row r="423" spans="3:17">
       <c r="C423" s="4"/>
       <c r="E423" s="2" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="F423" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G423" s="4" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="I423" s="2" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="J423" s="2"/>
       <c r="K423" s="2"/>
       <c r="L423" s="2" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="N423" s="2" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="O423" s="2"/>
       <c r="P423" s="2" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="Q423" s="2"/>
     </row>
     <row r="424" spans="3:17">
       <c r="C424" s="4"/>
       <c r="E424" s="2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="F424" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G424" s="4" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="I424" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="J424" s="2"/>
       <c r="K424" s="2"/>
       <c r="L424" s="2" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="N424" s="2" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="O424" s="2"/>
       <c r="P424" s="2" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="Q424" s="2"/>
     </row>
@@ -13527,4 +13521,163 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EDAEA73E7205FC4A964C1A30B9C84255" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="47f94273412d6c21c41e0711699cd6e9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e27e9589-21fc-4398-8725-82e2ac65f498" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="829cfb4b5e9357877c7ce7c5b5b53c18" ns2:_="">
+    <xsd:import namespace="e27e9589-21fc-4398-8725-82e2ac65f498"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e27e9589-21fc-4398-8725-82e2ac65f498" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3DD667B-E914-4FCD-BDEE-77B7D246D1FC}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BDF660C-5F9A-4432-A719-4ADF968A3974}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9C5BDE-6348-4021-AC1D-75AECA916505}"/>
 </file>
--- a/source/ControlledTerms.xlsx
+++ b/source/ControlledTerms.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20703"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tanzarchiv-my.sharepoint.com/personal/birk_weiberg_sapa_swiss/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birk/Documents/Jobs/SAPA/Development/spa-vocabulary/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F57ADE64-F280-4B6F-94F6-592690CF7501}" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1D2B42-8D44-9A45-8B0E-FFE6CE3896A0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="35" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5400" yWindow="7480" windowWidth="33000" windowHeight="15660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="skos" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -4276,7 +4276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4657,24 +4657,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="17" xr:uid="{B72E1086-3A3B-8942-9D32-647341BC36C4}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4954,30 +4954,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F171" sqref="F171"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="F179" sqref="F179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="4"/>
-    <col min="2" max="2" width="21.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="21.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="22" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="24.625" style="4" customWidth="1"/>
-    <col min="9" max="11" width="20.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" style="4" customWidth="1"/>
+    <col min="9" max="11" width="20.83203125" style="4" customWidth="1"/>
     <col min="12" max="12" width="25" style="4" customWidth="1"/>
-    <col min="13" max="18" width="20.875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="23.875" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="10.875" style="4"/>
+    <col min="13" max="18" width="20.83203125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="23.83203125" style="4" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="6" customFormat="1">
+    <row r="2" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -5055,7 +5055,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C3" s="4"/>
       <c r="E3" s="4" t="s">
         <v>22</v>
@@ -5077,7 +5077,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C4" s="4"/>
       <c r="E4" s="4" t="s">
         <v>25</v>
@@ -5099,7 +5099,7 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="E5" s="4" t="s">
         <v>28</v>
@@ -5121,7 +5121,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C6" s="4"/>
       <c r="E6" s="4" t="s">
         <v>30</v>
@@ -5143,7 +5143,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="4"/>
       <c r="E7" s="4" t="s">
         <v>32</v>
@@ -5165,7 +5165,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" s="6" customFormat="1">
+    <row r="8" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
@@ -5187,7 +5187,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>37</v>
@@ -5209,7 +5209,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>39</v>
@@ -5231,7 +5231,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="4"/>
       <c r="E11" s="4" t="s">
         <v>42</v>
@@ -5253,7 +5253,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>32</v>
@@ -5275,7 +5275,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" s="8" customFormat="1">
+    <row r="13" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
         <v>45</v>
       </c>
@@ -5299,7 +5299,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>50</v>
@@ -5321,7 +5321,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>52</v>
@@ -5343,7 +5343,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>54</v>
@@ -5365,7 +5365,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C17" s="4"/>
       <c r="E17" s="4" t="s">
         <v>57</v>
@@ -5387,7 +5387,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" s="8" customFormat="1">
+    <row r="18" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -5409,7 +5409,7 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C19" s="4"/>
       <c r="E19" s="4" t="s">
         <v>61</v>
@@ -5434,7 +5434,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C20" s="4"/>
       <c r="E20" s="4" t="s">
         <v>64</v>
@@ -5459,7 +5459,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>67</v>
@@ -5481,7 +5481,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17" s="6" customFormat="1">
+    <row r="22" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>69</v>
       </c>
@@ -5504,7 +5504,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C23" s="4"/>
       <c r="E23" s="2" t="s">
         <v>71</v>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C24" s="4"/>
       <c r="E24" s="2" t="s">
         <v>77</v>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="D25" s="15"/>
       <c r="E25" s="16" t="s">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="Q25" s="16"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="D26" s="15"/>
       <c r="E26" s="16" t="s">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="Q26" s="16"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="4"/>
       <c r="E27" s="16" t="s">
@@ -5662,7 +5662,7 @@
       </c>
       <c r="Q27" s="16"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="4"/>
       <c r="D28" s="15"/>
@@ -5684,7 +5684,7 @@
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B29" s="16"/>
       <c r="C29" s="4"/>
       <c r="D29" s="15"/>
@@ -5708,7 +5708,7 @@
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
     </row>
-    <row r="30" spans="1:17" s="6" customFormat="1">
+    <row r="30" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>104</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C31" s="4"/>
       <c r="E31" s="2" t="s">
         <v>111</v>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="Q31" s="2"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C32" s="4"/>
       <c r="E32" s="2" t="s">
         <v>115</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C33" s="4"/>
       <c r="E33" s="2" t="s">
         <v>120</v>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="Q33" s="2"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C34" s="4"/>
       <c r="E34" s="2" t="s">
         <v>126</v>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C35" s="4"/>
       <c r="E35" s="2" t="s">
         <v>132</v>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="Q35" s="2"/>
     </row>
-    <row r="36" spans="1:17" s="6" customFormat="1" ht="32.1">
+    <row r="36" spans="1:17" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>17</v>
       </c>
@@ -5911,7 +5911,7 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C37" s="4"/>
       <c r="E37" s="4" t="s">
         <v>143</v>
@@ -5935,7 +5935,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C38" s="4"/>
       <c r="E38" s="4" t="s">
         <v>145</v>
@@ -5959,7 +5959,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C39" s="4"/>
       <c r="E39" s="4" t="s">
         <v>148</v>
@@ -5985,7 +5985,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C40" s="4"/>
       <c r="E40" s="4" t="s">
         <v>151</v>
@@ -6011,7 +6011,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C41" s="4"/>
       <c r="E41" s="4" t="s">
         <v>155</v>
@@ -6035,7 +6035,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C42" s="4"/>
       <c r="E42" s="4" t="s">
         <v>158</v>
@@ -6059,7 +6059,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C43" s="4"/>
       <c r="E43" s="4" t="s">
         <v>161</v>
@@ -6083,7 +6083,7 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C44" s="4"/>
       <c r="E44" s="4" t="s">
         <v>164</v>
@@ -6107,7 +6107,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C45" s="4"/>
       <c r="E45" s="4" t="s">
         <v>167</v>
@@ -6131,7 +6131,7 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C46" s="4"/>
       <c r="E46" s="4" t="s">
         <v>170</v>
@@ -6155,7 +6155,7 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C47" s="4"/>
       <c r="E47" s="4" t="s">
         <v>173</v>
@@ -6179,7 +6179,7 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C48" s="4"/>
       <c r="E48" s="4" t="s">
         <v>176</v>
@@ -6203,7 +6203,7 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" s="6" customFormat="1" ht="32.1">
+    <row r="49" spans="1:17" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>104</v>
       </c>
@@ -6232,7 +6232,7 @@
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C50" s="4"/>
       <c r="E50" s="2" t="s">
         <v>182</v>
@@ -6265,7 +6265,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C51" s="4"/>
       <c r="E51" s="2" t="s">
         <v>190</v>
@@ -6287,7 +6287,7 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" ht="32.1">
+    <row r="52" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="C52" s="4"/>
       <c r="E52" s="2" t="s">
         <v>193</v>
@@ -6311,7 +6311,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C53" s="4"/>
       <c r="E53" s="4" t="s">
         <v>196</v>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C54" s="4"/>
       <c r="E54" s="2" t="s">
         <v>202</v>
@@ -6372,7 +6372,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C55" s="4"/>
       <c r="E55" s="2" t="s">
         <v>207</v>
@@ -6398,7 +6398,7 @@
       </c>
       <c r="Q55" s="2"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C56" s="4"/>
       <c r="E56" s="2" t="s">
         <v>210</v>
@@ -6424,7 +6424,7 @@
       </c>
       <c r="Q56" s="2"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C57" s="4"/>
       <c r="E57" s="2" t="s">
         <v>213</v>
@@ -6448,7 +6448,7 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C58" s="4"/>
       <c r="E58" s="2" t="s">
         <v>216</v>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="Q58" s="2"/>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C59" s="4"/>
       <c r="E59" s="2" t="s">
         <v>220</v>
@@ -6498,7 +6498,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C60" s="4"/>
       <c r="E60" s="2" t="s">
         <v>226</v>
@@ -6519,7 +6519,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C61" s="4"/>
       <c r="E61" s="2" t="s">
         <v>229</v>
@@ -6544,7 +6544,7 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C62" s="4"/>
       <c r="E62" s="2" t="s">
         <v>234</v>
@@ -6564,7 +6564,7 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C63" s="4"/>
       <c r="E63" s="2" t="s">
         <v>236</v>
@@ -6584,7 +6584,7 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C64" s="4"/>
       <c r="E64" s="2" t="s">
         <v>238</v>
@@ -6607,7 +6607,7 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
     </row>
-    <row r="65" spans="3:17">
+    <row r="65" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C65" s="4"/>
       <c r="E65" s="2" t="s">
         <v>242</v>
@@ -6630,7 +6630,7 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
     </row>
-    <row r="66" spans="3:17">
+    <row r="66" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C66" s="4"/>
       <c r="E66" s="2" t="s">
         <v>245</v>
@@ -6653,7 +6653,7 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
     </row>
-    <row r="67" spans="3:17">
+    <row r="67" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C67" s="4"/>
       <c r="E67" s="2" t="s">
         <v>248</v>
@@ -6674,7 +6674,7 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
     </row>
-    <row r="68" spans="3:17">
+    <row r="68" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C68" s="4"/>
       <c r="E68" s="2" t="s">
         <v>251</v>
@@ -6697,7 +6697,7 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
     </row>
-    <row r="69" spans="3:17">
+    <row r="69" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C69" s="4"/>
       <c r="E69" s="2" t="s">
         <v>253</v>
@@ -6720,7 +6720,7 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
     </row>
-    <row r="70" spans="3:17">
+    <row r="70" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C70" s="4"/>
       <c r="E70" s="2" t="s">
         <v>257</v>
@@ -6741,7 +6741,7 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
     </row>
-    <row r="71" spans="3:17">
+    <row r="71" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C71" s="4"/>
       <c r="E71" s="2" t="s">
         <v>260</v>
@@ -6762,7 +6762,7 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
     </row>
-    <row r="72" spans="3:17">
+    <row r="72" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C72" s="4"/>
       <c r="E72" s="2" t="s">
         <v>263</v>
@@ -6783,7 +6783,7 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
     </row>
-    <row r="73" spans="3:17">
+    <row r="73" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C73" s="4"/>
       <c r="E73" s="2" t="s">
         <v>265</v>
@@ -6806,7 +6806,7 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
     </row>
-    <row r="74" spans="3:17">
+    <row r="74" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C74" s="4"/>
       <c r="E74" s="2" t="s">
         <v>269</v>
@@ -6827,7 +6827,7 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
     </row>
-    <row r="75" spans="3:17">
+    <row r="75" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C75" s="4"/>
       <c r="E75" s="2" t="s">
         <v>271</v>
@@ -6848,7 +6848,7 @@
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
     </row>
-    <row r="76" spans="3:17">
+    <row r="76" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C76" s="4"/>
       <c r="E76" s="2" t="s">
         <v>273</v>
@@ -6869,7 +6869,7 @@
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
     </row>
-    <row r="77" spans="3:17">
+    <row r="77" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C77" s="4"/>
       <c r="E77" s="2" t="s">
         <v>276</v>
@@ -6892,7 +6892,7 @@
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
     </row>
-    <row r="78" spans="3:17">
+    <row r="78" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C78" s="4"/>
       <c r="E78" s="2" t="s">
         <v>280</v>
@@ -6915,7 +6915,7 @@
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
     </row>
-    <row r="79" spans="3:17">
+    <row r="79" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C79" s="4"/>
       <c r="E79" s="2" t="s">
         <v>283</v>
@@ -6936,7 +6936,7 @@
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
     </row>
-    <row r="80" spans="3:17">
+    <row r="80" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C80" s="4"/>
       <c r="E80" s="2" t="s">
         <v>285</v>
@@ -6959,7 +6959,7 @@
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
     </row>
-    <row r="81" spans="3:17">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="4"/>
       <c r="E81" s="2" t="s">
         <v>289</v>
@@ -6982,7 +6982,7 @@
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
     </row>
-    <row r="82" spans="3:17">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="4"/>
       <c r="E82" s="2" t="s">
         <v>293</v>
@@ -7003,7 +7003,7 @@
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
     </row>
-    <row r="83" spans="3:17">
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="4"/>
       <c r="E83" s="2" t="s">
         <v>296</v>
@@ -7024,7 +7024,7 @@
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
     </row>
-    <row r="84" spans="3:17">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="4"/>
       <c r="E84" s="2" t="s">
         <v>298</v>
@@ -7047,7 +7047,7 @@
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
     </row>
-    <row r="85" spans="3:17">
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="4"/>
       <c r="E85" s="2" t="s">
         <v>301</v>
@@ -7070,7 +7070,7 @@
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
     </row>
-    <row r="86" spans="3:17" ht="32.1">
+    <row r="86" spans="3:17" ht="32" x14ac:dyDescent="0.2">
       <c r="C86" s="4"/>
       <c r="E86" s="2" t="s">
         <v>305</v>
@@ -7093,7 +7093,7 @@
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
     </row>
-    <row r="87" spans="3:17">
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="4"/>
       <c r="E87" s="2" t="s">
         <v>309</v>
@@ -7116,7 +7116,7 @@
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
     </row>
-    <row r="88" spans="3:17">
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="4"/>
       <c r="E88" s="2" t="s">
         <v>313</v>
@@ -7137,7 +7137,7 @@
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
     </row>
-    <row r="89" spans="3:17">
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="4"/>
       <c r="E89" s="2" t="s">
         <v>316</v>
@@ -7160,7 +7160,7 @@
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
     </row>
-    <row r="90" spans="3:17">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="4"/>
       <c r="E90" s="2" t="s">
         <v>318</v>
@@ -7181,7 +7181,7 @@
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
     </row>
-    <row r="91" spans="3:17">
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="4"/>
       <c r="E91" s="2" t="s">
         <v>321</v>
@@ -7204,7 +7204,7 @@
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
     </row>
-    <row r="92" spans="3:17">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="4"/>
       <c r="E92" s="2" t="s">
         <v>324</v>
@@ -7225,7 +7225,7 @@
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
     </row>
-    <row r="93" spans="3:17">
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="4"/>
       <c r="E93" s="2" t="s">
         <v>327</v>
@@ -7248,7 +7248,7 @@
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
     </row>
-    <row r="94" spans="3:17">
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="4"/>
       <c r="E94" s="2" t="s">
         <v>330</v>
@@ -7271,7 +7271,7 @@
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="3:17" ht="32.1">
+    <row r="95" spans="3:17" ht="32" x14ac:dyDescent="0.2">
       <c r="C95" s="4"/>
       <c r="E95" s="2" t="s">
         <v>334</v>
@@ -7294,7 +7294,7 @@
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="3:17">
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="4"/>
       <c r="E96" s="2" t="s">
         <v>338</v>
@@ -7317,7 +7317,7 @@
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
     </row>
-    <row r="97" spans="3:17">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="4"/>
       <c r="E97" s="2" t="s">
         <v>342</v>
@@ -7338,7 +7338,7 @@
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
     </row>
-    <row r="98" spans="3:17">
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="4"/>
       <c r="E98" s="2" t="s">
         <v>345</v>
@@ -7359,7 +7359,7 @@
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
     </row>
-    <row r="99" spans="3:17">
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="4"/>
       <c r="E99" s="2" t="s">
         <v>348</v>
@@ -7380,7 +7380,7 @@
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
     </row>
-    <row r="100" spans="3:17">
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="4"/>
       <c r="E100" s="2" t="s">
         <v>351</v>
@@ -7403,7 +7403,7 @@
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
     </row>
-    <row r="101" spans="3:17">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="4"/>
       <c r="E101" s="2" t="s">
         <v>355</v>
@@ -7426,7 +7426,7 @@
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
     </row>
-    <row r="102" spans="3:17">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="4"/>
       <c r="E102" s="2" t="s">
         <v>358</v>
@@ -7447,7 +7447,7 @@
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
     </row>
-    <row r="103" spans="3:17">
+    <row r="103" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C103" s="4"/>
       <c r="E103" s="2" t="s">
         <v>360</v>
@@ -7468,7 +7468,7 @@
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
     </row>
-    <row r="104" spans="3:17">
+    <row r="104" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C104" s="4"/>
       <c r="E104" s="2" t="s">
         <v>363</v>
@@ -7491,7 +7491,7 @@
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
     </row>
-    <row r="105" spans="3:17">
+    <row r="105" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C105" s="4"/>
       <c r="E105" s="2" t="s">
         <v>367</v>
@@ -7514,7 +7514,7 @@
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
     </row>
-    <row r="106" spans="3:17">
+    <row r="106" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C106" s="4"/>
       <c r="E106" s="2" t="s">
         <v>371</v>
@@ -7535,7 +7535,7 @@
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
     </row>
-    <row r="107" spans="3:17">
+    <row r="107" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C107" s="4"/>
       <c r="E107" s="2" t="s">
         <v>374</v>
@@ -7556,7 +7556,7 @@
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
     </row>
-    <row r="108" spans="3:17">
+    <row r="108" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C108" s="4"/>
       <c r="E108" s="2" t="s">
         <v>376</v>
@@ -7577,7 +7577,7 @@
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
     </row>
-    <row r="109" spans="3:17">
+    <row r="109" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C109" s="4"/>
       <c r="E109" s="2" t="s">
         <v>379</v>
@@ -7598,7 +7598,7 @@
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
     </row>
-    <row r="110" spans="3:17">
+    <row r="110" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C110" s="4"/>
       <c r="E110" s="2" t="s">
         <v>382</v>
@@ -7621,7 +7621,7 @@
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
     </row>
-    <row r="111" spans="3:17">
+    <row r="111" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C111" s="4"/>
       <c r="E111" s="2" t="s">
         <v>67</v>
@@ -7636,7 +7636,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="112" spans="3:17" ht="32.1">
+    <row r="112" spans="3:17" ht="32" x14ac:dyDescent="0.2">
       <c r="C112" s="4"/>
       <c r="E112" s="2" t="s">
         <v>387</v>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="Q112" s="2"/>
     </row>
-    <row r="113" spans="3:17">
+    <row r="113" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C113" s="4"/>
       <c r="E113" s="2" t="s">
         <v>391</v>
@@ -7684,7 +7684,7 @@
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
     </row>
-    <row r="114" spans="3:17">
+    <row r="114" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C114" s="4"/>
       <c r="E114" s="2" t="s">
         <v>393</v>
@@ -7706,7 +7706,7 @@
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
     </row>
-    <row r="115" spans="3:17">
+    <row r="115" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C115" s="4"/>
       <c r="E115" s="2" t="s">
         <v>395</v>
@@ -7732,7 +7732,7 @@
       </c>
       <c r="Q115" s="2"/>
     </row>
-    <row r="116" spans="3:17">
+    <row r="116" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C116" s="4"/>
       <c r="E116" s="2" t="s">
         <v>396</v>
@@ -7754,7 +7754,7 @@
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
     </row>
-    <row r="117" spans="3:17" ht="32.1">
+    <row r="117" spans="3:17" ht="32" x14ac:dyDescent="0.2">
       <c r="C117" s="4"/>
       <c r="E117" s="2" t="s">
         <v>398</v>
@@ -7783,7 +7783,7 @@
       </c>
       <c r="Q117" s="2"/>
     </row>
-    <row r="118" spans="3:17" ht="32.1">
+    <row r="118" spans="3:17" ht="32" x14ac:dyDescent="0.2">
       <c r="C118" s="4"/>
       <c r="E118" s="2" t="s">
         <v>404</v>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="Q118" s="2"/>
     </row>
-    <row r="119" spans="3:17">
+    <row r="119" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C119" s="4"/>
       <c r="E119" s="2" t="s">
         <v>408</v>
@@ -7831,7 +7831,7 @@
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
     </row>
-    <row r="120" spans="3:17">
+    <row r="120" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C120" s="4"/>
       <c r="E120" s="2" t="s">
         <v>411</v>
@@ -7859,7 +7859,7 @@
       </c>
       <c r="Q120" s="2"/>
     </row>
-    <row r="121" spans="3:17">
+    <row r="121" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C121" s="4"/>
       <c r="E121" s="2" t="s">
         <v>417</v>
@@ -7881,7 +7881,7 @@
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
     </row>
-    <row r="122" spans="3:17">
+    <row r="122" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C122" s="4"/>
       <c r="E122" s="16" t="s">
         <v>419</v>
@@ -7903,7 +7903,7 @@
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
     </row>
-    <row r="123" spans="3:17">
+    <row r="123" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C123" s="4"/>
       <c r="E123" s="16" t="s">
         <v>421</v>
@@ -7923,7 +7923,7 @@
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
     </row>
-    <row r="124" spans="3:17">
+    <row r="124" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C124" s="4"/>
       <c r="E124" s="16" t="s">
         <v>422</v>
@@ -7943,7 +7943,7 @@
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
     </row>
-    <row r="125" spans="3:17">
+    <row r="125" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C125" s="4"/>
       <c r="E125" s="16" t="s">
         <v>423</v>
@@ -7963,7 +7963,7 @@
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
     </row>
-    <row r="126" spans="3:17">
+    <row r="126" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C126" s="4"/>
       <c r="E126" s="16" t="s">
         <v>424</v>
@@ -7983,7 +7983,7 @@
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
     </row>
-    <row r="127" spans="3:17" ht="32.1">
+    <row r="127" spans="3:17" ht="32" x14ac:dyDescent="0.2">
       <c r="C127" s="4"/>
       <c r="E127" s="2" t="s">
         <v>426</v>
@@ -8007,7 +8007,7 @@
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
     </row>
-    <row r="128" spans="3:17">
+    <row r="128" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C128" s="4"/>
       <c r="E128" s="2" t="s">
         <v>429</v>
@@ -8029,7 +8029,7 @@
       <c r="P128" s="2"/>
       <c r="Q128" s="2"/>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C129" s="4"/>
       <c r="E129" s="16" t="s">
         <v>431</v>
@@ -8056,7 +8056,7 @@
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C130" s="4"/>
       <c r="E130" s="2" t="s">
         <v>435</v>
@@ -8071,7 +8071,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="131" spans="1:17" s="6" customFormat="1">
+    <row r="131" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B131" s="5" t="s">
         <v>437</v>
       </c>
@@ -8097,7 +8097,7 @@
       <c r="P131" s="5"/>
       <c r="Q131" s="5"/>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C132" s="4"/>
       <c r="D132" s="16"/>
       <c r="E132" s="16" t="s">
@@ -8122,7 +8122,7 @@
       <c r="P132" s="2"/>
       <c r="Q132" s="2"/>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C133" s="4"/>
       <c r="D133" s="16"/>
       <c r="E133" s="16" t="s">
@@ -8147,7 +8147,7 @@
       <c r="P133" s="2"/>
       <c r="Q133" s="2"/>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C135" s="4"/>
       <c r="D135" s="16"/>
       <c r="E135" s="16" t="s">
@@ -8172,7 +8172,7 @@
       <c r="P135" s="2"/>
       <c r="Q135" s="2"/>
     </row>
-    <row r="136" spans="1:17" ht="32.1">
+    <row r="136" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="C136" s="4"/>
       <c r="D136" s="16"/>
       <c r="E136" s="16" t="s">
@@ -8197,7 +8197,7 @@
       <c r="P136" s="2"/>
       <c r="Q136" s="2"/>
     </row>
-    <row r="137" spans="1:17" ht="32.1">
+    <row r="137" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="C137" s="4"/>
       <c r="D137" s="16"/>
       <c r="E137" s="16" t="s">
@@ -8222,7 +8222,7 @@
       <c r="P137" s="2"/>
       <c r="Q137" s="2"/>
     </row>
-    <row r="138" spans="1:17" ht="32.1">
+    <row r="138" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="C138" s="4"/>
       <c r="D138" s="16"/>
       <c r="E138" s="16" t="s">
@@ -8247,7 +8247,7 @@
       <c r="P138" s="2"/>
       <c r="Q138" s="2"/>
     </row>
-    <row r="139" spans="1:17" ht="32.1">
+    <row r="139" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="C139" s="4"/>
       <c r="D139" s="16"/>
       <c r="E139" s="16" t="s">
@@ -8270,7 +8270,7 @@
       <c r="P139" s="2"/>
       <c r="Q139" s="2"/>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C140" s="4"/>
       <c r="D140" s="16"/>
       <c r="E140" s="14" t="s">
@@ -8293,7 +8293,7 @@
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C141" s="4"/>
       <c r="D141" s="16"/>
       <c r="E141" s="16" t="s">
@@ -8318,7 +8318,7 @@
       <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C142" s="4"/>
       <c r="D142" s="16"/>
       <c r="E142" s="16" t="s">
@@ -8343,7 +8343,7 @@
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C143" s="4"/>
       <c r="D143" s="16"/>
       <c r="E143" s="16" t="s">
@@ -8366,7 +8366,7 @@
       <c r="P143" s="2"/>
       <c r="Q143" s="2"/>
     </row>
-    <row r="144" spans="1:17" s="6" customFormat="1" ht="32.1">
+    <row r="144" spans="1:17" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>482</v>
       </c>
@@ -8392,7 +8392,7 @@
       <c r="P144" s="5"/>
       <c r="Q144" s="5"/>
     </row>
-    <row r="145" spans="2:17">
+    <row r="145" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C145" s="4"/>
       <c r="E145" s="2" t="s">
         <v>486</v>
@@ -8414,7 +8414,7 @@
       <c r="P145" s="2"/>
       <c r="Q145" s="2"/>
     </row>
-    <row r="146" spans="2:17">
+    <row r="146" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C146" s="4"/>
       <c r="E146" s="2" t="s">
         <v>488</v>
@@ -8436,7 +8436,7 @@
       <c r="P146" s="2"/>
       <c r="Q146" s="2"/>
     </row>
-    <row r="147" spans="2:17">
+    <row r="147" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C147" s="4"/>
       <c r="E147" s="4" t="s">
         <v>490</v>
@@ -8458,7 +8458,7 @@
       <c r="P147" s="2"/>
       <c r="Q147" s="2"/>
     </row>
-    <row r="148" spans="2:17" s="6" customFormat="1" ht="32.1">
+    <row r="148" spans="2:17" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B148" s="5" t="s">
         <v>492</v>
       </c>
@@ -8482,7 +8482,7 @@
       <c r="P148" s="5"/>
       <c r="Q148" s="5"/>
     </row>
-    <row r="149" spans="2:17">
+    <row r="149" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C149" s="4"/>
       <c r="E149" s="26" t="s">
         <v>497</v>
@@ -8510,7 +8510,7 @@
       <c r="P149" s="27"/>
       <c r="Q149" s="27"/>
     </row>
-    <row r="150" spans="2:17">
+    <row r="150" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C150" s="4"/>
       <c r="E150" s="26" t="s">
         <v>502</v>
@@ -8538,7 +8538,7 @@
       <c r="P150" s="27"/>
       <c r="Q150" s="27"/>
     </row>
-    <row r="151" spans="2:17">
+    <row r="151" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C151" s="4"/>
       <c r="E151" s="26" t="s">
         <v>507</v>
@@ -8564,7 +8564,7 @@
       <c r="P151" s="27"/>
       <c r="Q151" s="27"/>
     </row>
-    <row r="152" spans="2:17">
+    <row r="152" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C152" s="4"/>
       <c r="E152" s="26" t="s">
         <v>511</v>
@@ -8592,7 +8592,7 @@
       <c r="P152" s="27"/>
       <c r="Q152" s="27"/>
     </row>
-    <row r="153" spans="2:17">
+    <row r="153" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C153" s="4"/>
       <c r="E153" s="26" t="s">
         <v>515</v>
@@ -8620,7 +8620,7 @@
       <c r="P153" s="27"/>
       <c r="Q153" s="27"/>
     </row>
-    <row r="154" spans="2:17">
+    <row r="154" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C154" s="4"/>
       <c r="E154" s="26" t="s">
         <v>518</v>
@@ -8648,7 +8648,7 @@
       <c r="P154" s="27"/>
       <c r="Q154" s="27"/>
     </row>
-    <row r="155" spans="2:17">
+    <row r="155" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C155" s="4"/>
       <c r="E155" s="26" t="s">
         <v>522</v>
@@ -8676,7 +8676,7 @@
       <c r="P155" s="27"/>
       <c r="Q155" s="27"/>
     </row>
-    <row r="156" spans="2:17">
+    <row r="156" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C156" s="4"/>
       <c r="E156" s="26" t="s">
         <v>526</v>
@@ -8704,7 +8704,7 @@
       <c r="P156" s="27"/>
       <c r="Q156" s="27"/>
     </row>
-    <row r="157" spans="2:17">
+    <row r="157" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C157" s="4"/>
       <c r="E157" s="26" t="s">
         <v>530</v>
@@ -8730,7 +8730,7 @@
       <c r="P157" s="27"/>
       <c r="Q157" s="27"/>
     </row>
-    <row r="158" spans="2:17" ht="15.75">
+    <row r="158" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C158" s="4"/>
       <c r="E158" s="30" t="s">
         <v>534</v>
@@ -8758,7 +8758,7 @@
       <c r="P158" s="30"/>
       <c r="Q158" s="30"/>
     </row>
-    <row r="159" spans="2:17" ht="15.75">
+    <row r="159" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C159" s="4"/>
       <c r="E159" s="30" t="s">
         <v>538</v>
@@ -8782,7 +8782,7 @@
       <c r="P159" s="30"/>
       <c r="Q159" s="30"/>
     </row>
-    <row r="160" spans="2:17" ht="15.75">
+    <row r="160" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C160" s="4"/>
       <c r="E160" s="30" t="s">
         <v>541</v>
@@ -8806,7 +8806,7 @@
       <c r="P160" s="30"/>
       <c r="Q160" s="30"/>
     </row>
-    <row r="161" spans="3:17" ht="15.75">
+    <row r="161" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C161" s="4"/>
       <c r="E161" s="30" t="s">
         <v>544</v>
@@ -8830,7 +8830,7 @@
       <c r="P161" s="30"/>
       <c r="Q161" s="30"/>
     </row>
-    <row r="162" spans="3:17" ht="15.75">
+    <row r="162" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C162" s="4"/>
       <c r="E162" s="30" t="s">
         <v>547</v>
@@ -8854,7 +8854,7 @@
       <c r="P162" s="30"/>
       <c r="Q162" s="30"/>
     </row>
-    <row r="163" spans="3:17" ht="15.75">
+    <row r="163" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C163" s="4"/>
       <c r="E163" s="31" t="s">
         <v>550</v>
@@ -8878,7 +8878,7 @@
       <c r="P163" s="30"/>
       <c r="Q163" s="30"/>
     </row>
-    <row r="164" spans="3:17" ht="15.75">
+    <row r="164" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C164" s="4"/>
       <c r="E164" s="31" t="s">
         <v>553</v>
@@ -8906,7 +8906,7 @@
       <c r="P164" s="30"/>
       <c r="Q164" s="30"/>
     </row>
-    <row r="165" spans="3:17" ht="15.75">
+    <row r="165" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C165" s="4"/>
       <c r="E165" s="30" t="s">
         <v>558</v>
@@ -8930,7 +8930,7 @@
       <c r="P165" s="30"/>
       <c r="Q165" s="30"/>
     </row>
-    <row r="166" spans="3:17" ht="15.75">
+    <row r="166" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C166" s="4"/>
       <c r="E166" s="30" t="s">
         <v>561</v>
@@ -8954,7 +8954,7 @@
       <c r="P166" s="30"/>
       <c r="Q166" s="30"/>
     </row>
-    <row r="167" spans="3:17" ht="15.75">
+    <row r="167" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C167" s="4"/>
       <c r="E167" s="31" t="s">
         <v>564</v>
@@ -8978,7 +8978,7 @@
       <c r="P167" s="30"/>
       <c r="Q167" s="30"/>
     </row>
-    <row r="168" spans="3:17" ht="15.75">
+    <row r="168" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C168" s="4"/>
       <c r="E168" s="30" t="s">
         <v>567</v>
@@ -9002,7 +9002,7 @@
       <c r="P168" s="30"/>
       <c r="Q168" s="30"/>
     </row>
-    <row r="169" spans="3:17" ht="15.75">
+    <row r="169" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C169" s="4"/>
       <c r="E169" s="30" t="s">
         <v>570</v>
@@ -9026,7 +9026,7 @@
       <c r="P169" s="30"/>
       <c r="Q169" s="30"/>
     </row>
-    <row r="170" spans="3:17" ht="15.75">
+    <row r="170" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C170" s="4"/>
       <c r="E170" s="30" t="s">
         <v>573</v>
@@ -9050,7 +9050,7 @@
       <c r="P170" s="30"/>
       <c r="Q170" s="30"/>
     </row>
-    <row r="171" spans="3:17" ht="15.75">
+    <row r="171" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C171" s="4"/>
       <c r="E171" s="30" t="s">
         <v>576</v>
@@ -9074,7 +9074,7 @@
       <c r="P171" s="30"/>
       <c r="Q171" s="30"/>
     </row>
-    <row r="172" spans="3:17">
+    <row r="172" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C172" s="4"/>
       <c r="E172" s="33" t="s">
         <v>579</v>
@@ -9102,7 +9102,7 @@
       <c r="P172" s="34"/>
       <c r="Q172" s="34"/>
     </row>
-    <row r="173" spans="3:17">
+    <row r="173" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C173" s="4"/>
       <c r="E173" s="35" t="s">
         <v>583</v>
@@ -9128,7 +9128,7 @@
       <c r="P173" s="34"/>
       <c r="Q173" s="34"/>
     </row>
-    <row r="174" spans="3:17">
+    <row r="174" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C174" s="4"/>
       <c r="E174" s="33" t="s">
         <v>586</v>
@@ -9154,7 +9154,7 @@
       <c r="P174" s="34"/>
       <c r="Q174" s="34"/>
     </row>
-    <row r="175" spans="3:17">
+    <row r="175" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C175" s="4"/>
       <c r="E175" s="37" t="s">
         <v>589</v>
@@ -9180,7 +9180,7 @@
       <c r="P175" s="38"/>
       <c r="Q175" s="38"/>
     </row>
-    <row r="176" spans="3:17" ht="15.75">
+    <row r="176" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C176" s="4"/>
       <c r="E176" s="38" t="s">
         <v>592</v>
@@ -9214,7 +9214,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="15.75">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C177" s="4"/>
       <c r="E177" s="38" t="s">
         <v>600</v>
@@ -9242,13 +9242,13 @@
       <c r="P177" s="38"/>
       <c r="Q177" s="38"/>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C178" s="4"/>
       <c r="E178" s="39" t="s">
         <v>605</v>
       </c>
       <c r="F178" s="39" t="s">
-        <v>605</v>
+        <v>23</v>
       </c>
       <c r="G178" s="39" t="s">
         <v>606</v>
@@ -9268,7 +9268,7 @@
       <c r="P178" s="40"/>
       <c r="Q178" s="40"/>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C179" s="4"/>
       <c r="E179" s="39" t="s">
         <v>608</v>
@@ -9294,7 +9294,7 @@
       <c r="P179" s="40"/>
       <c r="Q179" s="40"/>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C180" s="4"/>
       <c r="E180" s="39" t="s">
         <v>610</v>
@@ -9320,7 +9320,7 @@
       <c r="P180" s="40"/>
       <c r="Q180" s="40"/>
     </row>
-    <row r="181" spans="1:17" ht="31.5">
+    <row r="181" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="C181" s="4"/>
       <c r="E181" s="40" t="s">
         <v>614</v>
@@ -9350,7 +9350,7 @@
       </c>
       <c r="Q181" s="40"/>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C182" s="4"/>
       <c r="E182" s="39" t="s">
         <v>620</v>
@@ -9374,7 +9374,7 @@
       <c r="P182" s="40"/>
       <c r="Q182" s="40"/>
     </row>
-    <row r="183" spans="1:17" ht="15.75">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C183" s="4"/>
       <c r="E183" s="42" t="s">
         <v>623</v>
@@ -9400,7 +9400,7 @@
       <c r="P183" s="42"/>
       <c r="Q183" s="42"/>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C184" s="4"/>
       <c r="E184" s="44" t="s">
         <v>627</v>
@@ -9426,7 +9426,7 @@
       <c r="P184" s="46"/>
       <c r="Q184" s="46"/>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C185" s="4"/>
       <c r="E185" s="48" t="s">
         <v>630</v>
@@ -9454,7 +9454,7 @@
       <c r="P185" s="49"/>
       <c r="Q185" s="49"/>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C186" s="4"/>
       <c r="E186" s="51" t="s">
         <v>634</v>
@@ -9480,7 +9480,7 @@
       <c r="P186" s="52"/>
       <c r="Q186" s="52"/>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C187" s="4"/>
       <c r="E187" s="51" t="s">
         <v>637</v>
@@ -9506,7 +9506,7 @@
       <c r="P187" s="52"/>
       <c r="Q187" s="52"/>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C188" s="4"/>
       <c r="E188" s="51" t="s">
         <v>641</v>
@@ -9532,7 +9532,7 @@
       <c r="P188" s="52"/>
       <c r="Q188" s="52"/>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C189" s="4"/>
       <c r="E189" s="51" t="s">
         <v>645</v>
@@ -9558,7 +9558,7 @@
       <c r="P189" s="52"/>
       <c r="Q189" s="52"/>
     </row>
-    <row r="190" spans="1:17" s="6" customFormat="1" ht="48">
+    <row r="190" spans="1:17" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>482</v>
       </c>
@@ -9585,7 +9585,7 @@
       <c r="P190" s="5"/>
       <c r="Q190" s="5"/>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C191" s="4"/>
       <c r="E191" s="2" t="s">
         <v>653</v>
@@ -9617,7 +9617,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C192" s="4"/>
       <c r="E192" s="2" t="s">
         <v>660</v>
@@ -9641,7 +9641,7 @@
       <c r="P192" s="2"/>
       <c r="Q192" s="2"/>
     </row>
-    <row r="193" spans="2:17" ht="32.1">
+    <row r="193" spans="2:17" ht="32" x14ac:dyDescent="0.2">
       <c r="C193" s="4"/>
       <c r="E193" s="2" t="s">
         <v>664</v>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="Q193" s="2"/>
     </row>
-    <row r="194" spans="2:17">
+    <row r="194" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C194" s="4"/>
       <c r="E194" s="2" t="s">
         <v>669</v>
@@ -9693,7 +9693,7 @@
       </c>
       <c r="Q194" s="2"/>
     </row>
-    <row r="195" spans="2:17">
+    <row r="195" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C195" s="4"/>
       <c r="E195" s="2" t="s">
         <v>674</v>
@@ -9717,7 +9717,7 @@
       <c r="P195" s="2"/>
       <c r="Q195" s="2"/>
     </row>
-    <row r="196" spans="2:17">
+    <row r="196" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C196" s="4"/>
       <c r="E196" s="2" t="s">
         <v>677</v>
@@ -9748,7 +9748,7 @@
       </c>
       <c r="Q196" s="2"/>
     </row>
-    <row r="197" spans="2:17">
+    <row r="197" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C197" s="4"/>
       <c r="E197" s="2" t="s">
         <v>683</v>
@@ -9776,7 +9776,7 @@
       </c>
       <c r="Q197" s="2"/>
     </row>
-    <row r="198" spans="2:17">
+    <row r="198" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C198" s="4"/>
       <c r="E198" s="2" t="s">
         <v>689</v>
@@ -9804,7 +9804,7 @@
       <c r="P198" s="2"/>
       <c r="Q198" s="2"/>
     </row>
-    <row r="199" spans="2:17">
+    <row r="199" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C199" s="4"/>
       <c r="E199" s="2" t="s">
         <v>695</v>
@@ -9830,7 +9830,7 @@
       <c r="P199" s="2"/>
       <c r="Q199" s="2"/>
     </row>
-    <row r="200" spans="2:17">
+    <row r="200" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C200" s="4"/>
       <c r="E200" s="2" t="s">
         <v>700</v>
@@ -9854,7 +9854,7 @@
       <c r="P200" s="2"/>
       <c r="Q200" s="2"/>
     </row>
-    <row r="201" spans="2:17">
+    <row r="201" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C201" s="4"/>
       <c r="E201" s="2" t="s">
         <v>704</v>
@@ -9876,7 +9876,7 @@
       <c r="P201" s="2"/>
       <c r="Q201" s="2"/>
     </row>
-    <row r="202" spans="2:17" ht="32.1">
+    <row r="202" spans="2:17" ht="32" x14ac:dyDescent="0.2">
       <c r="C202" s="4"/>
       <c r="E202" s="2" t="s">
         <v>705</v>
@@ -9902,7 +9902,7 @@
       <c r="P202" s="2"/>
       <c r="Q202" s="2"/>
     </row>
-    <row r="203" spans="2:17">
+    <row r="203" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C203" s="4"/>
       <c r="E203" s="2" t="s">
         <v>709</v>
@@ -9935,7 +9935,7 @@
       </c>
       <c r="Q203" s="2"/>
     </row>
-    <row r="204" spans="2:17">
+    <row r="204" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C204" s="4"/>
       <c r="E204" s="2" t="s">
         <v>716</v>
@@ -9963,7 +9963,7 @@
       </c>
       <c r="Q204" s="2"/>
     </row>
-    <row r="205" spans="2:17" s="6" customFormat="1" ht="32.1">
+    <row r="205" spans="2:17" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B205" s="5" t="s">
         <v>483</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="206" spans="2:17">
+    <row r="206" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C206" s="4"/>
       <c r="E206" s="4" t="s">
         <v>723</v>
@@ -9998,7 +9998,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="207" spans="2:17">
+    <row r="207" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C207" s="4"/>
       <c r="E207" s="4" t="s">
         <v>727</v>
@@ -10019,7 +10019,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="208" spans="2:17">
+    <row r="208" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C208" s="4"/>
       <c r="E208" s="4" t="s">
         <v>731</v>
@@ -10040,7 +10040,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="209" spans="2:17">
+    <row r="209" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C209" s="4"/>
       <c r="E209" s="4" t="s">
         <v>735</v>
@@ -10064,7 +10064,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="210" spans="2:17">
+    <row r="210" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C210" s="4"/>
       <c r="E210" s="4" t="s">
         <v>739</v>
@@ -10085,7 +10085,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="211" spans="2:17">
+    <row r="211" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C211" s="4"/>
       <c r="E211" s="4" t="s">
         <v>743</v>
@@ -10106,7 +10106,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="212" spans="2:17">
+    <row r="212" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C212" s="4"/>
       <c r="E212" s="4" t="s">
         <v>747</v>
@@ -10127,7 +10127,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="213" spans="2:17">
+    <row r="213" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C213" s="4"/>
       <c r="E213" s="4" t="s">
         <v>751</v>
@@ -10148,7 +10148,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="214" spans="2:17">
+    <row r="214" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C214" s="4"/>
       <c r="E214" s="4" t="s">
         <v>755</v>
@@ -10169,7 +10169,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="215" spans="2:17">
+    <row r="215" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C215" s="4"/>
       <c r="E215" s="4" t="s">
         <v>759</v>
@@ -10190,7 +10190,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="216" spans="2:17">
+    <row r="216" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C216" s="4"/>
       <c r="E216" s="4" t="s">
         <v>763</v>
@@ -10211,7 +10211,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="217" spans="2:17">
+    <row r="217" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C217" s="4"/>
       <c r="E217" s="4" t="s">
         <v>767</v>
@@ -10232,7 +10232,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="218" spans="2:17" s="6" customFormat="1">
+    <row r="218" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B218" s="5" t="s">
         <v>771</v>
       </c>
@@ -10254,7 +10254,7 @@
       <c r="P218" s="5"/>
       <c r="Q218" s="5"/>
     </row>
-    <row r="219" spans="2:17">
+    <row r="219" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C219" s="4"/>
       <c r="E219" s="4" t="s">
         <v>775</v>
@@ -10274,7 +10274,7 @@
       <c r="P219" s="2"/>
       <c r="Q219" s="2"/>
     </row>
-    <row r="220" spans="2:17">
+    <row r="220" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C220" s="4"/>
       <c r="E220" s="4" t="s">
         <v>776</v>
@@ -10294,7 +10294,7 @@
       <c r="P220" s="2"/>
       <c r="Q220" s="2"/>
     </row>
-    <row r="221" spans="2:17">
+    <row r="221" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C221" s="4"/>
       <c r="E221" s="4" t="s">
         <v>777</v>
@@ -10314,7 +10314,7 @@
       <c r="P221" s="2"/>
       <c r="Q221" s="2"/>
     </row>
-    <row r="222" spans="2:17">
+    <row r="222" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C222" s="4"/>
       <c r="E222" s="4" t="s">
         <v>778</v>
@@ -10334,7 +10334,7 @@
       <c r="P222" s="2"/>
       <c r="Q222" s="2"/>
     </row>
-    <row r="223" spans="2:17" s="6" customFormat="1">
+    <row r="223" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B223" s="5" t="s">
         <v>771</v>
       </c>
@@ -10356,7 +10356,7 @@
       <c r="P223" s="5"/>
       <c r="Q223" s="5"/>
     </row>
-    <row r="224" spans="2:17">
+    <row r="224" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C224" s="4"/>
       <c r="E224" s="4" t="s">
         <v>727</v>
@@ -10374,7 +10374,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="225" spans="3:14">
+    <row r="225" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C225" s="4"/>
       <c r="E225" s="4" t="s">
         <v>782</v>
@@ -10392,7 +10392,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="226" spans="3:14">
+    <row r="226" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C226" s="4"/>
       <c r="E226" s="4" t="s">
         <v>785</v>
@@ -10410,7 +10410,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="227" spans="3:14">
+    <row r="227" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C227" s="4"/>
       <c r="E227" s="4" t="s">
         <v>787</v>
@@ -10428,7 +10428,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="228" spans="3:14">
+    <row r="228" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C228" s="4"/>
       <c r="E228" s="4" t="s">
         <v>790</v>
@@ -10446,7 +10446,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="229" spans="3:14">
+    <row r="229" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C229" s="4"/>
       <c r="E229" s="4" t="s">
         <v>793</v>
@@ -10470,7 +10470,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="230" spans="3:14">
+    <row r="230" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C230" s="4"/>
       <c r="E230" s="4" t="s">
         <v>798</v>
@@ -10491,7 +10491,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="231" spans="3:14">
+    <row r="231" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C231" s="4"/>
       <c r="E231" s="4" t="s">
         <v>803</v>
@@ -10506,7 +10506,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="232" spans="3:14">
+    <row r="232" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C232" s="4"/>
       <c r="E232" s="4" t="s">
         <v>805</v>
@@ -10527,7 +10527,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="233" spans="3:14">
+    <row r="233" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C233" s="4"/>
       <c r="E233" s="4" t="s">
         <v>809</v>
@@ -10545,7 +10545,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="234" spans="3:14">
+    <row r="234" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C234" s="4"/>
       <c r="E234" s="4" t="s">
         <v>812</v>
@@ -10563,7 +10563,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="235" spans="3:14">
+    <row r="235" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C235" s="4"/>
       <c r="E235" s="4" t="s">
         <v>814</v>
@@ -10581,7 +10581,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="236" spans="3:14">
+    <row r="236" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C236" s="4"/>
       <c r="E236" s="4" t="s">
         <v>817</v>
@@ -10599,7 +10599,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="237" spans="3:14">
+    <row r="237" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C237" s="4"/>
       <c r="E237" s="4" t="s">
         <v>819</v>
@@ -10614,7 +10614,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="238" spans="3:14">
+    <row r="238" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C238" s="4"/>
       <c r="E238" s="4" t="s">
         <v>822</v>
@@ -10629,7 +10629,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="239" spans="3:14">
+    <row r="239" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C239" s="4"/>
       <c r="E239" s="4" t="s">
         <v>825</v>
@@ -10644,7 +10644,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="240" spans="3:14">
+    <row r="240" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C240" s="4"/>
       <c r="E240" s="4" t="s">
         <v>828</v>
@@ -10659,7 +10659,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="241" spans="3:12">
+    <row r="241" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C241" s="4"/>
       <c r="E241" s="4" t="s">
         <v>831</v>
@@ -10671,7 +10671,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="242" spans="3:12">
+    <row r="242" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C242" s="4"/>
       <c r="E242" s="4" t="s">
         <v>833</v>
@@ -10686,7 +10686,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="243" spans="3:12">
+    <row r="243" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C243" s="4"/>
       <c r="E243" s="4" t="s">
         <v>836</v>
@@ -10698,7 +10698,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="244" spans="3:12">
+    <row r="244" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C244" s="4"/>
       <c r="E244" s="4" t="s">
         <v>838</v>
@@ -10710,7 +10710,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="245" spans="3:12">
+    <row r="245" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C245" s="4"/>
       <c r="E245" s="4" t="s">
         <v>840</v>
@@ -10722,7 +10722,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="246" spans="3:12">
+    <row r="246" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C246" s="4"/>
       <c r="E246" s="4" t="s">
         <v>842</v>
@@ -10734,7 +10734,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="247" spans="3:12">
+    <row r="247" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C247" s="4"/>
       <c r="E247" s="4" t="s">
         <v>844</v>
@@ -10749,7 +10749,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="248" spans="3:12">
+    <row r="248" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C248" s="4"/>
       <c r="E248" s="4" t="s">
         <v>847</v>
@@ -10767,7 +10767,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="249" spans="3:12">
+    <row r="249" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C249" s="4"/>
       <c r="E249" s="4" t="s">
         <v>851</v>
@@ -10782,7 +10782,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="250" spans="3:12">
+    <row r="250" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C250" s="4"/>
       <c r="E250" s="4" t="s">
         <v>854</v>
@@ -10797,7 +10797,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="251" spans="3:12">
+    <row r="251" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C251" s="4"/>
       <c r="E251" s="4" t="s">
         <v>857</v>
@@ -10812,7 +10812,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="252" spans="3:12">
+    <row r="252" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C252" s="4"/>
       <c r="E252" s="4" t="s">
         <v>860</v>
@@ -10824,7 +10824,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="253" spans="3:12">
+    <row r="253" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C253" s="4"/>
       <c r="E253" s="4" t="s">
         <v>862</v>
@@ -10839,7 +10839,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="254" spans="3:12">
+    <row r="254" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C254" s="4"/>
       <c r="E254" s="4" t="s">
         <v>864</v>
@@ -10854,7 +10854,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="255" spans="3:12">
+    <row r="255" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C255" s="4"/>
       <c r="E255" s="4" t="s">
         <v>867</v>
@@ -10869,7 +10869,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="256" spans="3:12">
+    <row r="256" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C256" s="4"/>
       <c r="E256" s="4" t="s">
         <v>869</v>
@@ -10887,7 +10887,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="257" spans="3:12">
+    <row r="257" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C257" s="4"/>
       <c r="E257" s="4" t="s">
         <v>873</v>
@@ -10905,7 +10905,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="258" spans="3:12">
+    <row r="258" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C258" s="4"/>
       <c r="E258" s="4" t="s">
         <v>876</v>
@@ -10920,7 +10920,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="259" spans="3:12">
+    <row r="259" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C259" s="4"/>
       <c r="E259" s="4" t="s">
         <v>878</v>
@@ -10935,7 +10935,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="260" spans="3:12">
+    <row r="260" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C260" s="4"/>
       <c r="E260" s="4" t="s">
         <v>880</v>
@@ -10950,7 +10950,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="261" spans="3:12">
+    <row r="261" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C261" s="4"/>
       <c r="E261" s="4" t="s">
         <v>882</v>
@@ -10965,7 +10965,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="262" spans="3:12">
+    <row r="262" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C262" s="4"/>
       <c r="E262" s="4" t="s">
         <v>884</v>
@@ -10983,7 +10983,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="263" spans="3:12">
+    <row r="263" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C263" s="4"/>
       <c r="E263" s="4" t="s">
         <v>887</v>
@@ -10998,7 +10998,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="264" spans="3:12">
+    <row r="264" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C264" s="4"/>
       <c r="E264" s="4" t="s">
         <v>889</v>
@@ -11016,7 +11016,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="265" spans="3:12">
+    <row r="265" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C265" s="4"/>
       <c r="E265" s="4" t="s">
         <v>892</v>
@@ -11031,7 +11031,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="266" spans="3:12">
+    <row r="266" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C266" s="4"/>
       <c r="E266" s="4" t="s">
         <v>894</v>
@@ -11052,7 +11052,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="267" spans="3:12">
+    <row r="267" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C267" s="4"/>
       <c r="E267" s="4" t="s">
         <v>898</v>
@@ -11070,7 +11070,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="268" spans="3:12">
+    <row r="268" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C268" s="4"/>
       <c r="E268" s="4" t="s">
         <v>901</v>
@@ -11088,7 +11088,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="269" spans="3:12">
+    <row r="269" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C269" s="4"/>
       <c r="E269" s="4" t="s">
         <v>904</v>
@@ -11106,7 +11106,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="270" spans="3:12">
+    <row r="270" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C270" s="4"/>
       <c r="E270" s="4" t="s">
         <v>908</v>
@@ -11121,7 +11121,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="271" spans="3:12">
+    <row r="271" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C271" s="4"/>
       <c r="E271" s="4" t="s">
         <v>910</v>
@@ -11142,7 +11142,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="272" spans="3:12">
+    <row r="272" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C272" s="4"/>
       <c r="E272" s="4" t="s">
         <v>914</v>
@@ -11157,7 +11157,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="273" spans="3:13">
+    <row r="273" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C273" s="4"/>
       <c r="E273" s="4" t="s">
         <v>916</v>
@@ -11169,7 +11169,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="274" spans="3:13">
+    <row r="274" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C274" s="4"/>
       <c r="E274" s="4" t="s">
         <v>918</v>
@@ -11187,7 +11187,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="275" spans="3:13">
+    <row r="275" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C275" s="4"/>
       <c r="E275" s="4" t="s">
         <v>922</v>
@@ -11199,7 +11199,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="276" spans="3:13">
+    <row r="276" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C276" s="4"/>
       <c r="E276" s="4" t="s">
         <v>924</v>
@@ -11211,7 +11211,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="277" spans="3:13">
+    <row r="277" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C277" s="4"/>
       <c r="E277" s="4" t="s">
         <v>926</v>
@@ -11223,7 +11223,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="278" spans="3:13">
+    <row r="278" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C278" s="4"/>
       <c r="E278" s="4" t="s">
         <v>928</v>
@@ -11238,7 +11238,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="279" spans="3:13">
+    <row r="279" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C279" s="4"/>
       <c r="E279" s="4" t="s">
         <v>931</v>
@@ -11256,7 +11256,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="280" spans="3:13">
+    <row r="280" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C280" s="4"/>
       <c r="E280" s="4" t="s">
         <v>935</v>
@@ -11268,7 +11268,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="281" spans="3:13">
+    <row r="281" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C281" s="4"/>
       <c r="E281" s="4" t="s">
         <v>937</v>
@@ -11286,7 +11286,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="282" spans="3:13">
+    <row r="282" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C282" s="4"/>
       <c r="E282" s="4" t="s">
         <v>941</v>
@@ -11301,7 +11301,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="283" spans="3:13">
+    <row r="283" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C283" s="4"/>
       <c r="E283" s="4" t="s">
         <v>944</v>
@@ -11313,7 +11313,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="284" spans="3:13">
+    <row r="284" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C284" s="4"/>
       <c r="E284" s="4" t="s">
         <v>946</v>
@@ -11334,7 +11334,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="285" spans="3:13">
+    <row r="285" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C285" s="4"/>
       <c r="E285" s="4" t="s">
         <v>949</v>
@@ -11346,7 +11346,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="286" spans="3:13">
+    <row r="286" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C286" s="4"/>
       <c r="E286" s="4" t="s">
         <v>951</v>
@@ -11361,7 +11361,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="287" spans="3:13">
+    <row r="287" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C287" s="4"/>
       <c r="E287" s="4" t="s">
         <v>954</v>
@@ -11373,7 +11373,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="288" spans="3:13">
+    <row r="288" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C288" s="4"/>
       <c r="E288" s="4" t="s">
         <v>956</v>
@@ -11388,7 +11388,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="289" spans="2:17">
+    <row r="289" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C289" s="4"/>
       <c r="E289" s="4" t="s">
         <v>959</v>
@@ -11406,7 +11406,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="290" spans="2:17">
+    <row r="290" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C290" s="4"/>
       <c r="E290" s="4" t="s">
         <v>963</v>
@@ -11418,7 +11418,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="291" spans="2:17">
+    <row r="291" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C291" s="4"/>
       <c r="E291" s="4" t="s">
         <v>965</v>
@@ -11430,7 +11430,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="292" spans="2:17">
+    <row r="292" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C292" s="4"/>
       <c r="E292" s="4" t="s">
         <v>967</v>
@@ -11442,7 +11442,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="293" spans="2:17">
+    <row r="293" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C293" s="4"/>
       <c r="E293" s="4" t="s">
         <v>969</v>
@@ -11454,7 +11454,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="294" spans="2:17">
+    <row r="294" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C294" s="4"/>
       <c r="E294" s="4" t="s">
         <v>971</v>
@@ -11469,7 +11469,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="295" spans="2:17">
+    <row r="295" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C295" s="4"/>
       <c r="E295" s="4" t="s">
         <v>974</v>
@@ -11481,7 +11481,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="296" spans="2:17">
+    <row r="296" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C296" s="4"/>
       <c r="E296" s="4" t="s">
         <v>976</v>
@@ -11496,7 +11496,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="297" spans="2:17">
+    <row r="297" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C297" s="4"/>
       <c r="E297" s="4" t="s">
         <v>979</v>
@@ -11508,7 +11508,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="298" spans="2:17" s="8" customFormat="1">
+    <row r="298" spans="2:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B298" s="10"/>
       <c r="C298" s="8" t="s">
         <v>981</v>
@@ -11531,7 +11531,7 @@
       <c r="P298" s="10"/>
       <c r="Q298" s="10"/>
     </row>
-    <row r="299" spans="2:17">
+    <row r="299" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C299" s="4"/>
       <c r="E299" s="4" t="s">
         <v>985</v>
@@ -11556,7 +11556,7 @@
       <c r="P299" s="2"/>
       <c r="Q299" s="2"/>
     </row>
-    <row r="300" spans="2:17">
+    <row r="300" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C300" s="4"/>
       <c r="E300" s="4" t="s">
         <v>988</v>
@@ -11581,7 +11581,7 @@
       <c r="P300" s="2"/>
       <c r="Q300" s="2"/>
     </row>
-    <row r="301" spans="2:17" s="8" customFormat="1" ht="32.1">
+    <row r="301" spans="2:17" s="8" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B301" s="10"/>
       <c r="C301" s="10" t="s">
         <v>991</v>
@@ -11593,7 +11593,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="302" spans="2:17">
+    <row r="302" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C302" s="4"/>
       <c r="E302" s="4" t="s">
         <v>994</v>
@@ -11617,7 +11617,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="303" spans="2:17">
+    <row r="303" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C303" s="4"/>
       <c r="D303" s="1"/>
       <c r="E303" s="4" t="s">
@@ -11642,7 +11642,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="304" spans="2:17">
+    <row r="304" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C304" s="4"/>
       <c r="D304" s="1"/>
       <c r="E304" s="4" t="s">
@@ -11667,7 +11667,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="305" spans="2:17">
+    <row r="305" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C305" s="4"/>
       <c r="D305" s="1"/>
       <c r="E305" s="4" t="s">
@@ -11692,7 +11692,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="306" spans="2:17" s="8" customFormat="1" ht="32.1">
+    <row r="306" spans="2:17" s="8" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B306" s="10"/>
       <c r="C306" s="10" t="s">
         <v>1007</v>
@@ -11704,7 +11704,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="307" spans="2:17">
+    <row r="307" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C307" s="4"/>
       <c r="E307" s="2" t="s">
         <v>1010</v>
@@ -11719,7 +11719,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="308" spans="2:17">
+    <row r="308" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C308" s="4"/>
       <c r="D308" s="1"/>
       <c r="E308" s="4" t="s">
@@ -11735,7 +11735,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="309" spans="2:17" s="8" customFormat="1" ht="32.1">
+    <row r="309" spans="2:17" s="8" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B309" s="10"/>
       <c r="C309" s="10" t="s">
         <v>1012</v>
@@ -11747,7 +11747,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="310" spans="2:17">
+    <row r="310" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C310" s="4"/>
       <c r="E310" s="2" t="s">
         <v>1015</v>
@@ -11765,7 +11765,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="311" spans="2:17">
+    <row r="311" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C311" s="4"/>
       <c r="E311" s="4" t="s">
         <v>1017</v>
@@ -11783,7 +11783,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="312" spans="2:17" s="8" customFormat="1" ht="32.1">
+    <row r="312" spans="2:17" s="8" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B312" s="10" t="s">
         <v>771</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="319" spans="2:17" s="12" customFormat="1">
+    <row r="319" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B319" s="13" t="s">
         <v>1023</v>
       </c>
@@ -11824,7 +11824,7 @@
       <c r="P319" s="13"/>
       <c r="Q319" s="13"/>
     </row>
-    <row r="320" spans="2:17">
+    <row r="320" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E320" s="4" t="s">
         <v>1027</v>
       </c>
@@ -11841,7 +11841,7 @@
       </c>
       <c r="M320" s="2"/>
     </row>
-    <row r="321" spans="2:17">
+    <row r="321" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
@@ -11865,7 +11865,7 @@
       <c r="P321" s="2"/>
       <c r="Q321" s="2"/>
     </row>
-    <row r="322" spans="2:17">
+    <row r="322" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C322" s="4"/>
       <c r="E322" s="2" t="s">
         <v>1032</v>
@@ -11887,7 +11887,7 @@
       <c r="P322" s="2"/>
       <c r="Q322" s="2"/>
     </row>
-    <row r="323" spans="2:17">
+    <row r="323" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C323" s="4"/>
       <c r="E323" s="2" t="s">
         <v>1035</v>
@@ -11909,7 +11909,7 @@
       <c r="P323" s="2"/>
       <c r="Q323" s="2"/>
     </row>
-    <row r="324" spans="2:17">
+    <row r="324" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
       <c r="N324" s="2"/>
@@ -11917,7 +11917,7 @@
       <c r="P324" s="2"/>
       <c r="Q324" s="2"/>
     </row>
-    <row r="325" spans="2:17">
+    <row r="325" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C325" s="4"/>
       <c r="E325" s="2" t="s">
         <v>1038</v>
@@ -11939,7 +11939,7 @@
       <c r="P325" s="2"/>
       <c r="Q325" s="2"/>
     </row>
-    <row r="326" spans="2:17">
+    <row r="326" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C326" s="4"/>
       <c r="E326" s="2" t="s">
         <v>1040</v>
@@ -11961,7 +11961,7 @@
       <c r="P326" s="2"/>
       <c r="Q326" s="2"/>
     </row>
-    <row r="327" spans="2:17">
+    <row r="327" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C327" s="4"/>
       <c r="E327" s="2" t="s">
         <v>1043</v>
@@ -11983,7 +11983,7 @@
       <c r="P327" s="2"/>
       <c r="Q327" s="2"/>
     </row>
-    <row r="328" spans="2:17">
+    <row r="328" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C328" s="4"/>
       <c r="E328" s="4" t="s">
         <v>1045</v>
@@ -12005,7 +12005,7 @@
       <c r="P328" s="2"/>
       <c r="Q328" s="2"/>
     </row>
-    <row r="329" spans="2:17" ht="32.1">
+    <row r="329" spans="2:17" ht="32" x14ac:dyDescent="0.2">
       <c r="B329" s="2" t="s">
         <v>1047</v>
       </c>
@@ -12030,7 +12030,7 @@
       <c r="P329" s="2"/>
       <c r="Q329" s="2"/>
     </row>
-    <row r="330" spans="2:17" s="6" customFormat="1">
+    <row r="330" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B330" s="5" t="s">
         <v>1049</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="331" spans="2:17">
+    <row r="331" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C331" s="4"/>
       <c r="E331" s="2" t="s">
         <v>1052</v>
@@ -12066,7 +12066,7 @@
       <c r="P331" s="2"/>
       <c r="Q331" s="2"/>
     </row>
-    <row r="332" spans="2:17">
+    <row r="332" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C332" s="4"/>
       <c r="E332" s="2" t="s">
         <v>1055</v>
@@ -12088,7 +12088,7 @@
       <c r="P332" s="2"/>
       <c r="Q332" s="2"/>
     </row>
-    <row r="333" spans="2:17">
+    <row r="333" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C333" s="4"/>
       <c r="E333" s="2" t="s">
         <v>1059</v>
@@ -12111,7 +12111,7 @@
       <c r="P333" s="2"/>
       <c r="Q333" s="2"/>
     </row>
-    <row r="334" spans="2:17" s="6" customFormat="1">
+    <row r="334" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B334" s="5"/>
       <c r="D334" s="12" t="s">
         <v>1063</v>
@@ -12128,7 +12128,7 @@
       <c r="P334" s="5"/>
       <c r="Q334" s="5"/>
     </row>
-    <row r="335" spans="2:17" s="6" customFormat="1">
+    <row r="335" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B335" s="5"/>
       <c r="D335" s="12" t="s">
         <v>1064</v>
@@ -12145,7 +12145,7 @@
       <c r="P335" s="5"/>
       <c r="Q335" s="5"/>
     </row>
-    <row r="336" spans="2:17" s="6" customFormat="1">
+    <row r="336" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B336" s="5"/>
       <c r="D336" s="13" t="s">
         <v>1066</v>
@@ -12162,7 +12162,7 @@
       <c r="P336" s="5"/>
       <c r="Q336" s="5"/>
     </row>
-    <row r="337" spans="1:17" s="6" customFormat="1">
+    <row r="337" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B337" s="5"/>
       <c r="D337" s="12" t="s">
         <v>1067</v>
@@ -12179,7 +12179,7 @@
       <c r="P337" s="5"/>
       <c r="Q337" s="5"/>
     </row>
-    <row r="338" spans="1:17">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C338" s="4"/>
       <c r="E338" s="2" t="s">
         <v>1069</v>
@@ -12199,7 +12199,7 @@
       <c r="P338" s="2"/>
       <c r="Q338" s="2"/>
     </row>
-    <row r="339" spans="1:17">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C339" s="4"/>
       <c r="E339" s="4" t="s">
         <v>1070</v>
@@ -12219,7 +12219,7 @@
       <c r="P339" s="2"/>
       <c r="Q339" s="2"/>
     </row>
-    <row r="340" spans="1:17" s="6" customFormat="1">
+    <row r="340" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B340" s="5"/>
       <c r="D340" s="12" t="s">
         <v>1072</v>
@@ -12236,7 +12236,7 @@
       <c r="P340" s="5"/>
       <c r="Q340" s="5"/>
     </row>
-    <row r="341" spans="1:17" s="6" customFormat="1">
+    <row r="341" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B341" s="5"/>
       <c r="D341" s="12" t="s">
         <v>1074</v>
@@ -12253,7 +12253,7 @@
       <c r="P341" s="5"/>
       <c r="Q341" s="5"/>
     </row>
-    <row r="342" spans="1:17" s="6" customFormat="1">
+    <row r="342" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="6" t="s">
         <v>1076</v>
       </c>
@@ -12270,7 +12270,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="343" spans="1:17">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C343" s="4"/>
       <c r="E343" s="4" t="s">
         <v>1080</v>
@@ -12282,7 +12282,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="344" spans="1:17">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C344" s="4"/>
       <c r="E344" s="4" t="s">
         <v>1082</v>
@@ -12294,7 +12294,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="345" spans="1:17">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C345" s="4"/>
       <c r="E345" s="4" t="s">
         <v>1084</v>
@@ -12306,7 +12306,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="346" spans="1:17">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C346" s="4"/>
       <c r="E346" s="4" t="s">
         <v>1086</v>
@@ -12318,7 +12318,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="347" spans="1:17">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C347" s="4"/>
       <c r="E347" s="4" t="s">
         <v>1088</v>
@@ -12330,7 +12330,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="348" spans="1:17">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C348" s="4"/>
       <c r="E348" s="4" t="s">
         <v>1090</v>
@@ -12342,7 +12342,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="349" spans="1:17">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C349" s="4"/>
       <c r="E349" s="4" t="s">
         <v>1092</v>
@@ -12354,7 +12354,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="350" spans="1:17">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C350" s="4"/>
       <c r="E350" s="4" t="s">
         <v>1095</v>
@@ -12366,7 +12366,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="351" spans="1:17">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C351" s="4"/>
       <c r="E351" s="4" t="s">
         <v>1097</v>
@@ -12378,7 +12378,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="352" spans="1:17">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C352" s="4"/>
       <c r="E352" s="4" t="s">
         <v>1099</v>
@@ -12390,7 +12390,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="353" spans="3:9">
+    <row r="353" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C353" s="4"/>
       <c r="E353" s="4" t="s">
         <v>1101</v>
@@ -12402,7 +12402,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="354" spans="3:9">
+    <row r="354" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C354" s="4"/>
       <c r="E354" s="4" t="s">
         <v>1104</v>
@@ -12414,7 +12414,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="355" spans="3:9">
+    <row r="355" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C355" s="4"/>
       <c r="E355" s="4" t="s">
         <v>1107</v>
@@ -12426,7 +12426,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="356" spans="3:9">
+    <row r="356" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C356" s="4"/>
       <c r="E356" s="4" t="s">
         <v>1109</v>
@@ -12438,7 +12438,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="357" spans="3:9">
+    <row r="357" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C357" s="4"/>
       <c r="E357" s="4" t="s">
         <v>1112</v>
@@ -12450,7 +12450,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="358" spans="3:9">
+    <row r="358" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C358" s="4"/>
       <c r="E358" s="4" t="s">
         <v>1114</v>
@@ -12462,7 +12462,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="359" spans="3:9">
+    <row r="359" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C359" s="4"/>
       <c r="E359" s="4" t="s">
         <v>1117</v>
@@ -12474,7 +12474,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="360" spans="3:9">
+    <row r="360" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C360" s="4"/>
       <c r="E360" s="4" t="s">
         <v>1120</v>
@@ -12486,7 +12486,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="361" spans="3:9">
+    <row r="361" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C361" s="4"/>
       <c r="E361" s="4" t="s">
         <v>1123</v>
@@ -12498,7 +12498,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="362" spans="3:9">
+    <row r="362" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C362" s="4"/>
       <c r="E362" s="4" t="s">
         <v>1126</v>
@@ -12510,7 +12510,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="363" spans="3:9">
+    <row r="363" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C363" s="4"/>
       <c r="E363" s="4" t="s">
         <v>1128</v>
@@ -12522,7 +12522,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="364" spans="3:9">
+    <row r="364" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C364" s="4"/>
       <c r="E364" s="4" t="s">
         <v>589</v>
@@ -12534,7 +12534,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="365" spans="3:9">
+    <row r="365" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C365" s="4"/>
       <c r="E365" s="4" t="s">
         <v>1132</v>
@@ -12546,7 +12546,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="366" spans="3:9">
+    <row r="366" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C366" s="4"/>
       <c r="E366" s="4" t="s">
         <v>1135</v>
@@ -12558,7 +12558,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="367" spans="3:9">
+    <row r="367" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C367" s="4"/>
       <c r="E367" s="4" t="s">
         <v>1138</v>
@@ -12570,7 +12570,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="368" spans="3:9">
+    <row r="368" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C368" s="4"/>
       <c r="E368" s="4" t="s">
         <v>600</v>
@@ -12582,7 +12582,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="369" spans="3:9">
+    <row r="369" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C369" s="4"/>
       <c r="E369" s="4" t="s">
         <v>1142</v>
@@ -12594,7 +12594,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="370" spans="3:9">
+    <row r="370" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C370" s="4"/>
       <c r="E370" s="4" t="s">
         <v>1145</v>
@@ -12606,7 +12606,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="371" spans="3:9">
+    <row r="371" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C371" s="4"/>
       <c r="E371" s="4" t="s">
         <v>1148</v>
@@ -12618,7 +12618,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="372" spans="3:9">
+    <row r="372" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C372" s="4"/>
       <c r="E372" s="4" t="s">
         <v>1151</v>
@@ -12630,7 +12630,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="373" spans="3:9">
+    <row r="373" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C373" s="4"/>
       <c r="E373" s="4" t="s">
         <v>1154</v>
@@ -12642,7 +12642,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="374" spans="3:9">
+    <row r="374" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C374" s="4"/>
       <c r="E374" s="4" t="s">
         <v>1157</v>
@@ -12654,7 +12654,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="375" spans="3:9">
+    <row r="375" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C375" s="4"/>
       <c r="E375" s="4" t="s">
         <v>1159</v>
@@ -12666,7 +12666,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="376" spans="3:9">
+    <row r="376" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C376" s="4"/>
       <c r="E376" s="4" t="s">
         <v>431</v>
@@ -12678,7 +12678,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="377" spans="3:9">
+    <row r="377" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C377" s="4"/>
       <c r="E377" s="4" t="s">
         <v>1163</v>
@@ -12690,7 +12690,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="378" spans="3:9">
+    <row r="378" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C378" s="4"/>
       <c r="E378" s="4" t="s">
         <v>216</v>
@@ -12702,7 +12702,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="379" spans="3:9">
+    <row r="379" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C379" s="4"/>
       <c r="E379" s="4" t="s">
         <v>1166</v>
@@ -12714,7 +12714,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="380" spans="3:9">
+    <row r="380" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C380" s="4"/>
       <c r="E380" s="4" t="s">
         <v>1169</v>
@@ -12726,7 +12726,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="381" spans="3:9">
+    <row r="381" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C381" s="4"/>
       <c r="E381" s="4" t="s">
         <v>1172</v>
@@ -12738,7 +12738,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="382" spans="3:9">
+    <row r="382" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C382" s="4"/>
       <c r="E382" s="4" t="s">
         <v>1174</v>
@@ -12750,7 +12750,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="383" spans="3:9">
+    <row r="383" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C383" s="4"/>
       <c r="E383" s="4" t="s">
         <v>1176</v>
@@ -12762,7 +12762,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="384" spans="3:9">
+    <row r="384" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C384" s="4"/>
       <c r="E384" s="4" t="s">
         <v>1178</v>
@@ -12774,7 +12774,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="385" spans="3:9">
+    <row r="385" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C385" s="4"/>
       <c r="E385" s="4" t="s">
         <v>1180</v>
@@ -12786,7 +12786,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="386" spans="3:9">
+    <row r="386" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C386" s="4"/>
       <c r="E386" s="4" t="s">
         <v>704</v>
@@ -12798,7 +12798,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="387" spans="3:9">
+    <row r="387" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C387" s="4"/>
       <c r="E387" s="4" t="s">
         <v>1184</v>
@@ -12810,7 +12810,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="388" spans="3:9">
+    <row r="388" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C388" s="4"/>
       <c r="E388" s="4" t="s">
         <v>1187</v>
@@ -12822,7 +12822,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="389" spans="3:9">
+    <row r="389" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C389" s="4"/>
       <c r="E389" s="4" t="s">
         <v>1190</v>
@@ -12834,7 +12834,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="390" spans="3:9">
+    <row r="390" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C390" s="4"/>
       <c r="E390" s="4" t="s">
         <v>1192</v>
@@ -12846,7 +12846,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="391" spans="3:9">
+    <row r="391" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C391" s="4"/>
       <c r="E391" s="4" t="s">
         <v>1195</v>
@@ -12858,7 +12858,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="392" spans="3:9">
+    <row r="392" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C392" s="4"/>
       <c r="E392" s="4" t="s">
         <v>1197</v>
@@ -12870,7 +12870,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="393" spans="3:9">
+    <row r="393" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C393" s="4"/>
       <c r="E393" s="4" t="s">
         <v>1199</v>
@@ -12882,7 +12882,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="394" spans="3:9">
+    <row r="394" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C394" s="4"/>
       <c r="E394" s="4" t="s">
         <v>1201</v>
@@ -12894,7 +12894,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="395" spans="3:9">
+    <row r="395" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C395" s="4"/>
       <c r="E395" s="4" t="s">
         <v>1203</v>
@@ -12906,7 +12906,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="396" spans="3:9">
+    <row r="396" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C396" s="4"/>
       <c r="E396" s="4" t="s">
         <v>1205</v>
@@ -12918,7 +12918,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="397" spans="3:9">
+    <row r="397" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C397" s="4"/>
       <c r="E397" s="4" t="s">
         <v>1207</v>
@@ -12930,7 +12930,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="398" spans="3:9">
+    <row r="398" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C398" s="4"/>
       <c r="E398" s="4" t="s">
         <v>1209</v>
@@ -12942,7 +12942,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="399" spans="3:9">
+    <row r="399" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C399" s="4"/>
       <c r="E399" s="4" t="s">
         <v>1211</v>
@@ -12954,7 +12954,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="400" spans="3:9">
+    <row r="400" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C400" s="4"/>
       <c r="E400" s="4" t="s">
         <v>1213</v>
@@ -12966,7 +12966,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="401" spans="1:17">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C401" s="4"/>
       <c r="E401" s="4" t="s">
         <v>1215</v>
@@ -12978,7 +12978,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="402" spans="1:17">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C402" s="4"/>
       <c r="E402" s="4" t="s">
         <v>1217</v>
@@ -12990,7 +12990,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="403" spans="1:17">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C403" s="4"/>
       <c r="E403" s="4" t="s">
         <v>1219</v>
@@ -13002,7 +13002,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="404" spans="1:17">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C404" s="4"/>
       <c r="E404" s="4" t="s">
         <v>1220</v>
@@ -13014,7 +13014,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="405" spans="1:17">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C405" s="4"/>
       <c r="E405" s="4" t="s">
         <v>1221</v>
@@ -13026,7 +13026,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="406" spans="1:17">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C406" s="4"/>
       <c r="E406" s="4" t="s">
         <v>1222</v>
@@ -13038,7 +13038,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="407" spans="1:17">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C407" s="4"/>
       <c r="E407" s="4" t="s">
         <v>1225</v>
@@ -13050,7 +13050,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="408" spans="1:17">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C408" s="4"/>
       <c r="E408" s="4" t="s">
         <v>1227</v>
@@ -13062,7 +13062,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="409" spans="1:17" s="8" customFormat="1" ht="32.1">
+    <row r="409" spans="1:17" s="8" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A409" s="8" t="s">
         <v>104</v>
       </c>
@@ -13090,7 +13090,7 @@
       <c r="P409" s="10"/>
       <c r="Q409" s="10"/>
     </row>
-    <row r="410" spans="1:17">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C410" s="4"/>
       <c r="E410" s="4" t="s">
         <v>1233</v>
@@ -13118,7 +13118,7 @@
       </c>
       <c r="Q410" s="2"/>
     </row>
-    <row r="411" spans="1:17">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C411" s="4"/>
       <c r="E411" s="4" t="s">
         <v>1239</v>
@@ -13147,7 +13147,7 @@
       </c>
       <c r="Q411" s="2"/>
     </row>
-    <row r="412" spans="1:17">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C412" s="4"/>
       <c r="E412" s="4" t="s">
         <v>1245</v>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="Q412" s="2"/>
     </row>
-    <row r="413" spans="1:17">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C413" s="4"/>
       <c r="E413" s="4" t="s">
         <v>1251</v>
@@ -13205,7 +13205,7 @@
       </c>
       <c r="Q413" s="2"/>
     </row>
-    <row r="414" spans="1:17">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C414" s="4"/>
       <c r="E414" s="2" t="s">
         <v>1257</v>
@@ -13234,7 +13234,7 @@
       </c>
       <c r="Q414" s="2"/>
     </row>
-    <row r="415" spans="1:17">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C415" s="4"/>
       <c r="E415" s="2" t="s">
         <v>1263</v>
@@ -13262,7 +13262,7 @@
       </c>
       <c r="Q415" s="2"/>
     </row>
-    <row r="416" spans="1:17">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C416" s="4"/>
       <c r="E416" s="2" t="s">
         <v>1269</v>
@@ -13290,7 +13290,7 @@
       </c>
       <c r="Q416" s="2"/>
     </row>
-    <row r="417" spans="3:17">
+    <row r="417" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C417" s="4"/>
       <c r="E417" s="2" t="s">
         <v>1275</v>
@@ -13318,7 +13318,7 @@
       </c>
       <c r="Q417" s="2"/>
     </row>
-    <row r="418" spans="3:17">
+    <row r="418" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C418" s="4"/>
       <c r="E418" s="2" t="s">
         <v>1281</v>
@@ -13346,7 +13346,7 @@
       </c>
       <c r="Q418" s="2"/>
     </row>
-    <row r="419" spans="3:17">
+    <row r="419" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C419" s="4"/>
       <c r="E419" s="2" t="s">
         <v>1287</v>
@@ -13374,7 +13374,7 @@
       </c>
       <c r="Q419" s="2"/>
     </row>
-    <row r="420" spans="3:17">
+    <row r="420" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C420" s="4"/>
       <c r="E420" s="2" t="s">
         <v>1293</v>
@@ -13404,7 +13404,7 @@
       </c>
       <c r="Q420" s="2"/>
     </row>
-    <row r="421" spans="3:17">
+    <row r="421" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C421" s="4"/>
       <c r="E421" s="2" t="s">
         <v>1300</v>
@@ -13432,7 +13432,7 @@
       </c>
       <c r="Q421" s="2"/>
     </row>
-    <row r="422" spans="3:17">
+    <row r="422" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C422" s="4"/>
       <c r="E422" s="2" t="s">
         <v>1306</v>
@@ -13460,7 +13460,7 @@
       </c>
       <c r="Q422" s="2"/>
     </row>
-    <row r="423" spans="3:17">
+    <row r="423" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C423" s="4"/>
       <c r="E423" s="2" t="s">
         <v>1312</v>
@@ -13488,7 +13488,7 @@
       </c>
       <c r="Q423" s="2"/>
     </row>
-    <row r="424" spans="3:17">
+    <row r="424" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C424" s="4"/>
       <c r="E424" s="2" t="s">
         <v>1318</v>
@@ -13524,15 +13524,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EDAEA73E7205FC4A964C1A30B9C84255" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="47f94273412d6c21c41e0711699cd6e9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e27e9589-21fc-4398-8725-82e2ac65f498" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="829cfb4b5e9357877c7ce7c5b5b53c18" ns2:_="">
     <xsd:import namespace="e27e9589-21fc-4398-8725-82e2ac65f498"/>
@@ -13664,6 +13655,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -13671,13 +13671,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3DD667B-E914-4FCD-BDEE-77B7D246D1FC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BDF660C-5F9A-4432-A719-4ADF968A3974}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e27e9589-21fc-4398-8725-82e2ac65f498"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BDF660C-5F9A-4432-A719-4ADF968A3974}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3DD667B-E914-4FCD-BDEE-77B7D246D1FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9C5BDE-6348-4021-AC1D-75AECA916505}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9C5BDE-6348-4021-AC1D-75AECA916505}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>